--- a/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6440" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6440" uniqueCount="1494">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -5841,6 +5841,10 @@
   <si>
     <t>ウェブプロジェクト/main/resources/net/unit8/http/router/routes.properties
 RESTfulウェブサービスプロジェクト/main/resources/net/unit8/http/router/routes.properties</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6280,2059 +6284,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="592">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="421">
     <dxf>
       <font>
         <color theme="0"/>
@@ -28844,7 +26796,7 @@
         <v>1223</v>
       </c>
       <c r="R265" s="25" t="s">
-        <v>706</v>
+        <v>1493</v>
       </c>
       <c r="S265" s="26" t="s">
         <v>900</v>
@@ -36311,2107 +34263,2107 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I191:I195 B191:B195 I244:I248 B244:B248 I122:I139 B122:B139 I250:I259 I84:I87 B250:B259 I141:I143 B141:B143 I261:I264 B261:B264 I333:I336 I309:I314 I268:I297 I16:I30 B4:B10 B16:B30 I4:I10 B32:B73 I32:I73 B147 B149 I147 I89:I102 I105:I120 B105:B120 I149 I186:I187 B186:B187 I173:I179 B173:B179 I158:I171 B158:B171 B153:B155 I151:I155 I181:I184 B181:B184 B84:B102 I197:I217 B197:B217 I76:I81 B76:B82 I220:I236 I239:I242 B220:B236 B239:B242">
-    <cfRule type="cellIs" dxfId="591" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="563" operator="equal">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J191:J195 J244:J248 J122:J139 J250:J259 J141:J143 J261:J264 J333:J336 J309:J314 J4:J10 J16:J30 J267:J297 J32:J73 J145:J147 J96:J102 J105:J120 J149 J186:J187 J173:J179 J158:J171 J151:J155 J181:J184 J84:J94 J197:J217 J76:J81 J220:J236 J239:J242">
-    <cfRule type="cellIs" dxfId="590" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="562" operator="equal">
       <formula>$J3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J190">
-    <cfRule type="cellIs" dxfId="589" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="565" operator="equal">
       <formula>$J2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L191:L195 L244:L248 L122:L139 L250:L259 L141:L143 L261:L264 L333:L336 L309:L314 L16:L30 L4:L10 L267:L297 L32:L73 L146:L147 L96:L102 L105:L120 L149 L186:L187 L173:L179 L158:L171 L151:L155 L181:L184 L84:L94 L197:L217 L76:L81 L220:L236 L239:L242">
-    <cfRule type="cellIs" dxfId="588" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="560" operator="equal">
       <formula>$L3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M191:M195 M244:M248 M122:M139 M250:M259 M141:M143 M261:M264 M333:M336 M309:M314 M4:M10 M16:M30 M267:M297 M32:M73 M146:M147 M96:M102 M105:M120 M186:M187 M173:M179 M158:M171 M151:M155 M181:M184 M84:M94 M197:M217 M76:M81 M220:M236 M239:M242">
-    <cfRule type="cellIs" dxfId="587" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="559" operator="equal">
       <formula>$M3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121 B121">
-    <cfRule type="cellIs" dxfId="586" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="571" operator="equal">
       <formula>$I94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J121">
-    <cfRule type="cellIs" dxfId="585" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="574" operator="equal">
       <formula>$J94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121">
-    <cfRule type="cellIs" dxfId="584" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="577" operator="equal">
       <formula>$L94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M121">
-    <cfRule type="cellIs" dxfId="583" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="580" operator="equal">
       <formula>$M94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I140 B140">
-    <cfRule type="cellIs" dxfId="582" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="589" operator="equal">
       <formula>$I120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J95">
-    <cfRule type="cellIs" dxfId="581" priority="592" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="592" operator="equal">
       <formula>$J139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J140">
-    <cfRule type="cellIs" dxfId="580" priority="593" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="593" operator="equal">
       <formula>$J120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L95">
-    <cfRule type="cellIs" dxfId="579" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="596" operator="equal">
       <formula>$L139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L140">
-    <cfRule type="cellIs" dxfId="578" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="597" operator="equal">
       <formula>$L120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M95">
-    <cfRule type="cellIs" dxfId="577" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="600" operator="equal">
       <formula>$M139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M140">
-    <cfRule type="cellIs" dxfId="576" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="601" operator="equal">
       <formula>$M120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="cellIs" dxfId="575" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="553" operator="equal">
       <formula>$I132</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I260 B260">
-    <cfRule type="cellIs" dxfId="574" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="607" operator="equal">
       <formula>$I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J260">
-    <cfRule type="cellIs" dxfId="573" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="613" operator="equal">
       <formula>$J30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L260">
-    <cfRule type="cellIs" dxfId="572" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="617" operator="equal">
       <formula>$L30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M260">
-    <cfRule type="cellIs" dxfId="571" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="620" operator="equal">
       <formula>$M30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L190">
-    <cfRule type="cellIs" dxfId="570" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="634" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M190">
-    <cfRule type="cellIs" dxfId="569" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="638" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="568" priority="645" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="645" operator="equal">
       <formula>$I242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J196">
-    <cfRule type="cellIs" dxfId="567" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="651" operator="equal">
       <formula>$J73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L196">
-    <cfRule type="cellIs" dxfId="566" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="655" operator="equal">
       <formula>$L73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M196">
-    <cfRule type="cellIs" dxfId="565" priority="658" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="658" operator="equal">
       <formula>$M73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3 B3">
-    <cfRule type="cellIs" dxfId="564" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="687" operator="equal">
       <formula>$I195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="563" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="689" operator="equal">
       <formula>$J195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="562" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="690" operator="equal">
       <formula>$L195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="561" priority="691" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="691" operator="equal">
       <formula>$M195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="cellIs" dxfId="560" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="694" operator="equal">
       <formula>$I242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74">
-    <cfRule type="cellIs" dxfId="559" priority="700" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="700" operator="equal">
       <formula>$J242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L74">
-    <cfRule type="cellIs" dxfId="558" priority="704" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="704" operator="equal">
       <formula>$L242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74">
-    <cfRule type="cellIs" dxfId="557" priority="707" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="707" operator="equal">
       <formula>$M242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196 I196">
-    <cfRule type="cellIs" dxfId="556" priority="750" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="750" operator="equal">
       <formula>$I73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I243 B243">
-    <cfRule type="cellIs" dxfId="555" priority="753" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="753" operator="equal">
       <formula>$I81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J243">
-    <cfRule type="cellIs" dxfId="554" priority="759" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="759" operator="equal">
       <formula>$J81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L243">
-    <cfRule type="cellIs" dxfId="553" priority="762" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="762" operator="equal">
       <formula>$L81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M243">
-    <cfRule type="cellIs" dxfId="552" priority="765" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="765" operator="equal">
       <formula>$M81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I156 B156">
-    <cfRule type="cellIs" dxfId="551" priority="770" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="770" operator="equal">
       <formula>$I74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J156">
-    <cfRule type="cellIs" dxfId="550" priority="772" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="772" operator="equal">
       <formula>$J74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L156">
-    <cfRule type="cellIs" dxfId="549" priority="773" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="773" operator="equal">
       <formula>$L74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156">
-    <cfRule type="cellIs" dxfId="548" priority="774" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="774" operator="equal">
       <formula>$M74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265 B265">
-    <cfRule type="cellIs" dxfId="547" priority="777" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="777" operator="equal">
       <formula>$I248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J265">
-    <cfRule type="cellIs" dxfId="546" priority="783" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="783" operator="equal">
       <formula>$J248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L265">
-    <cfRule type="cellIs" dxfId="545" priority="786" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="786" operator="equal">
       <formula>$L248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M265">
-    <cfRule type="cellIs" dxfId="544" priority="789" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="789" operator="equal">
       <formula>$M248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83 B83">
-    <cfRule type="cellIs" dxfId="543" priority="822" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="822" operator="equal">
       <formula>$I259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83">
-    <cfRule type="cellIs" dxfId="542" priority="832" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="832" operator="equal">
       <formula>$J259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83">
-    <cfRule type="cellIs" dxfId="541" priority="838" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="838" operator="equal">
       <formula>$L259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83">
-    <cfRule type="cellIs" dxfId="540" priority="844" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="844" operator="equal">
       <formula>$M259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I157 B157">
-    <cfRule type="cellIs" dxfId="539" priority="870" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="870" operator="equal">
       <formula>$I143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J157">
-    <cfRule type="cellIs" dxfId="538" priority="872" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="872" operator="equal">
       <formula>$J143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L157">
-    <cfRule type="cellIs" dxfId="537" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="873" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="cellIs" dxfId="536" priority="874" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="874" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31 B31">
-    <cfRule type="cellIs" dxfId="535" priority="883" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="883" operator="equal">
       <formula>$I264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="534" priority="885" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="885" operator="equal">
       <formula>$J264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="533" priority="886" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="886" operator="equal">
       <formula>$L264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
-    <cfRule type="cellIs" dxfId="532" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="887" operator="equal">
       <formula>$M264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I249 B249">
-    <cfRule type="cellIs" dxfId="531" priority="890" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="890" operator="equal">
       <formula>$I265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249">
-    <cfRule type="cellIs" dxfId="530" priority="892" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="892" operator="equal">
       <formula>$J265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L249">
-    <cfRule type="cellIs" dxfId="529" priority="893" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="893" operator="equal">
       <formula>$L265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M249">
-    <cfRule type="cellIs" dxfId="528" priority="894" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="894" operator="equal">
       <formula>$M265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I188:I189 B188:B189">
-    <cfRule type="cellIs" dxfId="527" priority="915" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="915" operator="equal">
       <formula>$I179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I180 B180">
-    <cfRule type="cellIs" dxfId="526" priority="916" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="916" operator="equal">
       <formula>$I188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J188:J189">
-    <cfRule type="cellIs" dxfId="525" priority="921" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="921" operator="equal">
       <formula>$J179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J180">
-    <cfRule type="cellIs" dxfId="524" priority="922" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="922" operator="equal">
       <formula>$J188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L188:L189">
-    <cfRule type="cellIs" dxfId="523" priority="924" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="924" operator="equal">
       <formula>$L179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L180">
-    <cfRule type="cellIs" dxfId="522" priority="925" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="925" operator="equal">
       <formula>$L188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M188:M189">
-    <cfRule type="cellIs" dxfId="521" priority="927" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="927" operator="equal">
       <formula>$M179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M180">
-    <cfRule type="cellIs" dxfId="520" priority="928" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="928" operator="equal">
       <formula>$M188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191:K195 K244:K248 K122:K139 K250:K259 K141:K143 K261:K264 K333:K336 K309:K314 K4:K10 K16:K30 K267:K297 K32:K73 K146:K147 K96:K102 K105:K120 K149 K186:K187 K173:K179 K158:K171 K151:K155 K181:K184 K84:K94 K197:K217 K76:K81 K220:K236 K239:K242">
-    <cfRule type="cellIs" dxfId="519" priority="932" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="932" operator="equal">
       <formula>$K3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K121">
-    <cfRule type="cellIs" dxfId="518" priority="947" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="947" operator="equal">
       <formula>$K94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K95">
-    <cfRule type="cellIs" dxfId="517" priority="948" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="948" operator="equal">
       <formula>$K139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K140">
-    <cfRule type="cellIs" dxfId="516" priority="949" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="949" operator="equal">
       <formula>$K120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K260">
-    <cfRule type="cellIs" dxfId="515" priority="950" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="950" operator="equal">
       <formula>$K30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K190">
-    <cfRule type="cellIs" dxfId="514" priority="951" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="951" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K196">
-    <cfRule type="cellIs" dxfId="513" priority="952" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="952" operator="equal">
       <formula>$K73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="512" priority="953" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="953" operator="equal">
       <formula>$K195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74">
-    <cfRule type="cellIs" dxfId="511" priority="954" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="954" operator="equal">
       <formula>$K242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K243">
-    <cfRule type="cellIs" dxfId="510" priority="955" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="955" operator="equal">
       <formula>$K81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K156">
-    <cfRule type="cellIs" dxfId="509" priority="956" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="956" operator="equal">
       <formula>$K74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K265">
-    <cfRule type="cellIs" dxfId="508" priority="957" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="957" operator="equal">
       <formula>$K248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83">
-    <cfRule type="cellIs" dxfId="507" priority="959" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="959" operator="equal">
       <formula>$K259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="cellIs" dxfId="506" priority="961" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="961" operator="equal">
       <formula>$K264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K249">
-    <cfRule type="cellIs" dxfId="505" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="962" operator="equal">
       <formula>$K265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K188:K189">
-    <cfRule type="cellIs" dxfId="504" priority="964" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="964" operator="equal">
       <formula>$K179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K180">
-    <cfRule type="cellIs" dxfId="503" priority="965" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="965" operator="equal">
       <formula>$K188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S73 S4:S10 S147 S149 S105:S143 S186:S189 S157:S171 S153:S155 S173:S184 S84:S103 S191:S217 S76:S82 S220:S236 S239:S265">
-    <cfRule type="cellIs" dxfId="502" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="552" operator="equal">
       <formula>$S3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I266">
-    <cfRule type="cellIs" dxfId="501" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="551" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I267">
-    <cfRule type="cellIs" dxfId="500" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="550" operator="equal">
       <formula>$I266</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I315">
-    <cfRule type="cellIs" dxfId="499" priority="543" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="543" operator="equal">
       <formula>$I314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J315">
-    <cfRule type="cellIs" dxfId="498" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="542" operator="equal">
       <formula>$J314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L315">
-    <cfRule type="cellIs" dxfId="497" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="541" operator="equal">
       <formula>$L314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M315">
-    <cfRule type="cellIs" dxfId="496" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="540" operator="equal">
       <formula>$M314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K315">
-    <cfRule type="cellIs" dxfId="495" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="544" operator="equal">
       <formula>$K314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I332">
-    <cfRule type="cellIs" dxfId="494" priority="966" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="966" operator="equal">
       <formula>$I314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J332">
-    <cfRule type="cellIs" dxfId="493" priority="967" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="967" operator="equal">
       <formula>$J314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L332">
-    <cfRule type="cellIs" dxfId="492" priority="968" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="968" operator="equal">
       <formula>$L314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M332">
-    <cfRule type="cellIs" dxfId="491" priority="969" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="969" operator="equal">
       <formula>$M314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K332">
-    <cfRule type="cellIs" dxfId="490" priority="970" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="970" operator="equal">
       <formula>$K314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I316">
-    <cfRule type="cellIs" dxfId="489" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="538" operator="equal">
       <formula>$I315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J316">
-    <cfRule type="cellIs" dxfId="488" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="537" operator="equal">
       <formula>$J315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L316">
-    <cfRule type="cellIs" dxfId="487" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="536" operator="equal">
       <formula>$L315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M316">
-    <cfRule type="cellIs" dxfId="486" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="535" operator="equal">
       <formula>$M315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K316">
-    <cfRule type="cellIs" dxfId="485" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="539" operator="equal">
       <formula>$K315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I326">
-    <cfRule type="cellIs" dxfId="484" priority="533" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="533" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J326">
-    <cfRule type="cellIs" dxfId="483" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="532" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L326">
-    <cfRule type="cellIs" dxfId="482" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="531" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M326">
-    <cfRule type="cellIs" dxfId="481" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="530" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K326">
-    <cfRule type="cellIs" dxfId="480" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="534" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I317 I104 I185 B185 B152 I219 B103:B104 B218:B219 I238 B238">
-    <cfRule type="cellIs" dxfId="479" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="528" operator="equal">
       <formula>$I101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J317 J104 J185 J219 J238">
-    <cfRule type="cellIs" dxfId="478" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="527" operator="equal">
       <formula>$J102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L317 L104 L185 L219 L238">
-    <cfRule type="cellIs" dxfId="477" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="526" operator="equal">
       <formula>$L102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M317 M104 M185 M219 M238">
-    <cfRule type="cellIs" dxfId="476" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="525" operator="equal">
       <formula>$M102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K317 K104 K185 K219 K238">
-    <cfRule type="cellIs" dxfId="475" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="529" operator="equal">
       <formula>$K102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I323">
-    <cfRule type="cellIs" dxfId="474" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="523" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J323">
-    <cfRule type="cellIs" dxfId="473" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="522" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L323">
-    <cfRule type="cellIs" dxfId="472" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="521" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M323">
-    <cfRule type="cellIs" dxfId="471" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="520" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K323">
-    <cfRule type="cellIs" dxfId="470" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="524" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I324">
-    <cfRule type="cellIs" dxfId="469" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="518" operator="equal">
       <formula>$I323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J324">
-    <cfRule type="cellIs" dxfId="468" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="517" operator="equal">
       <formula>$J323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L324">
-    <cfRule type="cellIs" dxfId="467" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="516" operator="equal">
       <formula>$L323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M324">
-    <cfRule type="cellIs" dxfId="466" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="515" operator="equal">
       <formula>$M323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K324">
-    <cfRule type="cellIs" dxfId="465" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="519" operator="equal">
       <formula>$K323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I325">
-    <cfRule type="cellIs" dxfId="464" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="513" operator="equal">
       <formula>$I323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J325">
-    <cfRule type="cellIs" dxfId="463" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="512" operator="equal">
       <formula>$J323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L325">
-    <cfRule type="cellIs" dxfId="462" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="511" operator="equal">
       <formula>$L323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M325">
-    <cfRule type="cellIs" dxfId="461" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="510" operator="equal">
       <formula>$M323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K325">
-    <cfRule type="cellIs" dxfId="460" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="514" operator="equal">
       <formula>$K323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I318 B14">
-    <cfRule type="cellIs" dxfId="459" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="508" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J318">
-    <cfRule type="cellIs" dxfId="458" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="507" operator="equal">
       <formula>$J314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L318">
-    <cfRule type="cellIs" dxfId="457" priority="506" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="506" operator="equal">
       <formula>$L314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M318">
-    <cfRule type="cellIs" dxfId="456" priority="505" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="505" operator="equal">
       <formula>$M314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K318">
-    <cfRule type="cellIs" dxfId="455" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="509" operator="equal">
       <formula>$K314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I319">
-    <cfRule type="cellIs" dxfId="454" priority="503" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="503" operator="equal">
       <formula>$I318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J319">
-    <cfRule type="cellIs" dxfId="453" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="502" operator="equal">
       <formula>$J318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L319">
-    <cfRule type="cellIs" dxfId="452" priority="501" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="501" operator="equal">
       <formula>$L318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M319">
-    <cfRule type="cellIs" dxfId="451" priority="500" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="500" operator="equal">
       <formula>$M318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K319">
-    <cfRule type="cellIs" dxfId="450" priority="504" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="504" operator="equal">
       <formula>$K318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I320">
-    <cfRule type="cellIs" dxfId="449" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="498" operator="equal">
       <formula>$I318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J320">
-    <cfRule type="cellIs" dxfId="448" priority="497" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="497" operator="equal">
       <formula>$J318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L320">
-    <cfRule type="cellIs" dxfId="447" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="496" operator="equal">
       <formula>$L318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M320">
-    <cfRule type="cellIs" dxfId="446" priority="495" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="495" operator="equal">
       <formula>$M318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K320">
-    <cfRule type="cellIs" dxfId="445" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="499" operator="equal">
       <formula>$K318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I321">
-    <cfRule type="cellIs" dxfId="444" priority="493" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="493" operator="equal">
       <formula>$I320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J321">
-    <cfRule type="cellIs" dxfId="443" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="492" operator="equal">
       <formula>$J320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L321">
-    <cfRule type="cellIs" dxfId="442" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="491" operator="equal">
       <formula>$L320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M321">
-    <cfRule type="cellIs" dxfId="441" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="490" operator="equal">
       <formula>$M320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K321">
-    <cfRule type="cellIs" dxfId="440" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="494" operator="equal">
       <formula>$K320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I322">
-    <cfRule type="cellIs" dxfId="439" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="488" operator="equal">
       <formula>$I320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J322">
-    <cfRule type="cellIs" dxfId="438" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="487" operator="equal">
       <formula>$J320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L322">
-    <cfRule type="cellIs" dxfId="437" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="486" operator="equal">
       <formula>$L320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M322">
-    <cfRule type="cellIs" dxfId="436" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="485" operator="equal">
       <formula>$M320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K322">
-    <cfRule type="cellIs" dxfId="435" priority="489" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="489" operator="equal">
       <formula>$K320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I327">
-    <cfRule type="cellIs" dxfId="434" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="483" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J327">
-    <cfRule type="cellIs" dxfId="433" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="482" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L327">
-    <cfRule type="cellIs" dxfId="432" priority="481" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="481" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M327">
-    <cfRule type="cellIs" dxfId="431" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="480" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K327">
-    <cfRule type="cellIs" dxfId="430" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="484" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I330">
-    <cfRule type="cellIs" dxfId="429" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="478" operator="equal">
       <formula>$I318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J330">
-    <cfRule type="cellIs" dxfId="428" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="477" operator="equal">
       <formula>$J318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L330">
-    <cfRule type="cellIs" dxfId="427" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="476" operator="equal">
       <formula>$L318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M330">
-    <cfRule type="cellIs" dxfId="426" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="475" operator="equal">
       <formula>$M318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K330">
-    <cfRule type="cellIs" dxfId="425" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="479" operator="equal">
       <formula>$K318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I331">
-    <cfRule type="cellIs" dxfId="424" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="473" operator="equal">
       <formula>$I319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J331">
-    <cfRule type="cellIs" dxfId="423" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="472" operator="equal">
       <formula>$J319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L331">
-    <cfRule type="cellIs" dxfId="422" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="471" operator="equal">
       <formula>$L319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M331">
-    <cfRule type="cellIs" dxfId="421" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="470" operator="equal">
       <formula>$M319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K331">
-    <cfRule type="cellIs" dxfId="420" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="474" operator="equal">
       <formula>$K319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I328">
-    <cfRule type="cellIs" dxfId="419" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="468" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J328">
-    <cfRule type="cellIs" dxfId="418" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="467" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L328">
-    <cfRule type="cellIs" dxfId="417" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="466" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M328">
-    <cfRule type="cellIs" dxfId="416" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="465" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K328">
-    <cfRule type="cellIs" dxfId="415" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="469" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I329">
-    <cfRule type="cellIs" dxfId="414" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="463" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J329">
-    <cfRule type="cellIs" dxfId="413" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="462" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L329">
-    <cfRule type="cellIs" dxfId="412" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="461" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M329">
-    <cfRule type="cellIs" dxfId="411" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="460" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K329">
-    <cfRule type="cellIs" dxfId="410" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="464" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I307:I308">
-    <cfRule type="cellIs" dxfId="409" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="455" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J307:J308">
-    <cfRule type="cellIs" dxfId="408" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="456" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L307:L308">
-    <cfRule type="cellIs" dxfId="407" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="457" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M307:M308">
-    <cfRule type="cellIs" dxfId="406" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="458" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K307:K308">
-    <cfRule type="cellIs" dxfId="405" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="459" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I306">
-    <cfRule type="cellIs" dxfId="404" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="453" operator="equal">
       <formula>$I295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J306">
-    <cfRule type="cellIs" dxfId="403" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="452" operator="equal">
       <formula>$J295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L306">
-    <cfRule type="cellIs" dxfId="402" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="451" operator="equal">
       <formula>$L295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M306">
-    <cfRule type="cellIs" dxfId="401" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="450" operator="equal">
       <formula>$M295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K306">
-    <cfRule type="cellIs" dxfId="400" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="454" operator="equal">
       <formula>$K295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I305">
-    <cfRule type="cellIs" dxfId="399" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="445" operator="equal">
       <formula>$I294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J305">
-    <cfRule type="cellIs" dxfId="398" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="446" operator="equal">
       <formula>$J294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L305">
-    <cfRule type="cellIs" dxfId="397" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="447" operator="equal">
       <formula>$L294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M305">
-    <cfRule type="cellIs" dxfId="396" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="448" operator="equal">
       <formula>$M294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K305">
-    <cfRule type="cellIs" dxfId="395" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="449" operator="equal">
       <formula>$K294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I299">
-    <cfRule type="cellIs" dxfId="394" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="443" operator="equal">
       <formula>$I293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J299">
-    <cfRule type="cellIs" dxfId="393" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="442" operator="equal">
       <formula>$J293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L299">
-    <cfRule type="cellIs" dxfId="392" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="441" operator="equal">
       <formula>$L293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M299">
-    <cfRule type="cellIs" dxfId="391" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="440" operator="equal">
       <formula>$M293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K299">
-    <cfRule type="cellIs" dxfId="390" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="444" operator="equal">
       <formula>$K293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K300">
-    <cfRule type="cellIs" dxfId="389" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="434" operator="equal">
       <formula>$K294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I300">
-    <cfRule type="cellIs" dxfId="388" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="433" operator="equal">
       <formula>$I294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J300">
-    <cfRule type="cellIs" dxfId="387" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="432" operator="equal">
       <formula>$J294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L300">
-    <cfRule type="cellIs" dxfId="386" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="431" operator="equal">
       <formula>$L294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M300">
-    <cfRule type="cellIs" dxfId="385" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="430" operator="equal">
       <formula>$M294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I301">
-    <cfRule type="cellIs" dxfId="384" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="428" operator="equal">
       <formula>$I295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J301">
-    <cfRule type="cellIs" dxfId="383" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="427" operator="equal">
       <formula>$J295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L301">
-    <cfRule type="cellIs" dxfId="382" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="426" operator="equal">
       <formula>$L295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M301">
-    <cfRule type="cellIs" dxfId="381" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="425" operator="equal">
       <formula>$M295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K301">
-    <cfRule type="cellIs" dxfId="380" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="429" operator="equal">
       <formula>$K295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I302">
-    <cfRule type="cellIs" dxfId="379" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="423" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J302">
-    <cfRule type="cellIs" dxfId="378" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="422" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L302">
-    <cfRule type="cellIs" dxfId="377" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="421" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M302">
-    <cfRule type="cellIs" dxfId="376" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="420" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K302">
-    <cfRule type="cellIs" dxfId="375" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="424" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I304">
-    <cfRule type="cellIs" dxfId="374" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="418" operator="equal">
       <formula>$I297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J304">
-    <cfRule type="cellIs" dxfId="373" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="417" operator="equal">
       <formula>$J297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L304">
-    <cfRule type="cellIs" dxfId="372" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="416" operator="equal">
       <formula>$L297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M304">
-    <cfRule type="cellIs" dxfId="371" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="415" operator="equal">
       <formula>$M297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K304">
-    <cfRule type="cellIs" dxfId="370" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="419" operator="equal">
       <formula>$K297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I303">
-    <cfRule type="cellIs" dxfId="369" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="413" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J303">
-    <cfRule type="cellIs" dxfId="368" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="412" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L303">
-    <cfRule type="cellIs" dxfId="367" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="411" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M303">
-    <cfRule type="cellIs" dxfId="366" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="410" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K303">
-    <cfRule type="cellIs" dxfId="365" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="414" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K298">
-    <cfRule type="cellIs" dxfId="364" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="409" operator="equal">
       <formula>$K297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L298">
-    <cfRule type="cellIs" dxfId="363" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="408" operator="equal">
       <formula>$L297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M298">
-    <cfRule type="cellIs" dxfId="362" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="407" operator="equal">
       <formula>$M297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J298">
-    <cfRule type="cellIs" dxfId="361" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="406" operator="equal">
       <formula>$J297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I298">
-    <cfRule type="cellIs" dxfId="360" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="405" operator="equal">
       <formula>$I297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15 S172">
-    <cfRule type="cellIs" dxfId="359" priority="992" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="992" operator="equal">
       <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 I15 I172 B172">
-    <cfRule type="cellIs" dxfId="358" priority="995" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="995" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15 J172">
-    <cfRule type="cellIs" dxfId="357" priority="997" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="997" operator="equal">
       <formula>$J10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15 L172">
-    <cfRule type="cellIs" dxfId="356" priority="998" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="998" operator="equal">
       <formula>$L10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15 M172">
-    <cfRule type="cellIs" dxfId="355" priority="999" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="999" operator="equal">
       <formula>$M10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15 K172">
-    <cfRule type="cellIs" dxfId="354" priority="1000" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="1000" operator="equal">
       <formula>$K10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="353" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="397" operator="equal">
       <formula>$K9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="352" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="372" operator="equal">
       <formula>$M10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="351" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="368" operator="equal">
       <formula>$M11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="350" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="367" operator="equal">
       <formula>$M12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="349" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="366" operator="equal">
       <formula>$M13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="cellIs" dxfId="348" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="365" operator="equal">
       <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12">
-    <cfRule type="cellIs" dxfId="347" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="364" operator="equal">
       <formula>$S11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13">
-    <cfRule type="cellIs" dxfId="346" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="363" operator="equal">
       <formula>$S12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="345" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="362" operator="equal">
       <formula>$S13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="344" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="361" operator="equal">
       <formula>$K11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="343" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="360" operator="equal">
       <formula>$K12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="342" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="359" operator="equal">
       <formula>$K13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="341" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="358" operator="equal">
       <formula>$L10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="340" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="357" operator="equal">
       <formula>$L11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="339" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="356" operator="equal">
       <formula>$L12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="338" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="355" operator="equal">
       <formula>$L13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="337" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="354" operator="equal">
       <formula>$J10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="336" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="353" operator="equal">
       <formula>$J11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="335" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="352" operator="equal">
       <formula>$J12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="334" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="351" operator="equal">
       <formula>$J13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="333" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="348" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="332" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="347" operator="equal">
       <formula>$I11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="331" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="346" operator="equal">
       <formula>$I12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="330" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="345" operator="equal">
       <formula>$I13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="329" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="344" operator="equal">
       <formula>$I6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="328" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="343" operator="equal">
       <formula>$I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="327" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="342" operator="equal">
       <formula>$I8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J266">
-    <cfRule type="cellIs" dxfId="326" priority="1005" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="1005" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L266">
-    <cfRule type="cellIs" dxfId="325" priority="1008" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="1008" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M266">
-    <cfRule type="cellIs" dxfId="324" priority="1010" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="1010" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K266">
-    <cfRule type="cellIs" dxfId="323" priority="1012" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="1012" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K157">
-    <cfRule type="cellIs" dxfId="322" priority="1022" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="1022" operator="equal">
       <formula>$K143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S190">
-    <cfRule type="cellIs" dxfId="321" priority="1024" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="1024" operator="equal">
       <formula>$S143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S104 S185 S152 S219 S238">
-    <cfRule type="cellIs" dxfId="320" priority="1036" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="1036" operator="equal">
       <formula>$S102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146">
-    <cfRule type="cellIs" dxfId="319" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="295" operator="equal">
       <formula>$I144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I144">
-    <cfRule type="cellIs" dxfId="318" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="293" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="317" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="292" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144">
-    <cfRule type="cellIs" dxfId="316" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="294" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S144">
-    <cfRule type="cellIs" dxfId="315" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="302" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S146">
-    <cfRule type="cellIs" dxfId="314" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="303" operator="equal">
       <formula>$S144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S145">
-    <cfRule type="cellIs" dxfId="313" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="290" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L147">
-    <cfRule type="cellIs" dxfId="312" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="288" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M147">
-    <cfRule type="cellIs" dxfId="311" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="287" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144:K147">
-    <cfRule type="cellIs" dxfId="310" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="289" operator="equal">
       <formula>$K143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J146">
-    <cfRule type="cellIs" dxfId="309" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="278" operator="equal">
       <formula>$J145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145:I146">
-    <cfRule type="cellIs" dxfId="308" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="286" operator="equal">
       <formula>$I144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145:J146">
-    <cfRule type="cellIs" dxfId="307" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="285" operator="equal">
       <formula>$J144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L147">
-    <cfRule type="cellIs" dxfId="306" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="284" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M147">
-    <cfRule type="cellIs" dxfId="305" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="283" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L145">
-    <cfRule type="cellIs" dxfId="304" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="282" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M145">
-    <cfRule type="cellIs" dxfId="303" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="281" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L145">
-    <cfRule type="cellIs" dxfId="302" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="280" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M145">
-    <cfRule type="cellIs" dxfId="301" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="279" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="300" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="277" operator="equal">
       <formula>$J143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="299" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="276" operator="equal">
       <formula>$J143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S156">
-    <cfRule type="cellIs" dxfId="298" priority="1040" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="1040" operator="equal">
       <formula>$S265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="cellIs" dxfId="297" priority="1047" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="1047" operator="equal">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I150">
-    <cfRule type="cellIs" dxfId="296" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="206" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="295" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="205" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K150">
-    <cfRule type="cellIs" dxfId="294" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="207" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B150:B151">
-    <cfRule type="cellIs" dxfId="293" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="204" operator="equal">
       <formula>$I62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S150">
-    <cfRule type="cellIs" dxfId="292" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="215" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S151">
-    <cfRule type="cellIs" dxfId="291" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="203" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="290" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="199" operator="equal">
       <formula>$J259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="289" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="198" operator="equal">
       <formula>$J259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L150">
-    <cfRule type="cellIs" dxfId="288" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="217" operator="equal">
       <formula>$L259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M150">
-    <cfRule type="cellIs" dxfId="287" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="218" operator="equal">
       <formula>$M259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K150">
-    <cfRule type="cellIs" dxfId="286" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="219" operator="equal">
       <formula>$K259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S74">
-    <cfRule type="cellIs" dxfId="285" priority="1053" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="1053" operator="equal">
       <formula>$S73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S83">
-    <cfRule type="cellIs" dxfId="284" priority="1075" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="1075" operator="equal">
       <formula>$S81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="283" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="137" operator="equal">
       <formula>$I81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="cellIs" dxfId="282" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="136" operator="equal">
       <formula>$J81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L82">
-    <cfRule type="cellIs" dxfId="281" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="135" operator="equal">
       <formula>$L81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82">
-    <cfRule type="cellIs" dxfId="280" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="134" operator="equal">
       <formula>$M81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K82">
-    <cfRule type="cellIs" dxfId="279" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="138" operator="equal">
       <formula>$K81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="278" priority="1076" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="1076" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="cellIs" dxfId="277" priority="1078" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="1078" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2 B2">
-    <cfRule type="cellIs" dxfId="276" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="111" operator="equal">
       <formula>$I277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="cellIs" dxfId="275" priority="1089" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="1089" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S148">
-    <cfRule type="cellIs" dxfId="274" priority="1107" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="1107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="273" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="109" operator="equal">
       <formula>$I101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J103">
-    <cfRule type="cellIs" dxfId="272" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="108" operator="equal">
       <formula>$J101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L103">
-    <cfRule type="cellIs" dxfId="271" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="107" operator="equal">
       <formula>$L101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M103">
-    <cfRule type="cellIs" dxfId="270" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="106" operator="equal">
       <formula>$M101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K103">
-    <cfRule type="cellIs" dxfId="269" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="110" operator="equal">
       <formula>$K101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="268" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="94" operator="equal">
       <formula>$L147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="267" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="93" operator="equal">
       <formula>$L147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="266" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="92" operator="equal">
       <formula>$L147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="265" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="91" operator="equal">
       <formula>$L148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="264" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="90" operator="equal">
       <formula>$L148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K148">
-    <cfRule type="cellIs" dxfId="263" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="89" operator="equal">
       <formula>$K147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K148">
-    <cfRule type="cellIs" dxfId="262" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="88" operator="equal">
       <formula>$K147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="261" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="87" operator="equal">
       <formula>$K148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J148">
-    <cfRule type="cellIs" dxfId="260" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="86" operator="equal">
       <formula>$J147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I148">
-    <cfRule type="cellIs" dxfId="259" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
       <formula>$I147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I218">
-    <cfRule type="cellIs" dxfId="258" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="80" operator="equal">
       <formula>$I216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J218">
-    <cfRule type="cellIs" dxfId="257" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="79" operator="equal">
       <formula>$J216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L218">
-    <cfRule type="cellIs" dxfId="256" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="78" operator="equal">
       <formula>$L216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M218">
-    <cfRule type="cellIs" dxfId="255" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="77" operator="equal">
       <formula>$M216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K218">
-    <cfRule type="cellIs" dxfId="254" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
       <formula>$K216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S218">
-    <cfRule type="cellIs" dxfId="253" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
       <formula>$S216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="252" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="76" operator="equal">
       <formula>$I157</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="251" priority="1167" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1167" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75">
-    <cfRule type="cellIs" dxfId="250" priority="1169" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1169" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75">
-    <cfRule type="cellIs" dxfId="249" priority="1171" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="1171" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75">
-    <cfRule type="cellIs" dxfId="248" priority="1173" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1173" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75">
-    <cfRule type="cellIs" dxfId="247" priority="1180" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1180" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S75">
-    <cfRule type="cellIs" dxfId="246" priority="1182" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="1182" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M146">
-    <cfRule type="cellIs" dxfId="245" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
       <formula>$M145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M146">
-    <cfRule type="cellIs" dxfId="244" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
       <formula>$M145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="243" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>$M146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="242" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
       <formula>$M146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="241" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="240" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="239" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="238" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="237" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>$M148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="236" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
       <formula>$M148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="235" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>$M148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="234" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>$M148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I237 B237">
-    <cfRule type="cellIs" dxfId="233" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
       <formula>$I236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J237">
-    <cfRule type="cellIs" dxfId="232" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
       <formula>$J236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L237">
-    <cfRule type="cellIs" dxfId="231" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
       <formula>$L236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M237">
-    <cfRule type="cellIs" dxfId="230" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
       <formula>$M236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K237">
-    <cfRule type="cellIs" dxfId="229" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="63" operator="equal">
       <formula>$K236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S237">
-    <cfRule type="cellIs" dxfId="228" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>$S236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343:I373">
-    <cfRule type="cellIs" dxfId="113" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
       <formula>$I342</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J338:J373">
-    <cfRule type="cellIs" dxfId="111" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
       <formula>$J337</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343:L373">
-    <cfRule type="cellIs" dxfId="109" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="49" operator="equal">
       <formula>$L342</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343:M373">
-    <cfRule type="cellIs" dxfId="107" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="48" operator="equal">
       <formula>$M342</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343:K373">
-    <cfRule type="cellIs" dxfId="105" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
       <formula>$K342</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M376:M395">
-    <cfRule type="cellIs" dxfId="103" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="23" operator="equal">
       <formula>$M375</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I337">
-    <cfRule type="cellIs" dxfId="101" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
       <formula>$I336</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J337">
-    <cfRule type="cellIs" dxfId="99" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="45" operator="equal">
       <formula>$J336</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L337">
-    <cfRule type="cellIs" dxfId="97" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
       <formula>$L336</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M337">
-    <cfRule type="cellIs" dxfId="95" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
       <formula>$M336</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K337">
-    <cfRule type="cellIs" dxfId="93" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>$K336</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342">
-    <cfRule type="cellIs" dxfId="91" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
       <formula>$L341</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342">
-    <cfRule type="cellIs" dxfId="89" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
       <formula>$M341</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L376:L395">
-    <cfRule type="cellIs" dxfId="87" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="24" operator="equal">
       <formula>$L375</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K376:K395">
-    <cfRule type="cellIs" dxfId="85" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="26" operator="equal">
       <formula>$K375</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L338:L341">
-    <cfRule type="cellIs" dxfId="83" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>$L337</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M338:M341">
-    <cfRule type="cellIs" dxfId="81" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
       <formula>$M337</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K338:K341">
-    <cfRule type="cellIs" dxfId="79" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
       <formula>$K337</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342">
-    <cfRule type="cellIs" dxfId="77" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>$I341</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342">
-    <cfRule type="cellIs" dxfId="75" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>$K341</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I375">
-    <cfRule type="cellIs" dxfId="73" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>$I373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J375">
-    <cfRule type="cellIs" dxfId="71" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>$J373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L375">
-    <cfRule type="cellIs" dxfId="69" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>$L373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M375">
-    <cfRule type="cellIs" dxfId="67" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>$M373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K375">
-    <cfRule type="cellIs" dxfId="65" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>$K373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I338">
-    <cfRule type="cellIs" dxfId="63" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>$I337</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I339">
-    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>$I338</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="cellIs" dxfId="59" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>$I339</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="cellIs" dxfId="57" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
       <formula>$I340</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J376:J395">
-    <cfRule type="cellIs" dxfId="55" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>$J375</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M396">
-    <cfRule type="cellIs" dxfId="53" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>$M395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L396">
-    <cfRule type="cellIs" dxfId="51" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>$L395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K396">
-    <cfRule type="cellIs" dxfId="49" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>$K395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J396">
-    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>$J395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I400">
-    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="53" operator="equal">
       <formula>$I395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J400">
-    <cfRule type="cellIs" dxfId="43" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="54" operator="equal">
       <formula>$J395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L400">
-    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="55" operator="equal">
       <formula>$L395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M400">
-    <cfRule type="cellIs" dxfId="39" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="56" operator="equal">
       <formula>$M395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K400">
-    <cfRule type="cellIs" dxfId="37" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="57" operator="equal">
       <formula>$K395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M397">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>$M396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L397">
-    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>$L396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K397">
-    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>$K396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J397">
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>$J396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M399">
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>$M397</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L399">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>$L397</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K399">
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>$K397</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J399">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>$J397</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M398">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>$M396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L398">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>$L396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K398">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>$K396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J398">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>$J396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I376:I399">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>$I375</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M374">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>$M398</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L374">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$L398</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K374">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>$K398</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J374">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>$J398</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I374">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$I373</formula>
     </cfRule>
   </conditionalFormatting>

--- a/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6440" uniqueCount="1494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6440" uniqueCount="1493">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -5841,10 +5841,6 @@
   <si>
     <t>ウェブプロジェクト/main/resources/net/unit8/http/router/routes.properties
 RESTfulウェブサービスプロジェクト/main/resources/net/unit8/http/router/routes.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6284,7 +6280,2059 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="421">
+  <dxfs count="592">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -26796,7 +28844,7 @@
         <v>1223</v>
       </c>
       <c r="R265" s="25" t="s">
-        <v>1493</v>
+        <v>706</v>
       </c>
       <c r="S265" s="26" t="s">
         <v>900</v>
@@ -34263,2107 +36311,2107 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I191:I195 B191:B195 I244:I248 B244:B248 I122:I139 B122:B139 I250:I259 I84:I87 B250:B259 I141:I143 B141:B143 I261:I264 B261:B264 I333:I336 I309:I314 I268:I297 I16:I30 B4:B10 B16:B30 I4:I10 B32:B73 I32:I73 B147 B149 I147 I89:I102 I105:I120 B105:B120 I149 I186:I187 B186:B187 I173:I179 B173:B179 I158:I171 B158:B171 B153:B155 I151:I155 I181:I184 B181:B184 B84:B102 I197:I217 B197:B217 I76:I81 B76:B82 I220:I236 I239:I242 B220:B236 B239:B242">
-    <cfRule type="cellIs" dxfId="420" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="563" operator="equal">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J191:J195 J244:J248 J122:J139 J250:J259 J141:J143 J261:J264 J333:J336 J309:J314 J4:J10 J16:J30 J267:J297 J32:J73 J145:J147 J96:J102 J105:J120 J149 J186:J187 J173:J179 J158:J171 J151:J155 J181:J184 J84:J94 J197:J217 J76:J81 J220:J236 J239:J242">
-    <cfRule type="cellIs" dxfId="419" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="562" operator="equal">
       <formula>$J3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J190">
-    <cfRule type="cellIs" dxfId="418" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="565" operator="equal">
       <formula>$J2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L191:L195 L244:L248 L122:L139 L250:L259 L141:L143 L261:L264 L333:L336 L309:L314 L16:L30 L4:L10 L267:L297 L32:L73 L146:L147 L96:L102 L105:L120 L149 L186:L187 L173:L179 L158:L171 L151:L155 L181:L184 L84:L94 L197:L217 L76:L81 L220:L236 L239:L242">
-    <cfRule type="cellIs" dxfId="417" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="560" operator="equal">
       <formula>$L3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M191:M195 M244:M248 M122:M139 M250:M259 M141:M143 M261:M264 M333:M336 M309:M314 M4:M10 M16:M30 M267:M297 M32:M73 M146:M147 M96:M102 M105:M120 M186:M187 M173:M179 M158:M171 M151:M155 M181:M184 M84:M94 M197:M217 M76:M81 M220:M236 M239:M242">
-    <cfRule type="cellIs" dxfId="416" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="559" operator="equal">
       <formula>$M3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121 B121">
-    <cfRule type="cellIs" dxfId="415" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="571" operator="equal">
       <formula>$I94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J121">
-    <cfRule type="cellIs" dxfId="414" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="574" operator="equal">
       <formula>$J94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121">
-    <cfRule type="cellIs" dxfId="413" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="577" operator="equal">
       <formula>$L94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M121">
-    <cfRule type="cellIs" dxfId="412" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="580" operator="equal">
       <formula>$M94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I140 B140">
-    <cfRule type="cellIs" dxfId="411" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="589" operator="equal">
       <formula>$I120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J95">
-    <cfRule type="cellIs" dxfId="410" priority="592" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="592" operator="equal">
       <formula>$J139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J140">
-    <cfRule type="cellIs" dxfId="409" priority="593" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="593" operator="equal">
       <formula>$J120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L95">
-    <cfRule type="cellIs" dxfId="408" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="596" operator="equal">
       <formula>$L139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L140">
-    <cfRule type="cellIs" dxfId="407" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="597" operator="equal">
       <formula>$L120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M95">
-    <cfRule type="cellIs" dxfId="406" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="600" operator="equal">
       <formula>$M139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M140">
-    <cfRule type="cellIs" dxfId="405" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="601" operator="equal">
       <formula>$M120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="cellIs" dxfId="404" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="553" operator="equal">
       <formula>$I132</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I260 B260">
-    <cfRule type="cellIs" dxfId="403" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="607" operator="equal">
       <formula>$I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J260">
-    <cfRule type="cellIs" dxfId="402" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="613" operator="equal">
       <formula>$J30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L260">
-    <cfRule type="cellIs" dxfId="401" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="617" operator="equal">
       <formula>$L30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M260">
-    <cfRule type="cellIs" dxfId="400" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="620" operator="equal">
       <formula>$M30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L190">
-    <cfRule type="cellIs" dxfId="399" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="634" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M190">
-    <cfRule type="cellIs" dxfId="398" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="638" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="397" priority="645" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="645" operator="equal">
       <formula>$I242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J196">
-    <cfRule type="cellIs" dxfId="396" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="651" operator="equal">
       <formula>$J73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L196">
-    <cfRule type="cellIs" dxfId="395" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="655" operator="equal">
       <formula>$L73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M196">
-    <cfRule type="cellIs" dxfId="394" priority="658" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="658" operator="equal">
       <formula>$M73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3 B3">
-    <cfRule type="cellIs" dxfId="393" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="687" operator="equal">
       <formula>$I195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="392" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="689" operator="equal">
       <formula>$J195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="391" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="690" operator="equal">
       <formula>$L195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="390" priority="691" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="691" operator="equal">
       <formula>$M195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="cellIs" dxfId="389" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="694" operator="equal">
       <formula>$I242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74">
-    <cfRule type="cellIs" dxfId="388" priority="700" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="700" operator="equal">
       <formula>$J242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L74">
-    <cfRule type="cellIs" dxfId="387" priority="704" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="704" operator="equal">
       <formula>$L242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74">
-    <cfRule type="cellIs" dxfId="386" priority="707" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="707" operator="equal">
       <formula>$M242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196 I196">
-    <cfRule type="cellIs" dxfId="385" priority="750" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="750" operator="equal">
       <formula>$I73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I243 B243">
-    <cfRule type="cellIs" dxfId="384" priority="753" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="753" operator="equal">
       <formula>$I81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J243">
-    <cfRule type="cellIs" dxfId="383" priority="759" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="759" operator="equal">
       <formula>$J81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L243">
-    <cfRule type="cellIs" dxfId="382" priority="762" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="762" operator="equal">
       <formula>$L81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M243">
-    <cfRule type="cellIs" dxfId="381" priority="765" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="765" operator="equal">
       <formula>$M81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I156 B156">
-    <cfRule type="cellIs" dxfId="380" priority="770" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="770" operator="equal">
       <formula>$I74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J156">
-    <cfRule type="cellIs" dxfId="379" priority="772" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="772" operator="equal">
       <formula>$J74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L156">
-    <cfRule type="cellIs" dxfId="378" priority="773" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="773" operator="equal">
       <formula>$L74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156">
-    <cfRule type="cellIs" dxfId="377" priority="774" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="774" operator="equal">
       <formula>$M74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265 B265">
-    <cfRule type="cellIs" dxfId="376" priority="777" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="777" operator="equal">
       <formula>$I248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J265">
-    <cfRule type="cellIs" dxfId="375" priority="783" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="783" operator="equal">
       <formula>$J248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L265">
-    <cfRule type="cellIs" dxfId="374" priority="786" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="786" operator="equal">
       <formula>$L248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M265">
-    <cfRule type="cellIs" dxfId="373" priority="789" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="789" operator="equal">
       <formula>$M248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83 B83">
-    <cfRule type="cellIs" dxfId="372" priority="822" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="822" operator="equal">
       <formula>$I259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83">
-    <cfRule type="cellIs" dxfId="371" priority="832" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="832" operator="equal">
       <formula>$J259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83">
-    <cfRule type="cellIs" dxfId="370" priority="838" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="838" operator="equal">
       <formula>$L259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83">
-    <cfRule type="cellIs" dxfId="369" priority="844" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="844" operator="equal">
       <formula>$M259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I157 B157">
-    <cfRule type="cellIs" dxfId="368" priority="870" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="870" operator="equal">
       <formula>$I143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J157">
-    <cfRule type="cellIs" dxfId="367" priority="872" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="872" operator="equal">
       <formula>$J143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L157">
-    <cfRule type="cellIs" dxfId="366" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="873" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="cellIs" dxfId="365" priority="874" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="874" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31 B31">
-    <cfRule type="cellIs" dxfId="364" priority="883" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="883" operator="equal">
       <formula>$I264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="363" priority="885" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="885" operator="equal">
       <formula>$J264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="362" priority="886" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="886" operator="equal">
       <formula>$L264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
-    <cfRule type="cellIs" dxfId="361" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="887" operator="equal">
       <formula>$M264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I249 B249">
-    <cfRule type="cellIs" dxfId="360" priority="890" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="890" operator="equal">
       <formula>$I265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249">
-    <cfRule type="cellIs" dxfId="359" priority="892" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="892" operator="equal">
       <formula>$J265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L249">
-    <cfRule type="cellIs" dxfId="358" priority="893" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="893" operator="equal">
       <formula>$L265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M249">
-    <cfRule type="cellIs" dxfId="357" priority="894" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="894" operator="equal">
       <formula>$M265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I188:I189 B188:B189">
-    <cfRule type="cellIs" dxfId="356" priority="915" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="915" operator="equal">
       <formula>$I179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I180 B180">
-    <cfRule type="cellIs" dxfId="355" priority="916" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="916" operator="equal">
       <formula>$I188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J188:J189">
-    <cfRule type="cellIs" dxfId="354" priority="921" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="921" operator="equal">
       <formula>$J179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J180">
-    <cfRule type="cellIs" dxfId="353" priority="922" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="922" operator="equal">
       <formula>$J188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L188:L189">
-    <cfRule type="cellIs" dxfId="352" priority="924" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="924" operator="equal">
       <formula>$L179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L180">
-    <cfRule type="cellIs" dxfId="351" priority="925" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="925" operator="equal">
       <formula>$L188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M188:M189">
-    <cfRule type="cellIs" dxfId="350" priority="927" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="927" operator="equal">
       <formula>$M179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M180">
-    <cfRule type="cellIs" dxfId="349" priority="928" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="928" operator="equal">
       <formula>$M188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191:K195 K244:K248 K122:K139 K250:K259 K141:K143 K261:K264 K333:K336 K309:K314 K4:K10 K16:K30 K267:K297 K32:K73 K146:K147 K96:K102 K105:K120 K149 K186:K187 K173:K179 K158:K171 K151:K155 K181:K184 K84:K94 K197:K217 K76:K81 K220:K236 K239:K242">
-    <cfRule type="cellIs" dxfId="348" priority="932" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="932" operator="equal">
       <formula>$K3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K121">
-    <cfRule type="cellIs" dxfId="347" priority="947" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="947" operator="equal">
       <formula>$K94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K95">
-    <cfRule type="cellIs" dxfId="346" priority="948" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="948" operator="equal">
       <formula>$K139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K140">
-    <cfRule type="cellIs" dxfId="345" priority="949" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="949" operator="equal">
       <formula>$K120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K260">
-    <cfRule type="cellIs" dxfId="344" priority="950" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="950" operator="equal">
       <formula>$K30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K190">
-    <cfRule type="cellIs" dxfId="343" priority="951" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="951" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K196">
-    <cfRule type="cellIs" dxfId="342" priority="952" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="952" operator="equal">
       <formula>$K73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="341" priority="953" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="953" operator="equal">
       <formula>$K195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74">
-    <cfRule type="cellIs" dxfId="340" priority="954" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="954" operator="equal">
       <formula>$K242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K243">
-    <cfRule type="cellIs" dxfId="339" priority="955" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="955" operator="equal">
       <formula>$K81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K156">
-    <cfRule type="cellIs" dxfId="338" priority="956" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="956" operator="equal">
       <formula>$K74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K265">
-    <cfRule type="cellIs" dxfId="337" priority="957" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="957" operator="equal">
       <formula>$K248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83">
-    <cfRule type="cellIs" dxfId="336" priority="959" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="959" operator="equal">
       <formula>$K259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="cellIs" dxfId="335" priority="961" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="961" operator="equal">
       <formula>$K264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K249">
-    <cfRule type="cellIs" dxfId="334" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="962" operator="equal">
       <formula>$K265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K188:K189">
-    <cfRule type="cellIs" dxfId="333" priority="964" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="964" operator="equal">
       <formula>$K179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K180">
-    <cfRule type="cellIs" dxfId="332" priority="965" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="965" operator="equal">
       <formula>$K188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S73 S4:S10 S147 S149 S105:S143 S186:S189 S157:S171 S153:S155 S173:S184 S84:S103 S191:S217 S76:S82 S220:S236 S239:S265">
-    <cfRule type="cellIs" dxfId="331" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="552" operator="equal">
       <formula>$S3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I266">
-    <cfRule type="cellIs" dxfId="330" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="551" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I267">
-    <cfRule type="cellIs" dxfId="329" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="550" operator="equal">
       <formula>$I266</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I315">
-    <cfRule type="cellIs" dxfId="328" priority="543" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="543" operator="equal">
       <formula>$I314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J315">
-    <cfRule type="cellIs" dxfId="327" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="542" operator="equal">
       <formula>$J314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L315">
-    <cfRule type="cellIs" dxfId="326" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="541" operator="equal">
       <formula>$L314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M315">
-    <cfRule type="cellIs" dxfId="325" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="540" operator="equal">
       <formula>$M314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K315">
-    <cfRule type="cellIs" dxfId="324" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="544" operator="equal">
       <formula>$K314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I332">
-    <cfRule type="cellIs" dxfId="323" priority="966" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="966" operator="equal">
       <formula>$I314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J332">
-    <cfRule type="cellIs" dxfId="322" priority="967" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="967" operator="equal">
       <formula>$J314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L332">
-    <cfRule type="cellIs" dxfId="321" priority="968" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="968" operator="equal">
       <formula>$L314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M332">
-    <cfRule type="cellIs" dxfId="320" priority="969" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="969" operator="equal">
       <formula>$M314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K332">
-    <cfRule type="cellIs" dxfId="319" priority="970" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="970" operator="equal">
       <formula>$K314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I316">
-    <cfRule type="cellIs" dxfId="318" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="538" operator="equal">
       <formula>$I315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J316">
-    <cfRule type="cellIs" dxfId="317" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="537" operator="equal">
       <formula>$J315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L316">
-    <cfRule type="cellIs" dxfId="316" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="536" operator="equal">
       <formula>$L315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M316">
-    <cfRule type="cellIs" dxfId="315" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="535" operator="equal">
       <formula>$M315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K316">
-    <cfRule type="cellIs" dxfId="314" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="539" operator="equal">
       <formula>$K315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I326">
-    <cfRule type="cellIs" dxfId="313" priority="533" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="533" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J326">
-    <cfRule type="cellIs" dxfId="312" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="532" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L326">
-    <cfRule type="cellIs" dxfId="311" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="531" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M326">
-    <cfRule type="cellIs" dxfId="310" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="530" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K326">
-    <cfRule type="cellIs" dxfId="309" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="534" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I317 I104 I185 B185 B152 I219 B103:B104 B218:B219 I238 B238">
-    <cfRule type="cellIs" dxfId="308" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="528" operator="equal">
       <formula>$I101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J317 J104 J185 J219 J238">
-    <cfRule type="cellIs" dxfId="307" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="527" operator="equal">
       <formula>$J102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L317 L104 L185 L219 L238">
-    <cfRule type="cellIs" dxfId="306" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="526" operator="equal">
       <formula>$L102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M317 M104 M185 M219 M238">
-    <cfRule type="cellIs" dxfId="305" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="525" operator="equal">
       <formula>$M102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K317 K104 K185 K219 K238">
-    <cfRule type="cellIs" dxfId="304" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="529" operator="equal">
       <formula>$K102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I323">
-    <cfRule type="cellIs" dxfId="303" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="523" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J323">
-    <cfRule type="cellIs" dxfId="302" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="522" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L323">
-    <cfRule type="cellIs" dxfId="301" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="521" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M323">
-    <cfRule type="cellIs" dxfId="300" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="520" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K323">
-    <cfRule type="cellIs" dxfId="299" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="524" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I324">
-    <cfRule type="cellIs" dxfId="298" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="518" operator="equal">
       <formula>$I323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J324">
-    <cfRule type="cellIs" dxfId="297" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="517" operator="equal">
       <formula>$J323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L324">
-    <cfRule type="cellIs" dxfId="296" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="516" operator="equal">
       <formula>$L323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M324">
-    <cfRule type="cellIs" dxfId="295" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="515" operator="equal">
       <formula>$M323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K324">
-    <cfRule type="cellIs" dxfId="294" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="519" operator="equal">
       <formula>$K323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I325">
-    <cfRule type="cellIs" dxfId="293" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="513" operator="equal">
       <formula>$I323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J325">
-    <cfRule type="cellIs" dxfId="292" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="512" operator="equal">
       <formula>$J323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L325">
-    <cfRule type="cellIs" dxfId="291" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="511" operator="equal">
       <formula>$L323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M325">
-    <cfRule type="cellIs" dxfId="290" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="510" operator="equal">
       <formula>$M323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K325">
-    <cfRule type="cellIs" dxfId="289" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="514" operator="equal">
       <formula>$K323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I318 B14">
-    <cfRule type="cellIs" dxfId="288" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="508" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J318">
-    <cfRule type="cellIs" dxfId="287" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="507" operator="equal">
       <formula>$J314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L318">
-    <cfRule type="cellIs" dxfId="286" priority="506" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="506" operator="equal">
       <formula>$L314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M318">
-    <cfRule type="cellIs" dxfId="285" priority="505" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="505" operator="equal">
       <formula>$M314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K318">
-    <cfRule type="cellIs" dxfId="284" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="509" operator="equal">
       <formula>$K314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I319">
-    <cfRule type="cellIs" dxfId="283" priority="503" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="503" operator="equal">
       <formula>$I318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J319">
-    <cfRule type="cellIs" dxfId="282" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="502" operator="equal">
       <formula>$J318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L319">
-    <cfRule type="cellIs" dxfId="281" priority="501" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="501" operator="equal">
       <formula>$L318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M319">
-    <cfRule type="cellIs" dxfId="280" priority="500" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="500" operator="equal">
       <formula>$M318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K319">
-    <cfRule type="cellIs" dxfId="279" priority="504" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="504" operator="equal">
       <formula>$K318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I320">
-    <cfRule type="cellIs" dxfId="278" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="498" operator="equal">
       <formula>$I318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J320">
-    <cfRule type="cellIs" dxfId="277" priority="497" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="497" operator="equal">
       <formula>$J318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L320">
-    <cfRule type="cellIs" dxfId="276" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="496" operator="equal">
       <formula>$L318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M320">
-    <cfRule type="cellIs" dxfId="275" priority="495" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="495" operator="equal">
       <formula>$M318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K320">
-    <cfRule type="cellIs" dxfId="274" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="499" operator="equal">
       <formula>$K318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I321">
-    <cfRule type="cellIs" dxfId="273" priority="493" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="493" operator="equal">
       <formula>$I320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J321">
-    <cfRule type="cellIs" dxfId="272" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="492" operator="equal">
       <formula>$J320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L321">
-    <cfRule type="cellIs" dxfId="271" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="491" operator="equal">
       <formula>$L320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M321">
-    <cfRule type="cellIs" dxfId="270" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="490" operator="equal">
       <formula>$M320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K321">
-    <cfRule type="cellIs" dxfId="269" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="494" operator="equal">
       <formula>$K320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I322">
-    <cfRule type="cellIs" dxfId="268" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="488" operator="equal">
       <formula>$I320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J322">
-    <cfRule type="cellIs" dxfId="267" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="487" operator="equal">
       <formula>$J320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L322">
-    <cfRule type="cellIs" dxfId="266" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="486" operator="equal">
       <formula>$L320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M322">
-    <cfRule type="cellIs" dxfId="265" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="485" operator="equal">
       <formula>$M320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K322">
-    <cfRule type="cellIs" dxfId="264" priority="489" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="489" operator="equal">
       <formula>$K320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I327">
-    <cfRule type="cellIs" dxfId="263" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="483" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J327">
-    <cfRule type="cellIs" dxfId="262" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="482" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L327">
-    <cfRule type="cellIs" dxfId="261" priority="481" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="481" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M327">
-    <cfRule type="cellIs" dxfId="260" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="480" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K327">
-    <cfRule type="cellIs" dxfId="259" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="484" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I330">
-    <cfRule type="cellIs" dxfId="258" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="478" operator="equal">
       <formula>$I318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J330">
-    <cfRule type="cellIs" dxfId="257" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="477" operator="equal">
       <formula>$J318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L330">
-    <cfRule type="cellIs" dxfId="256" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="476" operator="equal">
       <formula>$L318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M330">
-    <cfRule type="cellIs" dxfId="255" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="475" operator="equal">
       <formula>$M318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K330">
-    <cfRule type="cellIs" dxfId="254" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="479" operator="equal">
       <formula>$K318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I331">
-    <cfRule type="cellIs" dxfId="253" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="473" operator="equal">
       <formula>$I319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J331">
-    <cfRule type="cellIs" dxfId="252" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="472" operator="equal">
       <formula>$J319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L331">
-    <cfRule type="cellIs" dxfId="251" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="471" operator="equal">
       <formula>$L319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M331">
-    <cfRule type="cellIs" dxfId="250" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="470" operator="equal">
       <formula>$M319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K331">
-    <cfRule type="cellIs" dxfId="249" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="474" operator="equal">
       <formula>$K319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I328">
-    <cfRule type="cellIs" dxfId="248" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="468" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J328">
-    <cfRule type="cellIs" dxfId="247" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="467" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L328">
-    <cfRule type="cellIs" dxfId="246" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="466" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M328">
-    <cfRule type="cellIs" dxfId="245" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="465" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K328">
-    <cfRule type="cellIs" dxfId="244" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="469" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I329">
-    <cfRule type="cellIs" dxfId="243" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="463" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J329">
-    <cfRule type="cellIs" dxfId="242" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="462" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L329">
-    <cfRule type="cellIs" dxfId="241" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="461" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M329">
-    <cfRule type="cellIs" dxfId="240" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="460" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K329">
-    <cfRule type="cellIs" dxfId="239" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="464" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I307:I308">
-    <cfRule type="cellIs" dxfId="238" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="455" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J307:J308">
-    <cfRule type="cellIs" dxfId="237" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="456" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L307:L308">
-    <cfRule type="cellIs" dxfId="236" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="457" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M307:M308">
-    <cfRule type="cellIs" dxfId="235" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="458" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K307:K308">
-    <cfRule type="cellIs" dxfId="234" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="459" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I306">
-    <cfRule type="cellIs" dxfId="233" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="453" operator="equal">
       <formula>$I295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J306">
-    <cfRule type="cellIs" dxfId="232" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="452" operator="equal">
       <formula>$J295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L306">
-    <cfRule type="cellIs" dxfId="231" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="451" operator="equal">
       <formula>$L295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M306">
-    <cfRule type="cellIs" dxfId="230" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="450" operator="equal">
       <formula>$M295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K306">
-    <cfRule type="cellIs" dxfId="229" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="454" operator="equal">
       <formula>$K295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I305">
-    <cfRule type="cellIs" dxfId="228" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="445" operator="equal">
       <formula>$I294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J305">
-    <cfRule type="cellIs" dxfId="227" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="446" operator="equal">
       <formula>$J294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L305">
-    <cfRule type="cellIs" dxfId="226" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="447" operator="equal">
       <formula>$L294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M305">
-    <cfRule type="cellIs" dxfId="225" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="448" operator="equal">
       <formula>$M294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K305">
-    <cfRule type="cellIs" dxfId="224" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="449" operator="equal">
       <formula>$K294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I299">
-    <cfRule type="cellIs" dxfId="223" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="443" operator="equal">
       <formula>$I293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J299">
-    <cfRule type="cellIs" dxfId="222" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="442" operator="equal">
       <formula>$J293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L299">
-    <cfRule type="cellIs" dxfId="221" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="441" operator="equal">
       <formula>$L293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M299">
-    <cfRule type="cellIs" dxfId="220" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="440" operator="equal">
       <formula>$M293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K299">
-    <cfRule type="cellIs" dxfId="219" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="444" operator="equal">
       <formula>$K293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K300">
-    <cfRule type="cellIs" dxfId="218" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="434" operator="equal">
       <formula>$K294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I300">
-    <cfRule type="cellIs" dxfId="217" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="433" operator="equal">
       <formula>$I294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J300">
-    <cfRule type="cellIs" dxfId="216" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="432" operator="equal">
       <formula>$J294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L300">
-    <cfRule type="cellIs" dxfId="215" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="431" operator="equal">
       <formula>$L294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M300">
-    <cfRule type="cellIs" dxfId="214" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="430" operator="equal">
       <formula>$M294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I301">
-    <cfRule type="cellIs" dxfId="213" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="428" operator="equal">
       <formula>$I295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J301">
-    <cfRule type="cellIs" dxfId="212" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="427" operator="equal">
       <formula>$J295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L301">
-    <cfRule type="cellIs" dxfId="211" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="426" operator="equal">
       <formula>$L295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M301">
-    <cfRule type="cellIs" dxfId="210" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="425" operator="equal">
       <formula>$M295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K301">
-    <cfRule type="cellIs" dxfId="209" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="429" operator="equal">
       <formula>$K295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I302">
-    <cfRule type="cellIs" dxfId="208" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="423" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J302">
-    <cfRule type="cellIs" dxfId="207" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="422" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L302">
-    <cfRule type="cellIs" dxfId="206" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="421" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M302">
-    <cfRule type="cellIs" dxfId="205" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="420" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K302">
-    <cfRule type="cellIs" dxfId="204" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="424" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I304">
-    <cfRule type="cellIs" dxfId="203" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="418" operator="equal">
       <formula>$I297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J304">
-    <cfRule type="cellIs" dxfId="202" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="417" operator="equal">
       <formula>$J297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L304">
-    <cfRule type="cellIs" dxfId="201" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="416" operator="equal">
       <formula>$L297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M304">
-    <cfRule type="cellIs" dxfId="200" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="415" operator="equal">
       <formula>$M297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K304">
-    <cfRule type="cellIs" dxfId="199" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="419" operator="equal">
       <formula>$K297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I303">
-    <cfRule type="cellIs" dxfId="198" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="413" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J303">
-    <cfRule type="cellIs" dxfId="197" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="412" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L303">
-    <cfRule type="cellIs" dxfId="196" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="411" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M303">
-    <cfRule type="cellIs" dxfId="195" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="410" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K303">
-    <cfRule type="cellIs" dxfId="194" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="414" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K298">
-    <cfRule type="cellIs" dxfId="193" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="409" operator="equal">
       <formula>$K297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L298">
-    <cfRule type="cellIs" dxfId="192" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="408" operator="equal">
       <formula>$L297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M298">
-    <cfRule type="cellIs" dxfId="191" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="407" operator="equal">
       <formula>$M297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J298">
-    <cfRule type="cellIs" dxfId="190" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="406" operator="equal">
       <formula>$J297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I298">
-    <cfRule type="cellIs" dxfId="189" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="405" operator="equal">
       <formula>$I297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15 S172">
-    <cfRule type="cellIs" dxfId="188" priority="992" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="992" operator="equal">
       <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 I15 I172 B172">
-    <cfRule type="cellIs" dxfId="187" priority="995" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="995" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15 J172">
-    <cfRule type="cellIs" dxfId="186" priority="997" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="997" operator="equal">
       <formula>$J10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15 L172">
-    <cfRule type="cellIs" dxfId="185" priority="998" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="998" operator="equal">
       <formula>$L10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15 M172">
-    <cfRule type="cellIs" dxfId="184" priority="999" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="999" operator="equal">
       <formula>$M10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15 K172">
-    <cfRule type="cellIs" dxfId="183" priority="1000" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="1000" operator="equal">
       <formula>$K10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="182" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="397" operator="equal">
       <formula>$K9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="181" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="372" operator="equal">
       <formula>$M10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="180" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="368" operator="equal">
       <formula>$M11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="179" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="367" operator="equal">
       <formula>$M12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="178" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="366" operator="equal">
       <formula>$M13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="cellIs" dxfId="177" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="365" operator="equal">
       <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12">
-    <cfRule type="cellIs" dxfId="176" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="364" operator="equal">
       <formula>$S11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13">
-    <cfRule type="cellIs" dxfId="175" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="363" operator="equal">
       <formula>$S12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="174" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="362" operator="equal">
       <formula>$S13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="173" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="361" operator="equal">
       <formula>$K11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="172" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="360" operator="equal">
       <formula>$K12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="171" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="359" operator="equal">
       <formula>$K13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="170" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="358" operator="equal">
       <formula>$L10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="169" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="357" operator="equal">
       <formula>$L11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="168" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="356" operator="equal">
       <formula>$L12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="167" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="355" operator="equal">
       <formula>$L13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="166" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="354" operator="equal">
       <formula>$J10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="165" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="353" operator="equal">
       <formula>$J11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="164" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="352" operator="equal">
       <formula>$J12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="163" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="351" operator="equal">
       <formula>$J13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="162" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="348" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="161" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="347" operator="equal">
       <formula>$I11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="160" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="346" operator="equal">
       <formula>$I12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="159" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="345" operator="equal">
       <formula>$I13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="158" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="344" operator="equal">
       <formula>$I6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="157" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="343" operator="equal">
       <formula>$I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="156" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="342" operator="equal">
       <formula>$I8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J266">
-    <cfRule type="cellIs" dxfId="155" priority="1005" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="1005" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L266">
-    <cfRule type="cellIs" dxfId="154" priority="1008" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="1008" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M266">
-    <cfRule type="cellIs" dxfId="153" priority="1010" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="1010" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K266">
-    <cfRule type="cellIs" dxfId="152" priority="1012" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="1012" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K157">
-    <cfRule type="cellIs" dxfId="151" priority="1022" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="1022" operator="equal">
       <formula>$K143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S190">
-    <cfRule type="cellIs" dxfId="150" priority="1024" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="1024" operator="equal">
       <formula>$S143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S104 S185 S152 S219 S238">
-    <cfRule type="cellIs" dxfId="149" priority="1036" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="1036" operator="equal">
       <formula>$S102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146">
-    <cfRule type="cellIs" dxfId="148" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="295" operator="equal">
       <formula>$I144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I144">
-    <cfRule type="cellIs" dxfId="147" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="293" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="146" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="292" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144">
-    <cfRule type="cellIs" dxfId="145" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="294" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S144">
-    <cfRule type="cellIs" dxfId="144" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="302" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S146">
-    <cfRule type="cellIs" dxfId="143" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="303" operator="equal">
       <formula>$S144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S145">
-    <cfRule type="cellIs" dxfId="142" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="290" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L147">
-    <cfRule type="cellIs" dxfId="141" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="288" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M147">
-    <cfRule type="cellIs" dxfId="140" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="287" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144:K147">
-    <cfRule type="cellIs" dxfId="139" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="289" operator="equal">
       <formula>$K143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J146">
-    <cfRule type="cellIs" dxfId="138" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="278" operator="equal">
       <formula>$J145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145:I146">
-    <cfRule type="cellIs" dxfId="137" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="286" operator="equal">
       <formula>$I144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145:J146">
-    <cfRule type="cellIs" dxfId="136" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="285" operator="equal">
       <formula>$J144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L147">
-    <cfRule type="cellIs" dxfId="135" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="284" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M147">
-    <cfRule type="cellIs" dxfId="134" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="283" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L145">
-    <cfRule type="cellIs" dxfId="133" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="282" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M145">
-    <cfRule type="cellIs" dxfId="132" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="281" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L145">
-    <cfRule type="cellIs" dxfId="131" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="280" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M145">
-    <cfRule type="cellIs" dxfId="130" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="279" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="129" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="277" operator="equal">
       <formula>$J143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="128" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="276" operator="equal">
       <formula>$J143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S156">
-    <cfRule type="cellIs" dxfId="127" priority="1040" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="1040" operator="equal">
       <formula>$S265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="cellIs" dxfId="126" priority="1047" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="1047" operator="equal">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I150">
-    <cfRule type="cellIs" dxfId="125" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="206" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="124" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="205" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K150">
-    <cfRule type="cellIs" dxfId="123" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="207" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B150:B151">
-    <cfRule type="cellIs" dxfId="122" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="204" operator="equal">
       <formula>$I62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S150">
-    <cfRule type="cellIs" dxfId="121" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="215" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S151">
-    <cfRule type="cellIs" dxfId="120" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="203" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="119" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="199" operator="equal">
       <formula>$J259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="118" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="198" operator="equal">
       <formula>$J259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L150">
-    <cfRule type="cellIs" dxfId="117" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="217" operator="equal">
       <formula>$L259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M150">
-    <cfRule type="cellIs" dxfId="116" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="218" operator="equal">
       <formula>$M259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K150">
-    <cfRule type="cellIs" dxfId="115" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="219" operator="equal">
       <formula>$K259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S74">
-    <cfRule type="cellIs" dxfId="114" priority="1053" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="1053" operator="equal">
       <formula>$S73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S83">
-    <cfRule type="cellIs" dxfId="113" priority="1075" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="1075" operator="equal">
       <formula>$S81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="112" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="137" operator="equal">
       <formula>$I81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="cellIs" dxfId="111" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="136" operator="equal">
       <formula>$J81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L82">
-    <cfRule type="cellIs" dxfId="110" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="135" operator="equal">
       <formula>$L81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82">
-    <cfRule type="cellIs" dxfId="109" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="134" operator="equal">
       <formula>$M81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K82">
-    <cfRule type="cellIs" dxfId="108" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="138" operator="equal">
       <formula>$K81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="107" priority="1076" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="1076" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="cellIs" dxfId="106" priority="1078" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="1078" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2 B2">
-    <cfRule type="cellIs" dxfId="105" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="111" operator="equal">
       <formula>$I277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="cellIs" dxfId="104" priority="1089" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="1089" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S148">
-    <cfRule type="cellIs" dxfId="103" priority="1107" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="1107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="102" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="109" operator="equal">
       <formula>$I101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J103">
-    <cfRule type="cellIs" dxfId="101" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="108" operator="equal">
       <formula>$J101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L103">
-    <cfRule type="cellIs" dxfId="100" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="107" operator="equal">
       <formula>$L101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M103">
-    <cfRule type="cellIs" dxfId="99" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="106" operator="equal">
       <formula>$M101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K103">
-    <cfRule type="cellIs" dxfId="98" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="110" operator="equal">
       <formula>$K101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="97" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="94" operator="equal">
       <formula>$L147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="96" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="93" operator="equal">
       <formula>$L147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="95" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="92" operator="equal">
       <formula>$L147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="94" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="91" operator="equal">
       <formula>$L148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="93" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="90" operator="equal">
       <formula>$L148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K148">
-    <cfRule type="cellIs" dxfId="92" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="89" operator="equal">
       <formula>$K147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K148">
-    <cfRule type="cellIs" dxfId="91" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="88" operator="equal">
       <formula>$K147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="90" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="87" operator="equal">
       <formula>$K148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J148">
-    <cfRule type="cellIs" dxfId="89" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="86" operator="equal">
       <formula>$J147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I148">
-    <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="85" operator="equal">
       <formula>$I147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I218">
-    <cfRule type="cellIs" dxfId="87" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="80" operator="equal">
       <formula>$I216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J218">
-    <cfRule type="cellIs" dxfId="86" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="79" operator="equal">
       <formula>$J216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L218">
-    <cfRule type="cellIs" dxfId="85" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="78" operator="equal">
       <formula>$L216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M218">
-    <cfRule type="cellIs" dxfId="84" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="77" operator="equal">
       <formula>$M216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K218">
-    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="81" operator="equal">
       <formula>$K216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S218">
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="82" operator="equal">
       <formula>$S216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="81" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="76" operator="equal">
       <formula>$I157</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="80" priority="1167" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="1167" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75">
-    <cfRule type="cellIs" dxfId="79" priority="1169" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="1169" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75">
-    <cfRule type="cellIs" dxfId="78" priority="1171" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="1171" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75">
-    <cfRule type="cellIs" dxfId="77" priority="1173" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="1173" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75">
-    <cfRule type="cellIs" dxfId="76" priority="1180" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="1180" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S75">
-    <cfRule type="cellIs" dxfId="75" priority="1182" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="1182" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M146">
-    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="75" operator="equal">
       <formula>$M145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M146">
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="74" operator="equal">
       <formula>$M145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="73" operator="equal">
       <formula>$M146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="72" operator="equal">
       <formula>$M146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="71" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="70" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="69" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="68" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="67" operator="equal">
       <formula>$M148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="66" operator="equal">
       <formula>$M148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="65" operator="equal">
       <formula>$M148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="64" operator="equal">
       <formula>$M148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I237 B237">
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="62" operator="equal">
       <formula>$I236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J237">
-    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="61" operator="equal">
       <formula>$J236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L237">
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="60" operator="equal">
       <formula>$L236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M237">
-    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="59" operator="equal">
       <formula>$M236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K237">
-    <cfRule type="cellIs" dxfId="58" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="63" operator="equal">
       <formula>$K236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S237">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="58" operator="equal">
       <formula>$S236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343:I373">
-    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="51" operator="equal">
       <formula>$I342</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J338:J373">
-    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="50" operator="equal">
       <formula>$J337</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343:L373">
-    <cfRule type="cellIs" dxfId="54" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="49" operator="equal">
       <formula>$L342</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343:M373">
-    <cfRule type="cellIs" dxfId="53" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="48" operator="equal">
       <formula>$M342</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343:K373">
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="52" operator="equal">
       <formula>$K342</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M376:M395">
-    <cfRule type="cellIs" dxfId="51" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="23" operator="equal">
       <formula>$M375</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I337">
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="46" operator="equal">
       <formula>$I336</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J337">
-    <cfRule type="cellIs" dxfId="49" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="45" operator="equal">
       <formula>$J336</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L337">
-    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="44" operator="equal">
       <formula>$L336</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M337">
-    <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="43" operator="equal">
       <formula>$M336</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K337">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="47" operator="equal">
       <formula>$K336</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342">
-    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="37" operator="equal">
       <formula>$L341</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342">
-    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="36" operator="equal">
       <formula>$M341</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L376:L395">
-    <cfRule type="cellIs" dxfId="43" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="24" operator="equal">
       <formula>$L375</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K376:K395">
-    <cfRule type="cellIs" dxfId="42" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="26" operator="equal">
       <formula>$K375</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L338:L341">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="41" operator="equal">
       <formula>$L337</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M338:M341">
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="40" operator="equal">
       <formula>$M337</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K338:K341">
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="42" operator="equal">
       <formula>$K337</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="39" operator="equal">
       <formula>$I341</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="38" operator="equal">
       <formula>$K341</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I375">
-    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="34" operator="equal">
       <formula>$I373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J375">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="33" operator="equal">
       <formula>$J373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L375">
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="32" operator="equal">
       <formula>$L373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M375">
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="31" operator="equal">
       <formula>$M373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K375">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="35" operator="equal">
       <formula>$K373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I338">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="30" operator="equal">
       <formula>$I337</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I339">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
       <formula>$I338</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="28" operator="equal">
       <formula>$I339</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="27" operator="equal">
       <formula>$I340</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J376:J395">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="25" operator="equal">
       <formula>$J375</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M396">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="19" operator="equal">
       <formula>$M395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L396">
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="20" operator="equal">
       <formula>$L395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K396">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="22" operator="equal">
       <formula>$K395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J396">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
       <formula>$J395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I400">
-    <cfRule type="cellIs" dxfId="22" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
       <formula>$I395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J400">
-    <cfRule type="cellIs" dxfId="21" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="54" operator="equal">
       <formula>$J395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L400">
-    <cfRule type="cellIs" dxfId="20" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
       <formula>$L395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M400">
-    <cfRule type="cellIs" dxfId="19" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="56" operator="equal">
       <formula>$M395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K400">
-    <cfRule type="cellIs" dxfId="18" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="57" operator="equal">
       <formula>$K395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M397">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
       <formula>$M396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L397">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
       <formula>$L396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K397">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
       <formula>$K396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J397">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>$J396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M399">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
       <formula>$M397</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L399">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>$L397</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K399">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
       <formula>$K397</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J399">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>$J397</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M398">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>$M396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L398">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>$L396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K398">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>$K396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J398">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>$J396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I376:I399">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>$I375</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M374">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>$M398</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L374">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>$L398</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K374">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>$K398</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J374">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>$J398</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I374">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$I373</formula>
     </cfRule>
   </conditionalFormatting>

--- a/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A0CAD1-B1A8-482F-83DE-E07A1EA5F2C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E3D8AD-9490-449B-9A93-FE8DF78E12B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当資料の使い方" sheetId="26" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5859" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5988" uniqueCount="1461">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -5673,6 +5673,222 @@
   </si>
   <si>
     <t>nablarch-default-configuration\nablarch-main-default-configuration\src\main\resources\nablarch\webui\threadcontext-for-webui-in-sessionstore.xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Redisストア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lettuceSimpleRedisClient</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単独のRedisインスタンスに接続するためのクライアント実装</t>
+    <rPh sb="0" eb="2">
+      <t>タンドク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch.integration.redisstore.lettuce.LettuceSimpleRedisClient</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch-default-configuration\nablarch-main-default-configuration\src\main\resources\nablarch\webui\session-store.xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch-default-configuration\nablarch-main-default-configuration\src\main\resources\nablarch\webui\redisstore-lettuce.xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uri</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch.lettuce.simple.uri</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch/webui/redisstore-lettuce.config</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redis://localhost:6379</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lettuceMasterReplicaRedisClient</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Master-Replica構成のRedisインスタンスに接続するためのクライアント実装</t>
+    <rPh sb="14" eb="16">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch.integration.redisstore.lettuce.LettuceMasterReplicaRedisClient</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch.lettuce.masterReplica.uri</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redis-sentinel://localhost:26379,localhost:26380,localhost:26381?sentinelMasterId=masterGroupName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redisClusterUriListFactory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lettuceClusterRedisClientのuriに設定する値をList&lt;String&gt;として定義するためのコンポーネントファクトリ</t>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch.core.repository.di.config.StringListComponentFactory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>values</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch.lettuce.cluster.uriList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redis://localhost:6379,redis://localhost:6380,redis://localhost:6381</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lettuceRedisClientProvider</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch.integration.redisstore.lettuce.LettuceRedisClientProvider</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LettuceRedisClientの実装を決定するクラス</t>
+    <rPh sb="19" eb="21">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clientType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用するクライアント実装の識別子</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch.lettuce.clientType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>simple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redisStore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch.integration.redisstore.lettuce.LettuceRedisStore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SessionStoreのRedis実装</t>
+    <rPh sb="18" eb="20">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>expires</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Master-Replica構成のRedisへの接続URI</t>
+    <rPh sb="14" eb="16">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cluster構成のRedisへの接続URI
+（各ノードのURIを半角カンマで繋げた文字列）</t>
+    <rPh sb="7" eb="9">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ツナ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Redisへの接続URI</t>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5765,7 +5981,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -5897,13 +6113,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6096,6 +6370,9 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6108,14 +6385,209 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="407">
+  <dxfs count="422">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -11341,7 +11813,7 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -11509,9 +11981,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S363"/>
+  <dimension ref="A1:S372"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
@@ -11545,14 +12017,14 @@
       <c r="B1" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="65" t="s">
         <v>795</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="4" t="s">
         <v>790</v>
       </c>
@@ -21555,7 +22027,7 @@
         <v>315</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>895</v>
+        <v>1430</v>
       </c>
       <c r="N179" s="24" t="s">
         <v>314</v>
@@ -30386,7 +30858,7 @@
       <c r="N336" s="14" t="s">
         <v>1422</v>
       </c>
-      <c r="O336" s="68" t="s">
+      <c r="O336" s="64" t="s">
         <v>1149</v>
       </c>
       <c r="P336" s="14" t="s">
@@ -30442,7 +30914,7 @@
       <c r="N337" s="14" t="s">
         <v>1423</v>
       </c>
-      <c r="O337" s="68" t="s">
+      <c r="O337" s="64" t="s">
         <v>1149</v>
       </c>
       <c r="P337" s="14" t="s">
@@ -30458,7 +30930,7 @@
     </row>
     <row r="338" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="2">
-        <f t="shared" ref="A338:A363" si="6">ROW()-2</f>
+        <f t="shared" ref="A338:A372" si="6">ROW()-2</f>
         <v>336</v>
       </c>
       <c r="B338" s="27"/>
@@ -31164,7 +31636,7 @@
       <c r="L350" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="M350" s="2" t="s">
+      <c r="M350" s="50" t="s">
         <v>1149</v>
       </c>
       <c r="N350" s="36" t="s">
@@ -31903,6 +32375,480 @@
         <v>1412</v>
       </c>
       <c r="S363" s="33"/>
+    </row>
+    <row r="364" spans="1:19" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="2">
+        <f t="shared" si="6"/>
+        <v>362</v>
+      </c>
+      <c r="B364" s="72" t="s">
+        <v>791</v>
+      </c>
+      <c r="C364" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="D364" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="E364" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="F364" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="G364" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="H364" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="I364" s="70" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J364" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="K364" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="L364" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="M364" s="70" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N364" s="36" t="s">
+        <v>1432</v>
+      </c>
+      <c r="O364" s="36" t="s">
+        <v>1460</v>
+      </c>
+      <c r="P364" s="36" t="s">
+        <v>1433</v>
+      </c>
+      <c r="Q364" s="36" t="s">
+        <v>1434</v>
+      </c>
+      <c r="R364" s="52" t="s">
+        <v>1435</v>
+      </c>
+      <c r="S364" s="33"/>
+    </row>
+    <row r="365" spans="1:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="2">
+        <f t="shared" si="6"/>
+        <v>363</v>
+      </c>
+      <c r="B365" s="73"/>
+      <c r="C365" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="D365" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="E365" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="F365" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="G365" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="H365" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="I365" s="71"/>
+      <c r="J365" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="K365" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="L365" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="M365" s="41"/>
+      <c r="N365" s="36" t="s">
+        <v>1432</v>
+      </c>
+      <c r="O365" s="36" t="s">
+        <v>1458</v>
+      </c>
+      <c r="P365" s="36" t="s">
+        <v>1439</v>
+      </c>
+      <c r="Q365" s="36" t="s">
+        <v>1434</v>
+      </c>
+      <c r="R365" s="52" t="s">
+        <v>1440</v>
+      </c>
+      <c r="S365" s="33"/>
+    </row>
+    <row r="366" spans="1:19" ht="54" x14ac:dyDescent="0.15">
+      <c r="A366" s="2">
+        <f t="shared" si="6"/>
+        <v>364</v>
+      </c>
+      <c r="B366" s="73"/>
+      <c r="C366" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="D366" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="E366" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="F366" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="G366" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="H366" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="I366" s="2"/>
+      <c r="J366" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K366" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L366" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="M366" s="2"/>
+      <c r="N366" s="36" t="s">
+        <v>1444</v>
+      </c>
+      <c r="O366" s="36" t="s">
+        <v>1459</v>
+      </c>
+      <c r="P366" s="36" t="s">
+        <v>1445</v>
+      </c>
+      <c r="Q366" s="36" t="s">
+        <v>1434</v>
+      </c>
+      <c r="R366" s="52" t="s">
+        <v>1446</v>
+      </c>
+      <c r="S366" s="33"/>
+    </row>
+    <row r="367" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="2">
+        <f t="shared" si="6"/>
+        <v>365</v>
+      </c>
+      <c r="B367" s="73"/>
+      <c r="C367" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="D367" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="E367" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="F367" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="G367" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="H367" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="I367" s="2"/>
+      <c r="J367" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="K367" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="L367" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="M367" s="2"/>
+      <c r="N367" s="36" t="s">
+        <v>1450</v>
+      </c>
+      <c r="O367" s="36" t="s">
+        <v>1451</v>
+      </c>
+      <c r="P367" s="36" t="s">
+        <v>1452</v>
+      </c>
+      <c r="Q367" s="36" t="s">
+        <v>1434</v>
+      </c>
+      <c r="R367" s="52" t="s">
+        <v>1453</v>
+      </c>
+      <c r="S367" s="33"/>
+    </row>
+    <row r="368" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A368" s="2">
+        <f t="shared" si="6"/>
+        <v>366</v>
+      </c>
+      <c r="B368" s="73"/>
+      <c r="C368" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="D368" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="E368" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="F368" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="G368" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="H368" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="I368" s="2"/>
+      <c r="J368" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K368" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="L368" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="M368" s="2"/>
+      <c r="N368" s="36" t="s">
+        <v>1457</v>
+      </c>
+      <c r="O368" s="36" t="s">
+        <v>646</v>
+      </c>
+      <c r="P368" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q368" s="36" t="s">
+        <v>1289</v>
+      </c>
+      <c r="R368" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="S368" s="33"/>
+    </row>
+    <row r="369" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="2">
+        <f t="shared" si="6"/>
+        <v>367</v>
+      </c>
+      <c r="B369" s="73"/>
+      <c r="C369" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="D369" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="E369" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="F369" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="G369" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="H369" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="I369" s="2"/>
+      <c r="J369" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K369" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="L369" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="M369" s="50"/>
+      <c r="N369" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="O369" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="P369" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q369" s="23" t="s">
+        <v>1289</v>
+      </c>
+      <c r="R369" s="69" t="s">
+        <v>703</v>
+      </c>
+      <c r="S369" s="33"/>
+    </row>
+    <row r="370" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="2">
+        <f t="shared" si="6"/>
+        <v>368</v>
+      </c>
+      <c r="B370" s="73"/>
+      <c r="C370" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="D370" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="E370" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="F370" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="G370" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="H370" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="I370" s="2"/>
+      <c r="J370" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K370" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="L370" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M370" s="50"/>
+      <c r="N370" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="O370" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="P370" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q370" s="23" t="s">
+        <v>1289</v>
+      </c>
+      <c r="R370" s="69" t="s">
+        <v>705</v>
+      </c>
+      <c r="S370" s="33"/>
+    </row>
+    <row r="371" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="2">
+        <f t="shared" si="6"/>
+        <v>369</v>
+      </c>
+      <c r="B371" s="73"/>
+      <c r="C371" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="D371" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="E371" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="F371" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="G371" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="H371" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="I371" s="2"/>
+      <c r="J371" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K371" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="L371" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M371" s="50"/>
+      <c r="N371" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="O371" s="23" t="s">
+        <v>648</v>
+      </c>
+      <c r="P371" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q371" s="23" t="s">
+        <v>1289</v>
+      </c>
+      <c r="R371" s="69" t="s">
+        <v>411</v>
+      </c>
+      <c r="S371" s="33"/>
+    </row>
+    <row r="372" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="2">
+        <f t="shared" si="6"/>
+        <v>370</v>
+      </c>
+      <c r="B372" s="74"/>
+      <c r="C372" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="D372" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="E372" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="F372" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="G372" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="H372" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="I372" s="2"/>
+      <c r="J372" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K372" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="L372" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M372" s="50"/>
+      <c r="N372" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="O372" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="P372" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q372" s="23" t="s">
+        <v>1289</v>
+      </c>
+      <c r="R372" s="69" t="s">
+        <v>679</v>
+      </c>
+      <c r="S372" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:T335" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -31911,1993 +32857,2083 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I190:I194 B190:B194 I243:I247 B243:B247 I122:I139 B122:B139 I249:I258 I84:I87 B249:B258 I141:I143 B141:B143 I260:I263 B260:B263 I332:I335 I308:I313 I267:I296 I16:I30 B4:B10 B16:B30 I4:I10 B32:B73 I32:I73 B147 I147 I89:I102 I105:I120 B105:B120 I185:I186 B185:B186 I172:I178 B172:B178 I157:I170 B157:B170 B152:B154 I150:I154 I180:I183 B180:B183 B84:B102 I196:I216 B196:B216 I76:I81 B76:B82 I219:I235 I238:I241 B219:B235 B238:B241">
-    <cfRule type="cellIs" dxfId="406" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="587" operator="equal">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J190:J194 J243:J247 J122:J139 J249:J258 J141:J143 J260:J263 J332:J335 J308:J313 J4:J10 J16:J30 J266:J296 J32:J73 J145:J147 J96:J102 J105:J120 J185:J186 J172:J178 J157:J170 J150:J154 J180:J183 J84:J94 J196:J216 J76:J81 J219:J235 J238:J241">
-    <cfRule type="cellIs" dxfId="405" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="586" operator="equal">
       <formula>$J3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J189">
-    <cfRule type="cellIs" dxfId="404" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="589" operator="equal">
       <formula>$J2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L190:L194 L243:L247 L122:L139 L249:L258 L141:L143 L260:L263 L332:L335 L308:L313 L16:L30 L4:L10 L266:L296 L32:L73 L146:L147 L96:L102 L105:L120 L185:L186 L172:L178 L157:L170 L150:L154 L180:L183 L84:L94 L196:L216 L76:L81 L219:L235 L238:L241">
-    <cfRule type="cellIs" dxfId="403" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="584" operator="equal">
       <formula>$L3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M190:M194 M243:M247 M122:M139 M249:M258 M141:M143 M260:M263 M332:M335 M308:M313 M4:M10 M16:M30 M266:M296 M32:M73 M146:M147 M96:M102 M105:M120 M185:M186 M172:M178 M157:M170 M150:M154 M180:M183 M84:M94 M196:M216 M76:M81 M219:M235 M238:M241">
-    <cfRule type="cellIs" dxfId="402" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="583" operator="equal">
       <formula>$M3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121 B121">
-    <cfRule type="cellIs" dxfId="401" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="595" operator="equal">
       <formula>$I94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J121">
-    <cfRule type="cellIs" dxfId="400" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="598" operator="equal">
       <formula>$J94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121">
-    <cfRule type="cellIs" dxfId="399" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="601" operator="equal">
       <formula>$L94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M121">
-    <cfRule type="cellIs" dxfId="398" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="604" operator="equal">
       <formula>$M94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I140 B140">
-    <cfRule type="cellIs" dxfId="397" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="613" operator="equal">
       <formula>$I120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J95">
-    <cfRule type="cellIs" dxfId="396" priority="592" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="616" operator="equal">
       <formula>$J139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J140">
-    <cfRule type="cellIs" dxfId="395" priority="593" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="617" operator="equal">
       <formula>$J120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L95">
-    <cfRule type="cellIs" dxfId="394" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="620" operator="equal">
       <formula>$L139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L140">
-    <cfRule type="cellIs" dxfId="393" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="621" operator="equal">
       <formula>$L120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M95">
-    <cfRule type="cellIs" dxfId="392" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="624" operator="equal">
       <formula>$M139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M140">
-    <cfRule type="cellIs" dxfId="391" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="625" operator="equal">
       <formula>$M120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="cellIs" dxfId="390" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="577" operator="equal">
       <formula>$I132</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I259 B259">
-    <cfRule type="cellIs" dxfId="389" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="631" operator="equal">
       <formula>$I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J259">
-    <cfRule type="cellIs" dxfId="388" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="637" operator="equal">
       <formula>$J30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L259">
-    <cfRule type="cellIs" dxfId="387" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="641" operator="equal">
       <formula>$L30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M259">
-    <cfRule type="cellIs" dxfId="386" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="644" operator="equal">
       <formula>$M30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L189">
-    <cfRule type="cellIs" dxfId="385" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="658" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M189">
-    <cfRule type="cellIs" dxfId="384" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="662" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="383" priority="645" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="669" operator="equal">
       <formula>$I241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J195">
-    <cfRule type="cellIs" dxfId="382" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="675" operator="equal">
       <formula>$J73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L195">
-    <cfRule type="cellIs" dxfId="381" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="679" operator="equal">
       <formula>$L73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M195">
-    <cfRule type="cellIs" dxfId="380" priority="658" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="682" operator="equal">
       <formula>$M73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3 B3">
-    <cfRule type="cellIs" dxfId="379" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="711" operator="equal">
       <formula>$I194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="378" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="713" operator="equal">
       <formula>$J194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="377" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="714" operator="equal">
       <formula>$L194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="376" priority="691" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="715" operator="equal">
       <formula>$M194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="cellIs" dxfId="375" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="718" operator="equal">
       <formula>$I241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74">
-    <cfRule type="cellIs" dxfId="374" priority="700" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="724" operator="equal">
       <formula>$J241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L74">
-    <cfRule type="cellIs" dxfId="373" priority="704" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="728" operator="equal">
       <formula>$L241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74">
-    <cfRule type="cellIs" dxfId="372" priority="707" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="731" operator="equal">
       <formula>$M241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195 I195">
-    <cfRule type="cellIs" dxfId="371" priority="750" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="774" operator="equal">
       <formula>$I73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I242 B242">
-    <cfRule type="cellIs" dxfId="370" priority="753" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="777" operator="equal">
       <formula>$I81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J242">
-    <cfRule type="cellIs" dxfId="369" priority="759" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="783" operator="equal">
       <formula>$J81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L242">
-    <cfRule type="cellIs" dxfId="368" priority="762" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="786" operator="equal">
       <formula>$L81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M242">
-    <cfRule type="cellIs" dxfId="367" priority="765" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="789" operator="equal">
       <formula>$M81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I155 B155">
-    <cfRule type="cellIs" dxfId="366" priority="770" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="794" operator="equal">
       <formula>$I74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155">
-    <cfRule type="cellIs" dxfId="365" priority="772" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="796" operator="equal">
       <formula>$J74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L155">
-    <cfRule type="cellIs" dxfId="364" priority="773" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="797" operator="equal">
       <formula>$L74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M155">
-    <cfRule type="cellIs" dxfId="363" priority="774" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="798" operator="equal">
       <formula>$M74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I264 B264">
-    <cfRule type="cellIs" dxfId="362" priority="777" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="801" operator="equal">
       <formula>$I247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J264">
-    <cfRule type="cellIs" dxfId="361" priority="783" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="807" operator="equal">
       <formula>$J247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L264">
-    <cfRule type="cellIs" dxfId="360" priority="786" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="810" operator="equal">
       <formula>$L247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M264">
-    <cfRule type="cellIs" dxfId="359" priority="789" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="813" operator="equal">
       <formula>$M247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83 B83">
-    <cfRule type="cellIs" dxfId="358" priority="822" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="846" operator="equal">
       <formula>$I258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83">
-    <cfRule type="cellIs" dxfId="357" priority="832" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="856" operator="equal">
       <formula>$J258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83">
-    <cfRule type="cellIs" dxfId="356" priority="838" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="862" operator="equal">
       <formula>$L258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83">
-    <cfRule type="cellIs" dxfId="355" priority="844" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="868" operator="equal">
       <formula>$M258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I156 B156">
-    <cfRule type="cellIs" dxfId="354" priority="870" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="894" operator="equal">
       <formula>$I143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J156">
-    <cfRule type="cellIs" dxfId="353" priority="872" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="896" operator="equal">
       <formula>$J143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L156">
-    <cfRule type="cellIs" dxfId="352" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="897" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156">
-    <cfRule type="cellIs" dxfId="351" priority="874" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="898" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31 B31">
-    <cfRule type="cellIs" dxfId="350" priority="883" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="907" operator="equal">
       <formula>$I263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="349" priority="885" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="909" operator="equal">
       <formula>$J263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="348" priority="886" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="910" operator="equal">
       <formula>$L263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
-    <cfRule type="cellIs" dxfId="347" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="911" operator="equal">
       <formula>$M263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I248 B248">
-    <cfRule type="cellIs" dxfId="346" priority="890" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="914" operator="equal">
       <formula>$I264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J248">
-    <cfRule type="cellIs" dxfId="345" priority="892" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="916" operator="equal">
       <formula>$J264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L248">
-    <cfRule type="cellIs" dxfId="344" priority="893" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="917" operator="equal">
       <formula>$L264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M248">
-    <cfRule type="cellIs" dxfId="343" priority="894" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="918" operator="equal">
       <formula>$M264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I187:I188 B187:B188">
-    <cfRule type="cellIs" dxfId="342" priority="915" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="939" operator="equal">
       <formula>$I178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I179 B179">
-    <cfRule type="cellIs" dxfId="341" priority="916" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="940" operator="equal">
       <formula>$I187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J187:J188">
-    <cfRule type="cellIs" dxfId="340" priority="921" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="945" operator="equal">
       <formula>$J178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J179">
-    <cfRule type="cellIs" dxfId="339" priority="922" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="946" operator="equal">
       <formula>$J187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L187:L188">
-    <cfRule type="cellIs" dxfId="338" priority="924" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="948" operator="equal">
       <formula>$L178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L179">
-    <cfRule type="cellIs" dxfId="337" priority="925" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="949" operator="equal">
       <formula>$L187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M187:M188">
-    <cfRule type="cellIs" dxfId="336" priority="927" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="951" operator="equal">
       <formula>$M178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M179">
-    <cfRule type="cellIs" dxfId="335" priority="928" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="952" operator="equal">
       <formula>$M187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K190:K194 K243:K247 K122:K139 K249:K258 K141:K143 K260:K263 K332:K335 K308:K313 K4:K10 K16:K30 K266:K296 K32:K73 K146:K147 K96:K102 K105:K120 K185:K186 K172:K178 K157:K170 K150:K154 K180:K183 K84:K94 K196:K216 K76:K81 K219:K235 K238:K241">
-    <cfRule type="cellIs" dxfId="334" priority="932" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="956" operator="equal">
       <formula>$K3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K121">
-    <cfRule type="cellIs" dxfId="333" priority="947" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="971" operator="equal">
       <formula>$K94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K95">
-    <cfRule type="cellIs" dxfId="332" priority="948" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="972" operator="equal">
       <formula>$K139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K140">
-    <cfRule type="cellIs" dxfId="331" priority="949" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="973" operator="equal">
       <formula>$K120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K259">
-    <cfRule type="cellIs" dxfId="330" priority="950" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="974" operator="equal">
       <formula>$K30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K189">
-    <cfRule type="cellIs" dxfId="329" priority="951" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="975" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195">
-    <cfRule type="cellIs" dxfId="328" priority="952" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="976" operator="equal">
       <formula>$K73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="327" priority="953" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="977" operator="equal">
       <formula>$K194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74">
-    <cfRule type="cellIs" dxfId="326" priority="954" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="978" operator="equal">
       <formula>$K241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K242">
-    <cfRule type="cellIs" dxfId="325" priority="955" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="979" operator="equal">
       <formula>$K81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K155">
-    <cfRule type="cellIs" dxfId="324" priority="956" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="980" operator="equal">
       <formula>$K74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K264">
-    <cfRule type="cellIs" dxfId="323" priority="957" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="981" operator="equal">
       <formula>$K247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83">
-    <cfRule type="cellIs" dxfId="322" priority="959" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="983" operator="equal">
       <formula>$K258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="cellIs" dxfId="321" priority="961" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="985" operator="equal">
       <formula>$K263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K248">
-    <cfRule type="cellIs" dxfId="320" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="986" operator="equal">
       <formula>$K264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K187:K188">
-    <cfRule type="cellIs" dxfId="319" priority="964" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="988" operator="equal">
       <formula>$K178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K179">
-    <cfRule type="cellIs" dxfId="318" priority="965" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="989" operator="equal">
       <formula>$K187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S73 S4:S10 S147 S105:S143 S185:S188 S156:S170 S152:S154 S172:S183 S84:S103 S190:S216 S76:S82 S219:S235 S238:S264">
-    <cfRule type="cellIs" dxfId="317" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="576" operator="equal">
       <formula>$S3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265">
-    <cfRule type="cellIs" dxfId="316" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="575" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I266">
-    <cfRule type="cellIs" dxfId="315" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="574" operator="equal">
       <formula>$I265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I314">
-    <cfRule type="cellIs" dxfId="314" priority="543" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="567" operator="equal">
       <formula>$I313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J314">
-    <cfRule type="cellIs" dxfId="313" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="566" operator="equal">
       <formula>$J313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L314">
-    <cfRule type="cellIs" dxfId="312" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="565" operator="equal">
       <formula>$L313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M314">
-    <cfRule type="cellIs" dxfId="311" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="564" operator="equal">
       <formula>$M313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K314">
-    <cfRule type="cellIs" dxfId="310" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="568" operator="equal">
       <formula>$K313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I331">
-    <cfRule type="cellIs" dxfId="309" priority="966" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="990" operator="equal">
       <formula>$I313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J331">
-    <cfRule type="cellIs" dxfId="308" priority="967" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="991" operator="equal">
       <formula>$J313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L331">
-    <cfRule type="cellIs" dxfId="307" priority="968" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="992" operator="equal">
       <formula>$L313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M331">
-    <cfRule type="cellIs" dxfId="306" priority="969" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="993" operator="equal">
       <formula>$M313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K331">
-    <cfRule type="cellIs" dxfId="305" priority="970" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="994" operator="equal">
       <formula>$K313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I315">
-    <cfRule type="cellIs" dxfId="304" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="562" operator="equal">
       <formula>$I314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J315">
-    <cfRule type="cellIs" dxfId="303" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="561" operator="equal">
       <formula>$J314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L315">
-    <cfRule type="cellIs" dxfId="302" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="560" operator="equal">
       <formula>$L314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M315">
-    <cfRule type="cellIs" dxfId="301" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="559" operator="equal">
       <formula>$M314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K315">
-    <cfRule type="cellIs" dxfId="300" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="563" operator="equal">
       <formula>$K314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I325">
-    <cfRule type="cellIs" dxfId="299" priority="533" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="557" operator="equal">
       <formula>$I315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J325">
-    <cfRule type="cellIs" dxfId="298" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="556" operator="equal">
       <formula>$J315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L325">
-    <cfRule type="cellIs" dxfId="297" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="555" operator="equal">
       <formula>$L315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M325">
-    <cfRule type="cellIs" dxfId="296" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="554" operator="equal">
       <formula>$M315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K325">
-    <cfRule type="cellIs" dxfId="295" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="558" operator="equal">
       <formula>$K315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I316 I104 I184 B184 B151 I218 B103:B104 B217:B218 I237 B237">
-    <cfRule type="cellIs" dxfId="294" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="552" operator="equal">
       <formula>$I101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J316 J104 J184 J218 J237">
-    <cfRule type="cellIs" dxfId="293" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="551" operator="equal">
       <formula>$J102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L316 L104 L184 L218 L237">
-    <cfRule type="cellIs" dxfId="292" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="550" operator="equal">
       <formula>$L102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M316 M104 M184 M218 M237">
-    <cfRule type="cellIs" dxfId="291" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="549" operator="equal">
       <formula>$M102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K316 K104 K184 K218 K237">
-    <cfRule type="cellIs" dxfId="290" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="553" operator="equal">
       <formula>$K102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I322">
-    <cfRule type="cellIs" dxfId="289" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="547" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J322">
-    <cfRule type="cellIs" dxfId="288" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="546" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L322">
-    <cfRule type="cellIs" dxfId="287" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="545" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M322">
-    <cfRule type="cellIs" dxfId="286" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="544" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K322">
-    <cfRule type="cellIs" dxfId="285" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="548" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I323">
-    <cfRule type="cellIs" dxfId="284" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="542" operator="equal">
       <formula>$I322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J323">
-    <cfRule type="cellIs" dxfId="283" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="541" operator="equal">
       <formula>$J322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L323">
-    <cfRule type="cellIs" dxfId="282" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="540" operator="equal">
       <formula>$L322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M323">
-    <cfRule type="cellIs" dxfId="281" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="539" operator="equal">
       <formula>$M322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K323">
-    <cfRule type="cellIs" dxfId="280" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="543" operator="equal">
       <formula>$K322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I324">
-    <cfRule type="cellIs" dxfId="279" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="537" operator="equal">
       <formula>$I322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J324">
-    <cfRule type="cellIs" dxfId="278" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="536" operator="equal">
       <formula>$J322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L324">
-    <cfRule type="cellIs" dxfId="277" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="535" operator="equal">
       <formula>$L322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M324">
-    <cfRule type="cellIs" dxfId="276" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="534" operator="equal">
       <formula>$M322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K324">
-    <cfRule type="cellIs" dxfId="275" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="538" operator="equal">
       <formula>$K322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I317 B14">
-    <cfRule type="cellIs" dxfId="274" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="532" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J317">
-    <cfRule type="cellIs" dxfId="273" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="531" operator="equal">
       <formula>$J313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L317">
-    <cfRule type="cellIs" dxfId="272" priority="506" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="530" operator="equal">
       <formula>$L313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M317">
-    <cfRule type="cellIs" dxfId="271" priority="505" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="529" operator="equal">
       <formula>$M313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K317">
-    <cfRule type="cellIs" dxfId="270" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="533" operator="equal">
       <formula>$K313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I318">
-    <cfRule type="cellIs" dxfId="269" priority="503" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="527" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J318">
-    <cfRule type="cellIs" dxfId="268" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="526" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L318">
-    <cfRule type="cellIs" dxfId="267" priority="501" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="525" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M318">
-    <cfRule type="cellIs" dxfId="266" priority="500" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="524" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K318">
-    <cfRule type="cellIs" dxfId="265" priority="504" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="528" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I319">
-    <cfRule type="cellIs" dxfId="264" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="522" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J319">
-    <cfRule type="cellIs" dxfId="263" priority="497" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="521" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L319">
-    <cfRule type="cellIs" dxfId="262" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="520" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M319">
-    <cfRule type="cellIs" dxfId="261" priority="495" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="519" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K319">
-    <cfRule type="cellIs" dxfId="260" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="523" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I320">
-    <cfRule type="cellIs" dxfId="259" priority="493" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="517" operator="equal">
       <formula>$I319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J320">
-    <cfRule type="cellIs" dxfId="258" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="516" operator="equal">
       <formula>$J319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L320">
-    <cfRule type="cellIs" dxfId="257" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="515" operator="equal">
       <formula>$L319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M320">
-    <cfRule type="cellIs" dxfId="256" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="514" operator="equal">
       <formula>$M319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K320">
-    <cfRule type="cellIs" dxfId="255" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="518" operator="equal">
       <formula>$K319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I321">
-    <cfRule type="cellIs" dxfId="254" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="512" operator="equal">
       <formula>$I319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J321">
-    <cfRule type="cellIs" dxfId="253" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="511" operator="equal">
       <formula>$J319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L321">
-    <cfRule type="cellIs" dxfId="252" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="510" operator="equal">
       <formula>$L319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M321">
-    <cfRule type="cellIs" dxfId="251" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="509" operator="equal">
       <formula>$M319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K321">
-    <cfRule type="cellIs" dxfId="250" priority="489" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="513" operator="equal">
       <formula>$K319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I326">
-    <cfRule type="cellIs" dxfId="249" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="507" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J326">
-    <cfRule type="cellIs" dxfId="248" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="506" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L326">
-    <cfRule type="cellIs" dxfId="247" priority="481" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="505" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M326">
-    <cfRule type="cellIs" dxfId="246" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="504" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K326">
-    <cfRule type="cellIs" dxfId="245" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="508" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I329">
-    <cfRule type="cellIs" dxfId="244" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="502" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J329">
-    <cfRule type="cellIs" dxfId="243" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="501" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L329">
-    <cfRule type="cellIs" dxfId="242" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="500" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M329">
-    <cfRule type="cellIs" dxfId="241" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="499" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K329">
-    <cfRule type="cellIs" dxfId="240" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="503" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I330">
-    <cfRule type="cellIs" dxfId="239" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="497" operator="equal">
       <formula>$I318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J330">
-    <cfRule type="cellIs" dxfId="238" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="496" operator="equal">
       <formula>$J318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L330">
-    <cfRule type="cellIs" dxfId="237" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="495" operator="equal">
       <formula>$L318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M330">
-    <cfRule type="cellIs" dxfId="236" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="494" operator="equal">
       <formula>$M318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K330">
-    <cfRule type="cellIs" dxfId="235" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="498" operator="equal">
       <formula>$K318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I327">
-    <cfRule type="cellIs" dxfId="234" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="492" operator="equal">
       <formula>$I315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J327">
-    <cfRule type="cellIs" dxfId="233" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="491" operator="equal">
       <formula>$J315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L327">
-    <cfRule type="cellIs" dxfId="232" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="490" operator="equal">
       <formula>$L315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M327">
-    <cfRule type="cellIs" dxfId="231" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="489" operator="equal">
       <formula>$M315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K327">
-    <cfRule type="cellIs" dxfId="230" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="493" operator="equal">
       <formula>$K315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I328">
-    <cfRule type="cellIs" dxfId="229" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="487" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J328">
-    <cfRule type="cellIs" dxfId="228" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="486" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L328">
-    <cfRule type="cellIs" dxfId="227" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="485" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M328">
-    <cfRule type="cellIs" dxfId="226" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="484" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K328">
-    <cfRule type="cellIs" dxfId="225" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="488" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I306:I307">
-    <cfRule type="cellIs" dxfId="224" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="479" operator="equal">
       <formula>$I295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J306:J307">
-    <cfRule type="cellIs" dxfId="223" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="480" operator="equal">
       <formula>$J295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L306:L307">
-    <cfRule type="cellIs" dxfId="222" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="481" operator="equal">
       <formula>$L295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M306:M307">
-    <cfRule type="cellIs" dxfId="221" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="482" operator="equal">
       <formula>$M295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K306:K307">
-    <cfRule type="cellIs" dxfId="220" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="483" operator="equal">
       <formula>$K295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I305">
-    <cfRule type="cellIs" dxfId="219" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="477" operator="equal">
       <formula>$I294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J305">
-    <cfRule type="cellIs" dxfId="218" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="476" operator="equal">
       <formula>$J294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L305">
-    <cfRule type="cellIs" dxfId="217" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="475" operator="equal">
       <formula>$L294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M305">
-    <cfRule type="cellIs" dxfId="216" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="474" operator="equal">
       <formula>$M294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K305">
+    <cfRule type="cellIs" dxfId="230" priority="478" operator="equal">
+      <formula>$K294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I304">
+    <cfRule type="cellIs" dxfId="229" priority="469" operator="equal">
+      <formula>$I293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J304">
+    <cfRule type="cellIs" dxfId="228" priority="470" operator="equal">
+      <formula>$J293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L304">
+    <cfRule type="cellIs" dxfId="227" priority="471" operator="equal">
+      <formula>$L293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M304">
+    <cfRule type="cellIs" dxfId="226" priority="472" operator="equal">
+      <formula>$M293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K304">
+    <cfRule type="cellIs" dxfId="225" priority="473" operator="equal">
+      <formula>$K293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I298">
+    <cfRule type="cellIs" dxfId="224" priority="467" operator="equal">
+      <formula>$I292</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J298">
+    <cfRule type="cellIs" dxfId="223" priority="466" operator="equal">
+      <formula>$J292</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L298">
+    <cfRule type="cellIs" dxfId="222" priority="465" operator="equal">
+      <formula>$L292</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M298">
+    <cfRule type="cellIs" dxfId="221" priority="464" operator="equal">
+      <formula>$M292</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K298">
+    <cfRule type="cellIs" dxfId="220" priority="468" operator="equal">
+      <formula>$K292</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K299">
+    <cfRule type="cellIs" dxfId="219" priority="458" operator="equal">
+      <formula>$K293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I299">
+    <cfRule type="cellIs" dxfId="218" priority="457" operator="equal">
+      <formula>$I293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J299">
+    <cfRule type="cellIs" dxfId="217" priority="456" operator="equal">
+      <formula>$J293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L299">
+    <cfRule type="cellIs" dxfId="216" priority="455" operator="equal">
+      <formula>$L293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M299">
     <cfRule type="cellIs" dxfId="215" priority="454" operator="equal">
+      <formula>$M293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I300">
+    <cfRule type="cellIs" dxfId="214" priority="452" operator="equal">
+      <formula>$I294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J300">
+    <cfRule type="cellIs" dxfId="213" priority="451" operator="equal">
+      <formula>$J294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L300">
+    <cfRule type="cellIs" dxfId="212" priority="450" operator="equal">
+      <formula>$L294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M300">
+    <cfRule type="cellIs" dxfId="211" priority="449" operator="equal">
+      <formula>$M294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K300">
+    <cfRule type="cellIs" dxfId="210" priority="453" operator="equal">
       <formula>$K294</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I304">
-    <cfRule type="cellIs" dxfId="214" priority="445" operator="equal">
-      <formula>$I293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J304">
-    <cfRule type="cellIs" dxfId="213" priority="446" operator="equal">
-      <formula>$J293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L304">
-    <cfRule type="cellIs" dxfId="212" priority="447" operator="equal">
-      <formula>$L293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M304">
-    <cfRule type="cellIs" dxfId="211" priority="448" operator="equal">
-      <formula>$M293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K304">
-    <cfRule type="cellIs" dxfId="210" priority="449" operator="equal">
-      <formula>$K293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I298">
-    <cfRule type="cellIs" dxfId="209" priority="443" operator="equal">
-      <formula>$I292</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J298">
-    <cfRule type="cellIs" dxfId="208" priority="442" operator="equal">
-      <formula>$J292</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L298">
-    <cfRule type="cellIs" dxfId="207" priority="441" operator="equal">
-      <formula>$L292</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M298">
-    <cfRule type="cellIs" dxfId="206" priority="440" operator="equal">
-      <formula>$M292</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K298">
-    <cfRule type="cellIs" dxfId="205" priority="444" operator="equal">
-      <formula>$K292</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K299">
-    <cfRule type="cellIs" dxfId="204" priority="434" operator="equal">
-      <formula>$K293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I299">
-    <cfRule type="cellIs" dxfId="203" priority="433" operator="equal">
-      <formula>$I293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J299">
-    <cfRule type="cellIs" dxfId="202" priority="432" operator="equal">
-      <formula>$J293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L299">
-    <cfRule type="cellIs" dxfId="201" priority="431" operator="equal">
-      <formula>$L293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M299">
-    <cfRule type="cellIs" dxfId="200" priority="430" operator="equal">
-      <formula>$M293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I300">
-    <cfRule type="cellIs" dxfId="199" priority="428" operator="equal">
-      <formula>$I294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J300">
-    <cfRule type="cellIs" dxfId="198" priority="427" operator="equal">
-      <formula>$J294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L300">
-    <cfRule type="cellIs" dxfId="197" priority="426" operator="equal">
-      <formula>$L294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M300">
-    <cfRule type="cellIs" dxfId="196" priority="425" operator="equal">
-      <formula>$M294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K300">
-    <cfRule type="cellIs" dxfId="195" priority="429" operator="equal">
-      <formula>$K294</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I301">
-    <cfRule type="cellIs" dxfId="194" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="447" operator="equal">
       <formula>$I295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J301">
-    <cfRule type="cellIs" dxfId="193" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="446" operator="equal">
       <formula>$J295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L301">
-    <cfRule type="cellIs" dxfId="192" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="445" operator="equal">
       <formula>$L295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M301">
-    <cfRule type="cellIs" dxfId="191" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="444" operator="equal">
       <formula>$M295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K301">
-    <cfRule type="cellIs" dxfId="190" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="448" operator="equal">
       <formula>$K295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I303">
-    <cfRule type="cellIs" dxfId="189" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="442" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J303">
-    <cfRule type="cellIs" dxfId="188" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="441" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L303">
-    <cfRule type="cellIs" dxfId="187" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="440" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M303">
-    <cfRule type="cellIs" dxfId="186" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="439" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K303">
-    <cfRule type="cellIs" dxfId="185" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="443" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I302">
-    <cfRule type="cellIs" dxfId="184" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="437" operator="equal">
       <formula>$I295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J302">
-    <cfRule type="cellIs" dxfId="183" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="436" operator="equal">
       <formula>$J295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L302">
-    <cfRule type="cellIs" dxfId="182" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="435" operator="equal">
       <formula>$L295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M302">
-    <cfRule type="cellIs" dxfId="181" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="434" operator="equal">
       <formula>$M295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K302">
-    <cfRule type="cellIs" dxfId="180" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="438" operator="equal">
       <formula>$K295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K297">
-    <cfRule type="cellIs" dxfId="179" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="433" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L297">
-    <cfRule type="cellIs" dxfId="178" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="432" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M297">
-    <cfRule type="cellIs" dxfId="177" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="431" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J297">
-    <cfRule type="cellIs" dxfId="176" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="430" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I297">
-    <cfRule type="cellIs" dxfId="175" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="429" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15 S171">
-    <cfRule type="cellIs" dxfId="174" priority="992" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="1016" operator="equal">
       <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 I15 I171 B171">
-    <cfRule type="cellIs" dxfId="173" priority="995" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="1019" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15 J171">
-    <cfRule type="cellIs" dxfId="172" priority="997" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="1021" operator="equal">
       <formula>$J10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15 L171">
-    <cfRule type="cellIs" dxfId="171" priority="998" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="1022" operator="equal">
       <formula>$L10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15 M171">
-    <cfRule type="cellIs" dxfId="170" priority="999" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="1023" operator="equal">
       <formula>$M10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15 K171">
-    <cfRule type="cellIs" dxfId="169" priority="1000" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="1024" operator="equal">
       <formula>$K10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="168" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="421" operator="equal">
       <formula>$K9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="167" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="396" operator="equal">
       <formula>$M10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="166" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="392" operator="equal">
       <formula>$M11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="165" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="391" operator="equal">
       <formula>$M12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="164" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="390" operator="equal">
       <formula>$M13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="cellIs" dxfId="163" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="389" operator="equal">
       <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12">
-    <cfRule type="cellIs" dxfId="162" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="388" operator="equal">
       <formula>$S11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13">
-    <cfRule type="cellIs" dxfId="161" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="387" operator="equal">
       <formula>$S12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="160" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="386" operator="equal">
       <formula>$S13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="159" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="385" operator="equal">
       <formula>$K11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="158" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="384" operator="equal">
       <formula>$K12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="157" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="383" operator="equal">
       <formula>$K13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="156" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="382" operator="equal">
       <formula>$L10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="155" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="381" operator="equal">
       <formula>$L11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="154" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="380" operator="equal">
       <formula>$L12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="153" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="379" operator="equal">
       <formula>$L13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="152" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="378" operator="equal">
       <formula>$J10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="151" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="377" operator="equal">
       <formula>$J11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="150" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="376" operator="equal">
       <formula>$J12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="149" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="375" operator="equal">
       <formula>$J13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="148" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="372" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="147" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="371" operator="equal">
       <formula>$I11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="146" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="370" operator="equal">
       <formula>$I12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="145" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="369" operator="equal">
       <formula>$I13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="144" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="368" operator="equal">
       <formula>$I6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="143" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="367" operator="equal">
       <formula>$I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="142" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="366" operator="equal">
       <formula>$I8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J265">
-    <cfRule type="cellIs" dxfId="141" priority="1005" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="1029" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L265">
-    <cfRule type="cellIs" dxfId="140" priority="1008" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="1032" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M265">
-    <cfRule type="cellIs" dxfId="139" priority="1010" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="1034" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K265">
-    <cfRule type="cellIs" dxfId="138" priority="1012" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="1036" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K156">
-    <cfRule type="cellIs" dxfId="137" priority="1022" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="1046" operator="equal">
       <formula>$K143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189">
-    <cfRule type="cellIs" dxfId="136" priority="1024" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="1048" operator="equal">
       <formula>$S143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S104 S184 S151 S218 S237">
-    <cfRule type="cellIs" dxfId="135" priority="1036" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="1060" operator="equal">
       <formula>$S102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146">
-    <cfRule type="cellIs" dxfId="134" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="319" operator="equal">
       <formula>$I144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I144">
-    <cfRule type="cellIs" dxfId="133" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="317" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="132" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="316" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144">
-    <cfRule type="cellIs" dxfId="131" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="318" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S144">
-    <cfRule type="cellIs" dxfId="130" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="326" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S146">
-    <cfRule type="cellIs" dxfId="129" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="327" operator="equal">
       <formula>$S144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S145">
-    <cfRule type="cellIs" dxfId="128" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="314" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L147">
-    <cfRule type="cellIs" dxfId="127" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="312" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M147">
-    <cfRule type="cellIs" dxfId="126" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="311" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144:K147">
-    <cfRule type="cellIs" dxfId="125" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="313" operator="equal">
       <formula>$K143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J146">
-    <cfRule type="cellIs" dxfId="124" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="302" operator="equal">
       <formula>$J145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145:I146">
-    <cfRule type="cellIs" dxfId="123" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="310" operator="equal">
       <formula>$I144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145:J146">
-    <cfRule type="cellIs" dxfId="122" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="309" operator="equal">
       <formula>$J144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L147">
-    <cfRule type="cellIs" dxfId="121" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="308" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M147">
-    <cfRule type="cellIs" dxfId="120" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="307" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L145">
-    <cfRule type="cellIs" dxfId="119" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="306" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M145">
-    <cfRule type="cellIs" dxfId="118" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="305" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L145">
-    <cfRule type="cellIs" dxfId="117" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="304" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M145">
-    <cfRule type="cellIs" dxfId="116" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="303" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="115" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="301" operator="equal">
       <formula>$J143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="114" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="300" operator="equal">
       <formula>$J143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S155">
-    <cfRule type="cellIs" dxfId="113" priority="1040" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="1064" operator="equal">
       <formula>$S264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="cellIs" dxfId="112" priority="1047" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="1071" operator="equal">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I149">
-    <cfRule type="cellIs" dxfId="111" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="230" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="110" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="229" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="109" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="231" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B149:B150">
-    <cfRule type="cellIs" dxfId="108" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="228" operator="equal">
       <formula>$I62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S149">
-    <cfRule type="cellIs" dxfId="107" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="239" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S150">
-    <cfRule type="cellIs" dxfId="106" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="227" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="105" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="223" operator="equal">
       <formula>$J258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="104" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="222" operator="equal">
       <formula>$J258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="103" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="241" operator="equal">
       <formula>$L258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="102" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="242" operator="equal">
       <formula>$M258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="101" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="243" operator="equal">
       <formula>$K258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S74">
-    <cfRule type="cellIs" dxfId="100" priority="1053" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="1077" operator="equal">
       <formula>$S73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S83">
-    <cfRule type="cellIs" dxfId="99" priority="1075" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="1099" operator="equal">
       <formula>$S81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="98" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="161" operator="equal">
       <formula>$I81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="cellIs" dxfId="97" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="160" operator="equal">
       <formula>$J81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L82">
-    <cfRule type="cellIs" dxfId="96" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="159" operator="equal">
       <formula>$L81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82">
-    <cfRule type="cellIs" dxfId="95" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="158" operator="equal">
       <formula>$M81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K82">
-    <cfRule type="cellIs" dxfId="94" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="162" operator="equal">
       <formula>$K81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="93" priority="1076" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="1100" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="cellIs" dxfId="92" priority="1078" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="1102" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2 B2">
-    <cfRule type="cellIs" dxfId="91" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="135" operator="equal">
       <formula>$I276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="cellIs" dxfId="90" priority="1089" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="1113" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S148">
-    <cfRule type="cellIs" dxfId="89" priority="1107" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="1131" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="88" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="133" operator="equal">
       <formula>$I101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J103">
-    <cfRule type="cellIs" dxfId="87" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="132" operator="equal">
       <formula>$J101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L103">
-    <cfRule type="cellIs" dxfId="86" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="131" operator="equal">
       <formula>$L101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M103">
-    <cfRule type="cellIs" dxfId="85" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="130" operator="equal">
       <formula>$M101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K103">
-    <cfRule type="cellIs" dxfId="84" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="134" operator="equal">
       <formula>$K101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="83" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="118" operator="equal">
       <formula>$L147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="82" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="117" operator="equal">
       <formula>$L147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="81" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="116" operator="equal">
       <formula>$L147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K148">
-    <cfRule type="cellIs" dxfId="80" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="113" operator="equal">
       <formula>$K147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K148">
-    <cfRule type="cellIs" dxfId="79" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="112" operator="equal">
       <formula>$K147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J148">
-    <cfRule type="cellIs" dxfId="78" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="110" operator="equal">
       <formula>$J147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I148">
-    <cfRule type="cellIs" dxfId="77" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="109" operator="equal">
       <formula>$I147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I217">
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="104" operator="equal">
       <formula>$I215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J217">
-    <cfRule type="cellIs" dxfId="75" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="103" operator="equal">
       <formula>$J215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L217">
-    <cfRule type="cellIs" dxfId="74" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="102" operator="equal">
       <formula>$L215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M217">
-    <cfRule type="cellIs" dxfId="73" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="101" operator="equal">
       <formula>$M215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K217">
-    <cfRule type="cellIs" dxfId="72" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="105" operator="equal">
       <formula>$K215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S217">
-    <cfRule type="cellIs" dxfId="71" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="106" operator="equal">
       <formula>$S215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="70" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="100" operator="equal">
       <formula>$I156</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="69" priority="1167" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="1191" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75">
-    <cfRule type="cellIs" dxfId="68" priority="1169" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="1193" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75">
-    <cfRule type="cellIs" dxfId="67" priority="1171" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="1195" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75">
-    <cfRule type="cellIs" dxfId="66" priority="1173" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="1197" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75">
-    <cfRule type="cellIs" dxfId="65" priority="1180" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1204" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S75">
-    <cfRule type="cellIs" dxfId="64" priority="1182" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1206" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M146">
-    <cfRule type="cellIs" dxfId="63" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="99" operator="equal">
       <formula>$M145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M146">
-    <cfRule type="cellIs" dxfId="62" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="98" operator="equal">
       <formula>$M145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="61" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="97" operator="equal">
       <formula>$M146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="96" operator="equal">
       <formula>$M146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
+    <cfRule type="cellIs" dxfId="74" priority="95" operator="equal">
+      <formula>$M147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M148">
+    <cfRule type="cellIs" dxfId="73" priority="94" operator="equal">
+      <formula>$M147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M148">
+    <cfRule type="cellIs" dxfId="72" priority="93" operator="equal">
+      <formula>$M147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M148">
+    <cfRule type="cellIs" dxfId="71" priority="92" operator="equal">
+      <formula>$M147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I236 B236">
+    <cfRule type="cellIs" dxfId="70" priority="86" operator="equal">
+      <formula>$I235</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J236">
+    <cfRule type="cellIs" dxfId="69" priority="85" operator="equal">
+      <formula>$J235</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L236">
+    <cfRule type="cellIs" dxfId="68" priority="84" operator="equal">
+      <formula>$L235</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M236">
+    <cfRule type="cellIs" dxfId="67" priority="83" operator="equal">
+      <formula>$M235</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K236">
+    <cfRule type="cellIs" dxfId="66" priority="87" operator="equal">
+      <formula>$K235</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S236">
+    <cfRule type="cellIs" dxfId="65" priority="82" operator="equal">
+      <formula>$S235</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M339:M358">
+    <cfRule type="cellIs" dxfId="64" priority="47" operator="equal">
+      <formula>$M338</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I336">
+    <cfRule type="cellIs" dxfId="63" priority="70" operator="equal">
+      <formula>$I335</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J336">
+    <cfRule type="cellIs" dxfId="62" priority="69" operator="equal">
+      <formula>$J335</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L336">
+    <cfRule type="cellIs" dxfId="61" priority="68" operator="equal">
+      <formula>$L335</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M336">
+    <cfRule type="cellIs" dxfId="60" priority="67" operator="equal">
+      <formula>$M335</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K336">
     <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
-      <formula>$M147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="58" priority="70" operator="equal">
-      <formula>$M147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
-      <formula>$M147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="56" priority="68" operator="equal">
-      <formula>$M147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I236 B236">
-    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
-      <formula>$I235</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J236">
-    <cfRule type="cellIs" dxfId="54" priority="61" operator="equal">
-      <formula>$J235</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L236">
-    <cfRule type="cellIs" dxfId="53" priority="60" operator="equal">
-      <formula>$L235</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M236">
-    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
-      <formula>$M235</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K236">
-    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
-      <formula>$K235</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S236">
-    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
-      <formula>$S235</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M339:M358">
-    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
-      <formula>$M338</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I336">
+      <formula>$K335</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L337">
+    <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M337">
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L339:L358">
+    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+      <formula>$L338</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K339:K358">
+    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
+      <formula>$K338</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I337">
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K337">
+    <cfRule type="cellIs" dxfId="53" priority="62" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I338">
+    <cfRule type="cellIs" dxfId="52" priority="58" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J338">
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L338">
+    <cfRule type="cellIs" dxfId="50" priority="56" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M338">
+    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K338">
+    <cfRule type="cellIs" dxfId="48" priority="59" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J339:J358">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+      <formula>$J338</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M359">
+    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+      <formula>$M358</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L359">
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+      <formula>$L358</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K359">
     <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
-      <formula>$I335</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J336">
+      <formula>$K358</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J359">
     <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
-      <formula>$J335</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L336">
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
-      <formula>$L335</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M336">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
-      <formula>$M335</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K336">
-    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
-      <formula>$K335</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L337">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+      <formula>$J358</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I363">
+    <cfRule type="cellIs" dxfId="42" priority="77" operator="equal">
+      <formula>$I358</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J363">
+    <cfRule type="cellIs" dxfId="41" priority="78" operator="equal">
+      <formula>$J358</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L363">
+    <cfRule type="cellIs" dxfId="40" priority="79" operator="equal">
+      <formula>$L358</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M363">
+    <cfRule type="cellIs" dxfId="39" priority="80" operator="equal">
+      <formula>$M358</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K363">
+    <cfRule type="cellIs" dxfId="38" priority="81" operator="equal">
+      <formula>$K358</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M360">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>$M359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L360">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+      <formula>$L359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K360">
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+      <formula>$K359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J360">
+    <cfRule type="cellIs" dxfId="34" priority="41" operator="equal">
+      <formula>$J359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M362">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>$M360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L362">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+      <formula>$L360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K362">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
+      <formula>$K360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J362">
+    <cfRule type="cellIs" dxfId="30" priority="37" operator="equal">
+      <formula>$J360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M361">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>$M359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L361">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>$L359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K361">
+    <cfRule type="cellIs" dxfId="27" priority="34" operator="equal">
+      <formula>$K359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J361">
+    <cfRule type="cellIs" dxfId="26" priority="33" operator="equal">
+      <formula>$J359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I339:I362">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+      <formula>$I338</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J337">
+    <cfRule type="cellIs" dxfId="24" priority="1207" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M337">
-    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
+  <conditionalFormatting sqref="J369">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+      <formula>$J376</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L369">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+      <formula>$L376</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M369">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+      <formula>$M376</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K369">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+      <formula>$K376</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S369">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>$S368</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J371:J372">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>$J370</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L371:L372">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>$L370</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M371:M372">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>$M370</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K371:K372">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+      <formula>$K370</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J370">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>$J368</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L370">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>$L368</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M370">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>$M368</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K370">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>$K368</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M365:M366">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>$M364</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M367:M368">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>$M366</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I366:I372">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>$M365</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I364">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L339:L358">
-    <cfRule type="cellIs" dxfId="37" priority="24" operator="equal">
-      <formula>$L338</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K339:K358">
-    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
-      <formula>$K338</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I337">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K337">
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I338">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J338">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L338">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M338">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K338">
-    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J339:J358">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
-      <formula>$J338</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M359">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
-      <formula>$M358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L359">
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
-      <formula>$L358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K359">
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
-      <formula>$K358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J359">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
-      <formula>$J358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I363">
-    <cfRule type="cellIs" dxfId="23" priority="53" operator="equal">
-      <formula>$I358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J363">
-    <cfRule type="cellIs" dxfId="22" priority="54" operator="equal">
-      <formula>$J358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L363">
-    <cfRule type="cellIs" dxfId="21" priority="55" operator="equal">
-      <formula>$L358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M363">
-    <cfRule type="cellIs" dxfId="20" priority="56" operator="equal">
-      <formula>$M358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K363">
-    <cfRule type="cellIs" dxfId="19" priority="57" operator="equal">
-      <formula>$K358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M360">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
-      <formula>$M359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L360">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
-      <formula>$L359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K360">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>$K359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J360">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
-      <formula>$J359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M362">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
-      <formula>$M360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L362">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
-      <formula>$L360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K362">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>$K360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J362">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>$J360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M361">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
-      <formula>$M359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L361">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
-      <formula>$L359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K361">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>$K359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J361">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>$J359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I339:I362">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>$I338</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J337">
-    <cfRule type="cellIs" dxfId="0" priority="1183" operator="equal">
-      <formula>#REF!</formula>
+  <conditionalFormatting sqref="I365">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$I364</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A0CAD1-B1A8-482F-83DE-E07A1EA5F2C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F05AA9-4B8E-4400-BAD5-F8BA81A58B09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当資料の使い方" sheetId="26" r:id="rId1"/>
     <sheet name="default-configurationプロパティ定義一覧" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'default-configurationプロパティ定義一覧'!$A$2:$T$335</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'default-configurationプロパティ定義一覧'!$A$2:$T$337</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'default-configurationプロパティ定義一覧'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5859" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5892" uniqueCount="1435">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -5673,6 +5673,42 @@
   </si>
   <si>
     <t>nablarch-default-configuration\nablarch-main-default-configuration\src\main\resources\nablarch\webui\threadcontext-for-webui-in-sessionstore.xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESTリクエスト単体テストを実施するための環境設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>restTestConfiguration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESTリクエスト単体テスト設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch.test.core.http.RestTestConfiguration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch\test\rest-request-test.xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>webFrontControllerKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>webFrontControllerのリポジトリキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch.httpTestConfiguration.webFrontControllerKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>webFrontController</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6096,6 +6132,9 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6108,62 +6147,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="407">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="403">
     <dxf>
       <font>
         <color theme="0"/>
@@ -11509,13 +11497,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S363"/>
+  <dimension ref="A1:S365"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -11545,14 +11533,14 @@
       <c r="B1" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="65" t="s">
         <v>795</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="4" t="s">
         <v>790</v>
       </c>
@@ -28808,7 +28796,7 @@
     </row>
     <row r="308" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="21">
-        <f t="shared" ref="A308:A337" si="5">ROW()-2</f>
+        <f t="shared" ref="A308:A339" si="5">ROW()-2</f>
         <v>306</v>
       </c>
       <c r="B308" s="27"/>
@@ -29113,34 +29101,34 @@
         <v>899</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>1052</v>
+        <v>1426</v>
       </c>
       <c r="J313" s="2" t="s">
-        <v>1051</v>
+        <v>1427</v>
       </c>
       <c r="K313" s="2" t="s">
-        <v>1050</v>
+        <v>1428</v>
       </c>
       <c r="L313" s="2" t="s">
-        <v>1053</v>
+        <v>1429</v>
       </c>
       <c r="M313" s="2" t="s">
-        <v>1048</v>
+        <v>1430</v>
       </c>
       <c r="N313" s="36" t="s">
-        <v>1054</v>
-      </c>
-      <c r="O313" s="54" t="s">
-        <v>1056</v>
+        <v>1015</v>
+      </c>
+      <c r="O313" s="36" t="s">
+        <v>1019</v>
       </c>
       <c r="P313" s="36" t="s">
-        <v>1055</v>
+        <v>1016</v>
       </c>
       <c r="Q313" s="36" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="R313" s="52" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="S313" s="33"/>
     </row>
@@ -29169,32 +29157,34 @@
         <v>899</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>1052</v>
+        <v>1426</v>
       </c>
       <c r="J314" s="2" t="s">
-        <v>1051</v>
+        <v>1427</v>
       </c>
       <c r="K314" s="2" t="s">
-        <v>1050</v>
+        <v>1428</v>
       </c>
       <c r="L314" s="2" t="s">
-        <v>1053</v>
+        <v>1429</v>
       </c>
       <c r="M314" s="2" t="s">
-        <v>1048</v>
+        <v>1430</v>
       </c>
       <c r="N314" s="36" t="s">
-        <v>1081</v>
-      </c>
-      <c r="O314" s="54" t="s">
-        <v>1096</v>
-      </c>
-      <c r="P314" s="14" t="s">
-        <v>1174</v>
-      </c>
-      <c r="Q314" s="14"/>
-      <c r="R314" s="55" t="s">
-        <v>565</v>
+        <v>1431</v>
+      </c>
+      <c r="O314" s="36" t="s">
+        <v>1432</v>
+      </c>
+      <c r="P314" s="36" t="s">
+        <v>1433</v>
+      </c>
+      <c r="Q314" s="36" t="s">
+        <v>1207</v>
+      </c>
+      <c r="R314" s="52" t="s">
+        <v>1434</v>
       </c>
       <c r="S314" s="33"/>
     </row>
@@ -29203,7 +29193,9 @@
         <f t="shared" si="5"/>
         <v>313</v>
       </c>
-      <c r="B315" s="27"/>
+      <c r="B315" s="22" t="s">
+        <v>937</v>
+      </c>
       <c r="C315" s="36" t="s">
         <v>899</v>
       </c>
@@ -29238,17 +29230,19 @@
         <v>1048</v>
       </c>
       <c r="N315" s="36" t="s">
-        <v>1081</v>
+        <v>1054</v>
       </c>
       <c r="O315" s="54" t="s">
-        <v>1096</v>
-      </c>
-      <c r="P315" s="14" t="s">
-        <v>1174</v>
-      </c>
-      <c r="Q315" s="14"/>
-      <c r="R315" s="55" t="s">
-        <v>576</v>
+        <v>1056</v>
+      </c>
+      <c r="P315" s="36" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Q315" s="36" t="s">
+        <v>1215</v>
+      </c>
+      <c r="R315" s="52" t="s">
+        <v>1216</v>
       </c>
       <c r="S315" s="33"/>
     </row>
@@ -29302,7 +29296,7 @@
       </c>
       <c r="Q316" s="14"/>
       <c r="R316" s="55" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="S316" s="33"/>
     </row>
@@ -29356,7 +29350,7 @@
       </c>
       <c r="Q317" s="14"/>
       <c r="R317" s="55" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="S317" s="33"/>
     </row>
@@ -29410,7 +29404,7 @@
       </c>
       <c r="Q318" s="14"/>
       <c r="R318" s="55" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="S318" s="33"/>
     </row>
@@ -29464,7 +29458,7 @@
       </c>
       <c r="Q319" s="14"/>
       <c r="R319" s="55" t="s">
-        <v>1082</v>
+        <v>575</v>
       </c>
       <c r="S319" s="33"/>
     </row>
@@ -29518,7 +29512,7 @@
       </c>
       <c r="Q320" s="14"/>
       <c r="R320" s="55" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="S320" s="33"/>
     </row>
@@ -29572,7 +29566,7 @@
       </c>
       <c r="Q321" s="14"/>
       <c r="R321" s="55" t="s">
-        <v>533</v>
+        <v>1082</v>
       </c>
       <c r="S321" s="33"/>
     </row>
@@ -29626,7 +29620,7 @@
       </c>
       <c r="Q322" s="14"/>
       <c r="R322" s="55" t="s">
-        <v>514</v>
+        <v>560</v>
       </c>
       <c r="S322" s="33"/>
     </row>
@@ -29680,7 +29674,7 @@
       </c>
       <c r="Q323" s="14"/>
       <c r="R323" s="55" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="S323" s="33"/>
     </row>
@@ -29734,7 +29728,7 @@
       </c>
       <c r="Q324" s="14"/>
       <c r="R324" s="55" t="s">
-        <v>578</v>
+        <v>514</v>
       </c>
       <c r="S324" s="33"/>
     </row>
@@ -29788,7 +29782,7 @@
       </c>
       <c r="Q325" s="14"/>
       <c r="R325" s="55" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="S325" s="33"/>
     </row>
@@ -29842,7 +29836,7 @@
       </c>
       <c r="Q326" s="14"/>
       <c r="R326" s="55" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="S326" s="33"/>
     </row>
@@ -29896,7 +29890,7 @@
       </c>
       <c r="Q327" s="14"/>
       <c r="R327" s="55" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
       <c r="S327" s="33"/>
     </row>
@@ -29950,7 +29944,7 @@
       </c>
       <c r="Q328" s="14"/>
       <c r="R328" s="55" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="S328" s="33"/>
     </row>
@@ -30004,7 +29998,7 @@
       </c>
       <c r="Q329" s="14"/>
       <c r="R329" s="55" t="s">
-        <v>1083</v>
+        <v>527</v>
       </c>
       <c r="S329" s="33"/>
     </row>
@@ -30013,7 +30007,7 @@
         <f t="shared" si="5"/>
         <v>328</v>
       </c>
-      <c r="B330" s="30"/>
+      <c r="B330" s="27"/>
       <c r="C330" s="36" t="s">
         <v>899</v>
       </c>
@@ -30058,7 +30052,7 @@
       </c>
       <c r="Q330" s="14"/>
       <c r="R330" s="55" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="S330" s="33"/>
     </row>
@@ -30067,9 +30061,7 @@
         <f t="shared" si="5"/>
         <v>329</v>
       </c>
-      <c r="B331" s="32" t="s">
-        <v>937</v>
-      </c>
+      <c r="B331" s="27"/>
       <c r="C331" s="36" t="s">
         <v>899</v>
       </c>
@@ -30089,45 +30081,41 @@
         <v>899</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>949</v>
+        <v>1052</v>
       </c>
       <c r="J331" s="2" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="K331" s="2" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="L331" s="2" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="M331" s="2" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="N331" s="36" t="s">
-        <v>1061</v>
+        <v>1081</v>
       </c>
       <c r="O331" s="54" t="s">
-        <v>1062</v>
-      </c>
-      <c r="P331" s="36" t="s">
-        <v>1063</v>
-      </c>
-      <c r="Q331" s="36" t="s">
-        <v>1217</v>
-      </c>
-      <c r="R331" s="52" t="s">
-        <v>1218</v>
+        <v>1096</v>
+      </c>
+      <c r="P331" s="14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="Q331" s="14"/>
+      <c r="R331" s="55" t="s">
+        <v>1083</v>
       </c>
       <c r="S331" s="33"/>
     </row>
-    <row r="332" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="21">
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
-      <c r="B332" s="22" t="s">
-        <v>937</v>
-      </c>
+      <c r="B332" s="30"/>
       <c r="C332" s="36" t="s">
         <v>899</v>
       </c>
@@ -30147,43 +30135,43 @@
         <v>899</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>1071</v>
+        <v>1052</v>
       </c>
       <c r="J332" s="2" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="K332" s="2" t="s">
-        <v>1070</v>
+        <v>1050</v>
       </c>
       <c r="L332" s="2" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="M332" s="2" t="s">
-        <v>1064</v>
+        <v>1048</v>
       </c>
       <c r="N332" s="36" t="s">
-        <v>1068</v>
+        <v>1081</v>
       </c>
       <c r="O332" s="54" t="s">
-        <v>1069</v>
-      </c>
-      <c r="P332" s="36" t="s">
-        <v>1341</v>
-      </c>
-      <c r="Q332" s="23" t="s">
-        <v>1338</v>
-      </c>
-      <c r="R332" s="25" t="s">
-        <v>1342</v>
+        <v>1096</v>
+      </c>
+      <c r="P332" s="14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="Q332" s="14"/>
+      <c r="R332" s="55" t="s">
+        <v>557</v>
       </c>
       <c r="S332" s="33"/>
     </row>
-    <row r="333" spans="1:19" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="21">
         <f t="shared" si="5"/>
         <v>331</v>
       </c>
-      <c r="B333" s="27"/>
+      <c r="B333" s="32" t="s">
+        <v>937</v>
+      </c>
       <c r="C333" s="36" t="s">
         <v>899</v>
       </c>
@@ -30203,43 +30191,45 @@
         <v>899</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>1071</v>
+        <v>949</v>
       </c>
       <c r="J333" s="2" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="K333" s="2" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="L333" s="2" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="M333" s="2" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="N333" s="36" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="O333" s="54" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="P333" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q333" s="23" t="s">
-        <v>1338</v>
-      </c>
-      <c r="R333" s="25" t="s">
-        <v>1342</v>
+        <v>1063</v>
+      </c>
+      <c r="Q333" s="36" t="s">
+        <v>1217</v>
+      </c>
+      <c r="R333" s="52" t="s">
+        <v>1218</v>
       </c>
       <c r="S333" s="33"/>
     </row>
-    <row r="334" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="21">
         <f t="shared" si="5"/>
         <v>332</v>
       </c>
-      <c r="B334" s="27"/>
+      <c r="B334" s="22" t="s">
+        <v>937</v>
+      </c>
       <c r="C334" s="36" t="s">
         <v>899</v>
       </c>
@@ -30262,38 +30252,40 @@
         <v>1071</v>
       </c>
       <c r="J334" s="2" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="K334" s="2" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="L334" s="2" t="s">
-        <v>156</v>
+        <v>1074</v>
       </c>
       <c r="M334" s="2" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="N334" s="36" t="s">
-        <v>41</v>
+        <v>1068</v>
       </c>
       <c r="O334" s="54" t="s">
-        <v>1077</v>
-      </c>
-      <c r="P334" s="14" t="s">
-        <v>1174</v>
-      </c>
-      <c r="Q334" s="14"/>
-      <c r="R334" s="14" t="s">
-        <v>1076</v>
+        <v>1069</v>
+      </c>
+      <c r="P334" s="36" t="s">
+        <v>1341</v>
+      </c>
+      <c r="Q334" s="23" t="s">
+        <v>1338</v>
+      </c>
+      <c r="R334" s="25" t="s">
+        <v>1342</v>
       </c>
       <c r="S334" s="33"/>
     </row>
-    <row r="335" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:19" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="21">
         <f t="shared" si="5"/>
         <v>333</v>
       </c>
-      <c r="B335" s="30"/>
+      <c r="B335" s="27"/>
       <c r="C335" s="36" t="s">
         <v>899</v>
       </c>
@@ -30316,172 +30308,170 @@
         <v>1071</v>
       </c>
       <c r="J335" s="2" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="K335" s="2" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="L335" s="2" t="s">
-        <v>156</v>
+        <v>1067</v>
       </c>
       <c r="M335" s="2" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="N335" s="36" t="s">
-        <v>41</v>
+        <v>1068</v>
       </c>
       <c r="O335" s="54" t="s">
-        <v>1077</v>
-      </c>
-      <c r="P335" s="14" t="s">
-        <v>1174</v>
-      </c>
-      <c r="Q335" s="14"/>
-      <c r="R335" s="14" t="s">
-        <v>1079</v>
+        <v>1069</v>
+      </c>
+      <c r="P335" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q335" s="23" t="s">
+        <v>1338</v>
+      </c>
+      <c r="R335" s="25" t="s">
+        <v>1342</v>
       </c>
       <c r="S335" s="33"/>
     </row>
-    <row r="336" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A336" s="2">
+    <row r="336" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A336" s="21">
         <f t="shared" si="5"/>
         <v>334</v>
       </c>
-      <c r="B336" s="22" t="s">
-        <v>800</v>
-      </c>
+      <c r="B336" s="27"/>
       <c r="C336" s="36" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D336" s="36" t="s">
-        <v>1357</v>
+        <v>899</v>
+      </c>
+      <c r="D336" s="23" t="s">
+        <v>899</v>
       </c>
       <c r="E336" s="36" t="s">
-        <v>1357</v>
+        <v>899</v>
       </c>
       <c r="F336" s="36" t="s">
-        <v>1357</v>
+        <v>899</v>
       </c>
       <c r="G336" s="36" t="s">
-        <v>1357</v>
+        <v>899</v>
       </c>
       <c r="H336" s="36" t="s">
-        <v>1357</v>
+        <v>899</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>1358</v>
+        <v>1071</v>
       </c>
       <c r="J336" s="2" t="s">
-        <v>1149</v>
+        <v>1073</v>
       </c>
       <c r="K336" s="2" t="s">
-        <v>1149</v>
+        <v>1075</v>
       </c>
       <c r="L336" s="2" t="s">
-        <v>1149</v>
+        <v>156</v>
       </c>
       <c r="M336" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="N336" s="14" t="s">
-        <v>1422</v>
-      </c>
-      <c r="O336" s="68" t="s">
-        <v>1149</v>
+        <v>1072</v>
+      </c>
+      <c r="N336" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="O336" s="54" t="s">
+        <v>1077</v>
       </c>
       <c r="P336" s="14" t="s">
         <v>1174</v>
       </c>
-      <c r="Q336" s="14" t="s">
-        <v>1359</v>
-      </c>
+      <c r="Q336" s="14"/>
       <c r="R336" s="14" t="s">
-        <v>1420</v>
+        <v>1076</v>
       </c>
       <c r="S336" s="33"/>
     </row>
-    <row r="337" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A337" s="2">
+    <row r="337" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A337" s="21">
         <f t="shared" si="5"/>
         <v>335</v>
       </c>
-      <c r="B337" s="27"/>
+      <c r="B337" s="30"/>
       <c r="C337" s="36" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D337" s="36" t="s">
-        <v>1357</v>
+        <v>899</v>
+      </c>
+      <c r="D337" s="23" t="s">
+        <v>899</v>
       </c>
       <c r="E337" s="36" t="s">
-        <v>1357</v>
+        <v>899</v>
       </c>
       <c r="F337" s="36" t="s">
-        <v>1357</v>
+        <v>899</v>
       </c>
       <c r="G337" s="36" t="s">
-        <v>1357</v>
+        <v>899</v>
       </c>
       <c r="H337" s="36" t="s">
-        <v>1357</v>
+        <v>899</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>1360</v>
+        <v>1071</v>
       </c>
       <c r="J337" s="2" t="s">
-        <v>1149</v>
+        <v>1078</v>
       </c>
       <c r="K337" s="2" t="s">
-        <v>1149</v>
+        <v>1075</v>
       </c>
       <c r="L337" s="2" t="s">
-        <v>1149</v>
+        <v>156</v>
       </c>
       <c r="M337" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="N337" s="14" t="s">
-        <v>1423</v>
-      </c>
-      <c r="O337" s="68" t="s">
-        <v>1149</v>
+        <v>1072</v>
+      </c>
+      <c r="N337" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="O337" s="54" t="s">
+        <v>1077</v>
       </c>
       <c r="P337" s="14" t="s">
         <v>1174</v>
       </c>
-      <c r="Q337" s="14" t="s">
-        <v>1421</v>
-      </c>
+      <c r="Q337" s="14"/>
       <c r="R337" s="14" t="s">
-        <v>1420</v>
+        <v>1079</v>
       </c>
       <c r="S337" s="33"/>
     </row>
-    <row r="338" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="2">
-        <f t="shared" ref="A338:A363" si="6">ROW()-2</f>
+        <f t="shared" si="5"/>
         <v>336</v>
       </c>
-      <c r="B338" s="27"/>
+      <c r="B338" s="22" t="s">
+        <v>800</v>
+      </c>
       <c r="C338" s="36" t="s">
         <v>1357</v>
       </c>
       <c r="D338" s="36" t="s">
-        <v>899</v>
+        <v>1357</v>
       </c>
       <c r="E338" s="36" t="s">
-        <v>899</v>
+        <v>1357</v>
       </c>
       <c r="F338" s="36" t="s">
-        <v>899</v>
+        <v>1357</v>
       </c>
       <c r="G338" s="36" t="s">
-        <v>899</v>
+        <v>1357</v>
       </c>
       <c r="H338" s="36" t="s">
-        <v>899</v>
+        <v>1357</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="J338" s="2" t="s">
         <v>1149</v>
@@ -30495,26 +30485,26 @@
       <c r="M338" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="N338" s="36" t="s">
-        <v>1362</v>
-      </c>
-      <c r="O338" s="54" t="s">
+      <c r="N338" s="14" t="s">
+        <v>1422</v>
+      </c>
+      <c r="O338" s="64" t="s">
         <v>1149</v>
       </c>
       <c r="P338" s="14" t="s">
         <v>1174</v>
       </c>
       <c r="Q338" s="14" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="R338" s="14" t="s">
-        <v>1364</v>
+        <v>1420</v>
       </c>
       <c r="S338" s="33"/>
     </row>
-    <row r="339" spans="1:19" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>337</v>
       </c>
       <c r="B339" s="27"/>
@@ -30537,7 +30527,7 @@
         <v>1357</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="J339" s="2" t="s">
         <v>1149</v>
@@ -30551,26 +30541,26 @@
       <c r="M339" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="N339" s="36" t="s">
-        <v>1365</v>
-      </c>
-      <c r="O339" s="54" t="s">
+      <c r="N339" s="14" t="s">
+        <v>1423</v>
+      </c>
+      <c r="O339" s="64" t="s">
         <v>1149</v>
       </c>
       <c r="P339" s="14" t="s">
         <v>1174</v>
       </c>
       <c r="Q339" s="14" t="s">
-        <v>1366</v>
+        <v>1421</v>
       </c>
       <c r="R339" s="14" t="s">
-        <v>1367</v>
+        <v>1420</v>
       </c>
       <c r="S339" s="33"/>
     </row>
-    <row r="340" spans="1:19" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A340:A365" si="6">ROW()-2</f>
         <v>338</v>
       </c>
       <c r="B340" s="27"/>
@@ -30578,19 +30568,19 @@
         <v>1357</v>
       </c>
       <c r="D340" s="36" t="s">
-        <v>1357</v>
+        <v>899</v>
       </c>
       <c r="E340" s="36" t="s">
-        <v>1357</v>
+        <v>899</v>
       </c>
       <c r="F340" s="36" t="s">
-        <v>1357</v>
+        <v>899</v>
       </c>
       <c r="G340" s="36" t="s">
-        <v>1357</v>
+        <v>899</v>
       </c>
       <c r="H340" s="36" t="s">
-        <v>1357</v>
+        <v>899</v>
       </c>
       <c r="I340" s="2" t="s">
         <v>1361</v>
@@ -30608,7 +30598,7 @@
         <v>1149</v>
       </c>
       <c r="N340" s="36" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="O340" s="54" t="s">
         <v>1149</v>
@@ -30617,10 +30607,10 @@
         <v>1174</v>
       </c>
       <c r="Q340" s="14" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="R340" s="14" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="S340" s="33"/>
     </row>
@@ -30664,7 +30654,7 @@
         <v>1149</v>
       </c>
       <c r="N341" s="36" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="O341" s="54" t="s">
         <v>1149</v>
@@ -30676,7 +30666,7 @@
         <v>1366</v>
       </c>
       <c r="R341" s="14" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="S341" s="33"/>
     </row>
@@ -30720,7 +30710,7 @@
         <v>1149</v>
       </c>
       <c r="N342" s="36" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="O342" s="54" t="s">
         <v>1149</v>
@@ -30732,7 +30722,7 @@
         <v>1366</v>
       </c>
       <c r="R342" s="14" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="S342" s="33"/>
     </row>
@@ -30776,7 +30766,7 @@
         <v>1149</v>
       </c>
       <c r="N343" s="36" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="O343" s="54" t="s">
         <v>1149</v>
@@ -30788,7 +30778,7 @@
         <v>1366</v>
       </c>
       <c r="R343" s="14" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="S343" s="33"/>
     </row>
@@ -30832,7 +30822,7 @@
         <v>1149</v>
       </c>
       <c r="N344" s="36" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="O344" s="54" t="s">
         <v>1149</v>
@@ -30844,7 +30834,7 @@
         <v>1366</v>
       </c>
       <c r="R344" s="14" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="S344" s="33"/>
     </row>
@@ -30888,7 +30878,7 @@
         <v>1149</v>
       </c>
       <c r="N345" s="36" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="O345" s="54" t="s">
         <v>1149</v>
@@ -30900,7 +30890,7 @@
         <v>1366</v>
       </c>
       <c r="R345" s="14" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="S345" s="33"/>
     </row>
@@ -30944,7 +30934,7 @@
         <v>1149</v>
       </c>
       <c r="N346" s="36" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="O346" s="54" t="s">
         <v>1149</v>
@@ -30956,7 +30946,7 @@
         <v>1366</v>
       </c>
       <c r="R346" s="14" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="S346" s="33"/>
     </row>
@@ -31000,7 +30990,7 @@
         <v>1149</v>
       </c>
       <c r="N347" s="36" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="O347" s="54" t="s">
         <v>1149</v>
@@ -31056,7 +31046,7 @@
         <v>1149</v>
       </c>
       <c r="N348" s="36" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="O348" s="54" t="s">
         <v>1149</v>
@@ -31068,7 +31058,7 @@
         <v>1366</v>
       </c>
       <c r="R348" s="14" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="S348" s="33"/>
     </row>
@@ -31112,7 +31102,7 @@
         <v>1149</v>
       </c>
       <c r="N349" s="36" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="O349" s="54" t="s">
         <v>1149</v>
@@ -31124,7 +31114,7 @@
         <v>1366</v>
       </c>
       <c r="R349" s="14" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="S349" s="33"/>
     </row>
@@ -31168,7 +31158,7 @@
         <v>1149</v>
       </c>
       <c r="N350" s="36" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="O350" s="54" t="s">
         <v>1149</v>
@@ -31180,7 +31170,7 @@
         <v>1366</v>
       </c>
       <c r="R350" s="14" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="S350" s="33"/>
     </row>
@@ -31224,7 +31214,7 @@
         <v>1149</v>
       </c>
       <c r="N351" s="36" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="O351" s="54" t="s">
         <v>1149</v>
@@ -31236,7 +31226,7 @@
         <v>1366</v>
       </c>
       <c r="R351" s="14" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="S351" s="33"/>
     </row>
@@ -31280,7 +31270,7 @@
         <v>1149</v>
       </c>
       <c r="N352" s="36" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="O352" s="54" t="s">
         <v>1149</v>
@@ -31292,7 +31282,7 @@
         <v>1366</v>
       </c>
       <c r="R352" s="14" t="s">
-        <v>1373</v>
+        <v>1387</v>
       </c>
       <c r="S352" s="33"/>
     </row>
@@ -31336,7 +31326,7 @@
         <v>1149</v>
       </c>
       <c r="N353" s="36" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="O353" s="54" t="s">
         <v>1149</v>
@@ -31348,7 +31338,7 @@
         <v>1366</v>
       </c>
       <c r="R353" s="14" t="s">
-        <v>1375</v>
+        <v>1389</v>
       </c>
       <c r="S353" s="33"/>
     </row>
@@ -31392,7 +31382,7 @@
         <v>1149</v>
       </c>
       <c r="N354" s="36" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="O354" s="54" t="s">
         <v>1149</v>
@@ -31404,7 +31394,7 @@
         <v>1366</v>
       </c>
       <c r="R354" s="14" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="S354" s="33"/>
     </row>
@@ -31448,7 +31438,7 @@
         <v>1149</v>
       </c>
       <c r="N355" s="36" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="O355" s="54" t="s">
         <v>1149</v>
@@ -31460,7 +31450,7 @@
         <v>1366</v>
       </c>
       <c r="R355" s="14" t="s">
-        <v>1394</v>
+        <v>1375</v>
       </c>
       <c r="S355" s="33"/>
     </row>
@@ -31504,7 +31494,7 @@
         <v>1149</v>
       </c>
       <c r="N356" s="36" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="O356" s="54" t="s">
         <v>1149</v>
@@ -31516,7 +31506,7 @@
         <v>1366</v>
       </c>
       <c r="R356" s="14" t="s">
-        <v>1396</v>
+        <v>1377</v>
       </c>
       <c r="S356" s="33"/>
     </row>
@@ -31560,7 +31550,7 @@
         <v>1149</v>
       </c>
       <c r="N357" s="36" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="O357" s="54" t="s">
         <v>1149</v>
@@ -31572,7 +31562,7 @@
         <v>1366</v>
       </c>
       <c r="R357" s="14" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="S357" s="33"/>
     </row>
@@ -31616,7 +31606,7 @@
         <v>1149</v>
       </c>
       <c r="N358" s="36" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="O358" s="54" t="s">
         <v>1149</v>
@@ -31625,24 +31615,24 @@
         <v>1174</v>
       </c>
       <c r="Q358" s="14" t="s">
-        <v>1413</v>
+        <v>1366</v>
       </c>
       <c r="R358" s="14" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="S358" s="33"/>
     </row>
-    <row r="359" spans="1:19" ht="54" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:19" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="2">
         <f t="shared" si="6"/>
         <v>357</v>
       </c>
       <c r="B359" s="27"/>
       <c r="C359" s="36" t="s">
-        <v>899</v>
+        <v>1357</v>
       </c>
       <c r="D359" s="36" t="s">
-        <v>899</v>
+        <v>1357</v>
       </c>
       <c r="E359" s="36" t="s">
         <v>1357</v>
@@ -31654,7 +31644,7 @@
         <v>1357</v>
       </c>
       <c r="H359" s="36" t="s">
-        <v>899</v>
+        <v>1357</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>1361</v>
@@ -31672,7 +31662,7 @@
         <v>1149</v>
       </c>
       <c r="N359" s="36" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="O359" s="54" t="s">
         <v>1149</v>
@@ -31681,24 +31671,24 @@
         <v>1174</v>
       </c>
       <c r="Q359" s="14" t="s">
-        <v>1402</v>
+        <v>1366</v>
       </c>
       <c r="R359" s="14" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="S359" s="33"/>
     </row>
-    <row r="360" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:19" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="2">
         <f t="shared" si="6"/>
         <v>358</v>
       </c>
       <c r="B360" s="27"/>
       <c r="C360" s="36" t="s">
-        <v>899</v>
+        <v>1357</v>
       </c>
       <c r="D360" s="36" t="s">
-        <v>899</v>
+        <v>1357</v>
       </c>
       <c r="E360" s="36" t="s">
         <v>1357</v>
@@ -31710,7 +31700,7 @@
         <v>1357</v>
       </c>
       <c r="H360" s="36" t="s">
-        <v>899</v>
+        <v>1357</v>
       </c>
       <c r="I360" s="2" t="s">
         <v>1361</v>
@@ -31728,7 +31718,7 @@
         <v>1149</v>
       </c>
       <c r="N360" s="36" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="O360" s="54" t="s">
         <v>1149</v>
@@ -31737,14 +31727,14 @@
         <v>1174</v>
       </c>
       <c r="Q360" s="14" t="s">
-        <v>1402</v>
+        <v>1413</v>
       </c>
       <c r="R360" s="14" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="S360" s="33"/>
     </row>
-    <row r="361" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:19" ht="54" x14ac:dyDescent="0.15">
       <c r="A361" s="2">
         <f t="shared" si="6"/>
         <v>359</v>
@@ -31784,7 +31774,7 @@
         <v>1149</v>
       </c>
       <c r="N361" s="36" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="O361" s="54" t="s">
         <v>1149</v>
@@ -31796,7 +31786,7 @@
         <v>1402</v>
       </c>
       <c r="R361" s="14" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="S361" s="33"/>
     </row>
@@ -31840,7 +31830,7 @@
         <v>1149</v>
       </c>
       <c r="N362" s="36" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="O362" s="54" t="s">
         <v>1149</v>
@@ -31852,2052 +31842,2189 @@
         <v>1402</v>
       </c>
       <c r="R362" s="14" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="S362" s="33"/>
     </row>
-    <row r="363" spans="1:19" ht="81" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="2">
         <f t="shared" si="6"/>
         <v>361</v>
       </c>
-      <c r="B363" s="30"/>
+      <c r="B363" s="27"/>
       <c r="C363" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="D363" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="E363" s="36" t="s">
         <v>1357</v>
       </c>
-      <c r="D363" s="36" t="s">
+      <c r="F363" s="36" t="s">
         <v>1357</v>
       </c>
-      <c r="E363" s="36" t="s">
-        <v>899</v>
-      </c>
-      <c r="F363" s="36" t="s">
-        <v>899</v>
-      </c>
       <c r="G363" s="36" t="s">
-        <v>899</v>
+        <v>1357</v>
       </c>
       <c r="H363" s="36" t="s">
         <v>899</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="J363" s="2"/>
-      <c r="K363" s="2"/>
-      <c r="L363" s="2"/>
-      <c r="M363" s="2"/>
+        <v>1361</v>
+      </c>
+      <c r="J363" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="K363" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="L363" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="M363" s="2" t="s">
+        <v>1149</v>
+      </c>
       <c r="N363" s="36" t="s">
-        <v>1410</v>
-      </c>
-      <c r="O363" s="2" t="s">
-        <v>1411</v>
+        <v>1405</v>
+      </c>
+      <c r="O363" s="54" t="s">
+        <v>1149</v>
       </c>
       <c r="P363" s="14" t="s">
         <v>1174</v>
       </c>
       <c r="Q363" s="14" t="s">
+        <v>1402</v>
+      </c>
+      <c r="R363" s="14" t="s">
+        <v>1406</v>
+      </c>
+      <c r="S363" s="33"/>
+    </row>
+    <row r="364" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="2">
+        <f t="shared" si="6"/>
+        <v>362</v>
+      </c>
+      <c r="B364" s="27"/>
+      <c r="C364" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="D364" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="E364" s="36" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F364" s="36" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G364" s="36" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H364" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="I364" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="J364" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="K364" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="L364" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="M364" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N364" s="36" t="s">
+        <v>1407</v>
+      </c>
+      <c r="O364" s="54" t="s">
+        <v>1149</v>
+      </c>
+      <c r="P364" s="14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="Q364" s="14" t="s">
+        <v>1402</v>
+      </c>
+      <c r="R364" s="14" t="s">
+        <v>1408</v>
+      </c>
+      <c r="S364" s="33"/>
+    </row>
+    <row r="365" spans="1:19" ht="81" x14ac:dyDescent="0.15">
+      <c r="A365" s="2">
+        <f t="shared" si="6"/>
+        <v>363</v>
+      </c>
+      <c r="B365" s="30"/>
+      <c r="C365" s="36" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D365" s="36" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E365" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="F365" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="G365" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="H365" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="I365" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="J365" s="2"/>
+      <c r="K365" s="2"/>
+      <c r="L365" s="2"/>
+      <c r="M365" s="2"/>
+      <c r="N365" s="36" t="s">
+        <v>1410</v>
+      </c>
+      <c r="O365" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="P365" s="14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="Q365" s="14" t="s">
         <v>1414</v>
       </c>
-      <c r="R363" s="14" t="s">
+      <c r="R365" s="14" t="s">
         <v>1412</v>
       </c>
-      <c r="S363" s="33"/>
+      <c r="S365" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T335" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:T337" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="I190:I194 B190:B194 I243:I247 B243:B247 I122:I139 B122:B139 I249:I258 I84:I87 B249:B258 I141:I143 B141:B143 I260:I263 B260:B263 I332:I335 I308:I313 I267:I296 I16:I30 B4:B10 B16:B30 I4:I10 B32:B73 I32:I73 B147 I147 I89:I102 I105:I120 B105:B120 I185:I186 B185:B186 I172:I178 B172:B178 I157:I170 B157:B170 B152:B154 I150:I154 I180:I183 B180:B183 B84:B102 I196:I216 B196:B216 I76:I81 B76:B82 I219:I235 I238:I241 B219:B235 B238:B241">
-    <cfRule type="cellIs" dxfId="406" priority="563" operator="equal">
+  <conditionalFormatting sqref="I190:I194 B190:B194 I243:I247 B243:B247 I122:I139 B122:B139 I249:I258 I84:I87 B249:B258 I141:I143 B141:B143 I260:I263 B260:B263 I334:I337 I267:I296 I16:I30 B4:B10 B16:B30 I4:I10 B32:B73 I32:I73 B147 I147 I89:I102 I105:I120 B105:B120 I185:I186 B185:B186 I172:I178 B172:B178 I157:I170 B157:B170 B152:B154 I150:I154 I180:I183 B180:B183 B84:B102 I196:I216 B196:B216 I76:I81 B76:B82 I219:I235 I238:I241 B219:B235 B238:B241 I308:I314">
+    <cfRule type="cellIs" dxfId="402" priority="618" operator="equal">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J190:J194 J243:J247 J122:J139 J249:J258 J141:J143 J260:J263 J332:J335 J308:J313 J4:J10 J16:J30 J266:J296 J32:J73 J145:J147 J96:J102 J105:J120 J185:J186 J172:J178 J157:J170 J150:J154 J180:J183 J84:J94 J196:J216 J76:J81 J219:J235 J238:J241">
-    <cfRule type="cellIs" dxfId="405" priority="562" operator="equal">
+  <conditionalFormatting sqref="J190:J194 J243:J247 J122:J139 J249:J258 J141:J143 J260:J263 J334:J337 J4:J10 J16:J30 J266:J296 J32:J73 J145:J147 J96:J102 J105:J120 J185:J186 J172:J178 J157:J170 J150:J154 J180:J183 J84:J94 J196:J216 J76:J81 J219:J235 J238:J241 J308:J314">
+    <cfRule type="cellIs" dxfId="401" priority="617" operator="equal">
       <formula>$J3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J189">
-    <cfRule type="cellIs" dxfId="404" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="620" operator="equal">
       <formula>$J2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L190:L194 L243:L247 L122:L139 L249:L258 L141:L143 L260:L263 L332:L335 L308:L313 L16:L30 L4:L10 L266:L296 L32:L73 L146:L147 L96:L102 L105:L120 L185:L186 L172:L178 L157:L170 L150:L154 L180:L183 L84:L94 L196:L216 L76:L81 L219:L235 L238:L241">
-    <cfRule type="cellIs" dxfId="403" priority="560" operator="equal">
+  <conditionalFormatting sqref="L190:L194 L243:L247 L122:L139 L249:L258 L141:L143 L260:L263 L334:L337 L16:L30 L4:L10 L266:L296 L32:L73 L146:L147 L96:L102 L105:L120 L185:L186 L172:L178 L157:L170 L150:L154 L180:L183 L84:L94 L196:L216 L76:L81 L219:L235 L238:L241 L308:L314">
+    <cfRule type="cellIs" dxfId="399" priority="615" operator="equal">
       <formula>$L3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M190:M194 M243:M247 M122:M139 M249:M258 M141:M143 M260:M263 M332:M335 M308:M313 M4:M10 M16:M30 M266:M296 M32:M73 M146:M147 M96:M102 M105:M120 M185:M186 M172:M178 M157:M170 M150:M154 M180:M183 M84:M94 M196:M216 M76:M81 M219:M235 M238:M241">
-    <cfRule type="cellIs" dxfId="402" priority="559" operator="equal">
+  <conditionalFormatting sqref="M190:M194 M243:M247 M122:M139 M249:M258 M141:M143 M260:M263 M334:M337 M4:M10 M16:M30 M266:M296 M32:M73 M146:M147 M96:M102 M105:M120 M185:M186 M172:M178 M157:M170 M150:M154 M180:M183 M84:M94 M196:M216 M76:M81 M219:M235 M238:M241 M308:M314">
+    <cfRule type="cellIs" dxfId="398" priority="614" operator="equal">
       <formula>$M3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121 B121">
-    <cfRule type="cellIs" dxfId="401" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="626" operator="equal">
       <formula>$I94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J121">
-    <cfRule type="cellIs" dxfId="400" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="629" operator="equal">
       <formula>$J94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121">
-    <cfRule type="cellIs" dxfId="399" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="632" operator="equal">
       <formula>$L94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M121">
-    <cfRule type="cellIs" dxfId="398" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="635" operator="equal">
       <formula>$M94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I140 B140">
-    <cfRule type="cellIs" dxfId="397" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="644" operator="equal">
       <formula>$I120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J95">
-    <cfRule type="cellIs" dxfId="396" priority="592" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="647" operator="equal">
       <formula>$J139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J140">
-    <cfRule type="cellIs" dxfId="395" priority="593" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="648" operator="equal">
       <formula>$J120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L95">
-    <cfRule type="cellIs" dxfId="394" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="651" operator="equal">
       <formula>$L139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L140">
-    <cfRule type="cellIs" dxfId="393" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="652" operator="equal">
       <formula>$L120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M95">
-    <cfRule type="cellIs" dxfId="392" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="655" operator="equal">
       <formula>$M139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M140">
-    <cfRule type="cellIs" dxfId="391" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="656" operator="equal">
       <formula>$M120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="cellIs" dxfId="390" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="608" operator="equal">
       <formula>$I132</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I259 B259">
-    <cfRule type="cellIs" dxfId="389" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="662" operator="equal">
       <formula>$I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J259">
-    <cfRule type="cellIs" dxfId="388" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="668" operator="equal">
       <formula>$J30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L259">
-    <cfRule type="cellIs" dxfId="387" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="672" operator="equal">
       <formula>$L30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M259">
-    <cfRule type="cellIs" dxfId="386" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="675" operator="equal">
       <formula>$M30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L189">
-    <cfRule type="cellIs" dxfId="385" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="689" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M189">
-    <cfRule type="cellIs" dxfId="384" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="693" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="383" priority="645" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="700" operator="equal">
       <formula>$I241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J195">
-    <cfRule type="cellIs" dxfId="382" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="706" operator="equal">
       <formula>$J73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L195">
-    <cfRule type="cellIs" dxfId="381" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="710" operator="equal">
       <formula>$L73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M195">
-    <cfRule type="cellIs" dxfId="380" priority="658" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="713" operator="equal">
       <formula>$M73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3 B3">
-    <cfRule type="cellIs" dxfId="379" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="742" operator="equal">
       <formula>$I194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="378" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="744" operator="equal">
       <formula>$J194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="377" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="745" operator="equal">
       <formula>$L194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="376" priority="691" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="746" operator="equal">
       <formula>$M194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="cellIs" dxfId="375" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="749" operator="equal">
       <formula>$I241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74">
-    <cfRule type="cellIs" dxfId="374" priority="700" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="755" operator="equal">
       <formula>$J241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L74">
-    <cfRule type="cellIs" dxfId="373" priority="704" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="759" operator="equal">
       <formula>$L241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74">
-    <cfRule type="cellIs" dxfId="372" priority="707" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="762" operator="equal">
       <formula>$M241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195 I195">
-    <cfRule type="cellIs" dxfId="371" priority="750" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="805" operator="equal">
       <formula>$I73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I242 B242">
-    <cfRule type="cellIs" dxfId="370" priority="753" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="808" operator="equal">
       <formula>$I81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J242">
-    <cfRule type="cellIs" dxfId="369" priority="759" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="814" operator="equal">
       <formula>$J81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L242">
-    <cfRule type="cellIs" dxfId="368" priority="762" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="817" operator="equal">
       <formula>$L81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M242">
-    <cfRule type="cellIs" dxfId="367" priority="765" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="820" operator="equal">
       <formula>$M81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I155 B155">
-    <cfRule type="cellIs" dxfId="366" priority="770" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="825" operator="equal">
       <formula>$I74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155">
-    <cfRule type="cellIs" dxfId="365" priority="772" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="827" operator="equal">
       <formula>$J74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L155">
-    <cfRule type="cellIs" dxfId="364" priority="773" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="828" operator="equal">
       <formula>$L74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M155">
-    <cfRule type="cellIs" dxfId="363" priority="774" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="829" operator="equal">
       <formula>$M74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I264 B264">
-    <cfRule type="cellIs" dxfId="362" priority="777" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="832" operator="equal">
       <formula>$I247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J264">
-    <cfRule type="cellIs" dxfId="361" priority="783" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="838" operator="equal">
       <formula>$J247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L264">
-    <cfRule type="cellIs" dxfId="360" priority="786" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="841" operator="equal">
       <formula>$L247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M264">
-    <cfRule type="cellIs" dxfId="359" priority="789" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="844" operator="equal">
       <formula>$M247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83 B83">
-    <cfRule type="cellIs" dxfId="358" priority="822" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="877" operator="equal">
       <formula>$I258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83">
-    <cfRule type="cellIs" dxfId="357" priority="832" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="887" operator="equal">
       <formula>$J258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83">
-    <cfRule type="cellIs" dxfId="356" priority="838" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="893" operator="equal">
       <formula>$L258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83">
-    <cfRule type="cellIs" dxfId="355" priority="844" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="899" operator="equal">
       <formula>$M258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I156 B156">
-    <cfRule type="cellIs" dxfId="354" priority="870" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="925" operator="equal">
       <formula>$I143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J156">
-    <cfRule type="cellIs" dxfId="353" priority="872" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="927" operator="equal">
       <formula>$J143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L156">
-    <cfRule type="cellIs" dxfId="352" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="928" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156">
-    <cfRule type="cellIs" dxfId="351" priority="874" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="929" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31 B31">
-    <cfRule type="cellIs" dxfId="350" priority="883" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="938" operator="equal">
       <formula>$I263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="349" priority="885" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="940" operator="equal">
       <formula>$J263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="348" priority="886" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="941" operator="equal">
       <formula>$L263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
-    <cfRule type="cellIs" dxfId="347" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="942" operator="equal">
       <formula>$M263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I248 B248">
-    <cfRule type="cellIs" dxfId="346" priority="890" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="945" operator="equal">
       <formula>$I264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J248">
-    <cfRule type="cellIs" dxfId="345" priority="892" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="947" operator="equal">
       <formula>$J264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L248">
-    <cfRule type="cellIs" dxfId="344" priority="893" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="948" operator="equal">
       <formula>$L264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M248">
-    <cfRule type="cellIs" dxfId="343" priority="894" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="949" operator="equal">
       <formula>$M264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I187:I188 B187:B188">
-    <cfRule type="cellIs" dxfId="342" priority="915" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="970" operator="equal">
       <formula>$I178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I179 B179">
-    <cfRule type="cellIs" dxfId="341" priority="916" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="971" operator="equal">
       <formula>$I187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J187:J188">
-    <cfRule type="cellIs" dxfId="340" priority="921" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="976" operator="equal">
       <formula>$J178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J179">
-    <cfRule type="cellIs" dxfId="339" priority="922" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="977" operator="equal">
       <formula>$J187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L187:L188">
-    <cfRule type="cellIs" dxfId="338" priority="924" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="979" operator="equal">
       <formula>$L178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L179">
-    <cfRule type="cellIs" dxfId="337" priority="925" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="980" operator="equal">
       <formula>$L187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M187:M188">
-    <cfRule type="cellIs" dxfId="336" priority="927" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="982" operator="equal">
       <formula>$M178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M179">
-    <cfRule type="cellIs" dxfId="335" priority="928" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="983" operator="equal">
       <formula>$M187</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K190:K194 K243:K247 K122:K139 K249:K258 K141:K143 K260:K263 K332:K335 K308:K313 K4:K10 K16:K30 K266:K296 K32:K73 K146:K147 K96:K102 K105:K120 K185:K186 K172:K178 K157:K170 K150:K154 K180:K183 K84:K94 K196:K216 K76:K81 K219:K235 K238:K241">
-    <cfRule type="cellIs" dxfId="334" priority="932" operator="equal">
+  <conditionalFormatting sqref="K190:K194 K243:K247 K122:K139 K249:K258 K141:K143 K260:K263 K334:K337 K4:K10 K16:K30 K266:K296 K32:K73 K146:K147 K96:K102 K105:K120 K185:K186 K172:K178 K157:K170 K150:K154 K180:K183 K84:K94 K196:K216 K76:K81 K219:K235 K238:K241 K308:K314">
+    <cfRule type="cellIs" dxfId="330" priority="987" operator="equal">
       <formula>$K3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K121">
-    <cfRule type="cellIs" dxfId="333" priority="947" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="1002" operator="equal">
       <formula>$K94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K95">
-    <cfRule type="cellIs" dxfId="332" priority="948" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="1003" operator="equal">
       <formula>$K139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K140">
-    <cfRule type="cellIs" dxfId="331" priority="949" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="1004" operator="equal">
       <formula>$K120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K259">
-    <cfRule type="cellIs" dxfId="330" priority="950" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="1005" operator="equal">
       <formula>$K30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K189">
-    <cfRule type="cellIs" dxfId="329" priority="951" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="1006" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195">
-    <cfRule type="cellIs" dxfId="328" priority="952" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="1007" operator="equal">
       <formula>$K73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="327" priority="953" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="1008" operator="equal">
       <formula>$K194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74">
-    <cfRule type="cellIs" dxfId="326" priority="954" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="1009" operator="equal">
       <formula>$K241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K242">
-    <cfRule type="cellIs" dxfId="325" priority="955" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="1010" operator="equal">
       <formula>$K81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K155">
-    <cfRule type="cellIs" dxfId="324" priority="956" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="1011" operator="equal">
       <formula>$K74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K264">
-    <cfRule type="cellIs" dxfId="323" priority="957" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="1012" operator="equal">
       <formula>$K247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83">
-    <cfRule type="cellIs" dxfId="322" priority="959" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="1014" operator="equal">
       <formula>$K258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="cellIs" dxfId="321" priority="961" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="1016" operator="equal">
       <formula>$K263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K248">
-    <cfRule type="cellIs" dxfId="320" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="1017" operator="equal">
       <formula>$K264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K187:K188">
-    <cfRule type="cellIs" dxfId="319" priority="964" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="1019" operator="equal">
       <formula>$K178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K179">
-    <cfRule type="cellIs" dxfId="318" priority="965" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="1020" operator="equal">
       <formula>$K187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S73 S4:S10 S147 S105:S143 S185:S188 S156:S170 S152:S154 S172:S183 S84:S103 S190:S216 S76:S82 S219:S235 S238:S264">
-    <cfRule type="cellIs" dxfId="317" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="607" operator="equal">
       <formula>$S3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265">
-    <cfRule type="cellIs" dxfId="316" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="606" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I266">
-    <cfRule type="cellIs" dxfId="315" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="605" operator="equal">
       <formula>$I265</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I314">
-    <cfRule type="cellIs" dxfId="314" priority="543" operator="equal">
-      <formula>$I313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J314">
-    <cfRule type="cellIs" dxfId="313" priority="542" operator="equal">
-      <formula>$J313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L314">
-    <cfRule type="cellIs" dxfId="312" priority="541" operator="equal">
-      <formula>$L313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M314">
-    <cfRule type="cellIs" dxfId="311" priority="540" operator="equal">
-      <formula>$M313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K314">
-    <cfRule type="cellIs" dxfId="310" priority="544" operator="equal">
-      <formula>$K313</formula>
+  <conditionalFormatting sqref="I316">
+    <cfRule type="cellIs" dxfId="310" priority="598" operator="equal">
+      <formula>$I315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J316">
+    <cfRule type="cellIs" dxfId="309" priority="597" operator="equal">
+      <formula>$J315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L316">
+    <cfRule type="cellIs" dxfId="308" priority="596" operator="equal">
+      <formula>$L315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M316">
+    <cfRule type="cellIs" dxfId="307" priority="595" operator="equal">
+      <formula>$M315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K316">
+    <cfRule type="cellIs" dxfId="306" priority="599" operator="equal">
+      <formula>$K315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I333">
+    <cfRule type="cellIs" dxfId="305" priority="1021" operator="equal">
+      <formula>$I315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J333">
+    <cfRule type="cellIs" dxfId="304" priority="1022" operator="equal">
+      <formula>$J315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L333">
+    <cfRule type="cellIs" dxfId="303" priority="1023" operator="equal">
+      <formula>$L315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M333">
+    <cfRule type="cellIs" dxfId="302" priority="1024" operator="equal">
+      <formula>$M315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K333">
+    <cfRule type="cellIs" dxfId="301" priority="1025" operator="equal">
+      <formula>$K315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I317">
+    <cfRule type="cellIs" dxfId="300" priority="593" operator="equal">
+      <formula>$I316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J317">
+    <cfRule type="cellIs" dxfId="299" priority="592" operator="equal">
+      <formula>$J316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L317">
+    <cfRule type="cellIs" dxfId="298" priority="591" operator="equal">
+      <formula>$L316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M317">
+    <cfRule type="cellIs" dxfId="297" priority="590" operator="equal">
+      <formula>$M316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K317">
+    <cfRule type="cellIs" dxfId="296" priority="594" operator="equal">
+      <formula>$K316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I327">
+    <cfRule type="cellIs" dxfId="295" priority="588" operator="equal">
+      <formula>$I317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J327">
+    <cfRule type="cellIs" dxfId="294" priority="587" operator="equal">
+      <formula>$J317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L327">
+    <cfRule type="cellIs" dxfId="293" priority="586" operator="equal">
+      <formula>$L317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M327">
+    <cfRule type="cellIs" dxfId="292" priority="585" operator="equal">
+      <formula>$M317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K327">
+    <cfRule type="cellIs" dxfId="291" priority="589" operator="equal">
+      <formula>$K317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I318 I104 I184 B184 B151 I218 B103:B104 B217:B218 I237 B237">
+    <cfRule type="cellIs" dxfId="290" priority="583" operator="equal">
+      <formula>$I101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J318 J104 J184 J218 J237">
+    <cfRule type="cellIs" dxfId="289" priority="582" operator="equal">
+      <formula>$J102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L318 L104 L184 L218 L237">
+    <cfRule type="cellIs" dxfId="288" priority="581" operator="equal">
+      <formula>$L102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M318 M104 M184 M218 M237">
+    <cfRule type="cellIs" dxfId="287" priority="580" operator="equal">
+      <formula>$M102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K318 K104 K184 K218 K237">
+    <cfRule type="cellIs" dxfId="286" priority="584" operator="equal">
+      <formula>$K102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I324">
+    <cfRule type="cellIs" dxfId="285" priority="578" operator="equal">
+      <formula>$I318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J324">
+    <cfRule type="cellIs" dxfId="284" priority="577" operator="equal">
+      <formula>$J318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L324">
+    <cfRule type="cellIs" dxfId="283" priority="576" operator="equal">
+      <formula>$L318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M324">
+    <cfRule type="cellIs" dxfId="282" priority="575" operator="equal">
+      <formula>$M318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K324">
+    <cfRule type="cellIs" dxfId="281" priority="579" operator="equal">
+      <formula>$K318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I325">
+    <cfRule type="cellIs" dxfId="280" priority="573" operator="equal">
+      <formula>$I324</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J325">
+    <cfRule type="cellIs" dxfId="279" priority="572" operator="equal">
+      <formula>$J324</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L325">
+    <cfRule type="cellIs" dxfId="278" priority="571" operator="equal">
+      <formula>$L324</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M325">
+    <cfRule type="cellIs" dxfId="277" priority="570" operator="equal">
+      <formula>$M324</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K325">
+    <cfRule type="cellIs" dxfId="276" priority="574" operator="equal">
+      <formula>$K324</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I326">
+    <cfRule type="cellIs" dxfId="275" priority="568" operator="equal">
+      <formula>$I324</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J326">
+    <cfRule type="cellIs" dxfId="274" priority="567" operator="equal">
+      <formula>$J324</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L326">
+    <cfRule type="cellIs" dxfId="273" priority="566" operator="equal">
+      <formula>$L324</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M326">
+    <cfRule type="cellIs" dxfId="272" priority="565" operator="equal">
+      <formula>$M324</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K326">
+    <cfRule type="cellIs" dxfId="271" priority="569" operator="equal">
+      <formula>$K324</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I319 B14">
+    <cfRule type="cellIs" dxfId="270" priority="563" operator="equal">
+      <formula>$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J319">
+    <cfRule type="cellIs" dxfId="269" priority="562" operator="equal">
+      <formula>$J315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L319">
+    <cfRule type="cellIs" dxfId="268" priority="561" operator="equal">
+      <formula>$L315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M319">
+    <cfRule type="cellIs" dxfId="267" priority="560" operator="equal">
+      <formula>$M315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K319">
+    <cfRule type="cellIs" dxfId="266" priority="564" operator="equal">
+      <formula>$K315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I320">
+    <cfRule type="cellIs" dxfId="265" priority="558" operator="equal">
+      <formula>$I319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J320">
+    <cfRule type="cellIs" dxfId="264" priority="557" operator="equal">
+      <formula>$J319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L320">
+    <cfRule type="cellIs" dxfId="263" priority="556" operator="equal">
+      <formula>$L319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M320">
+    <cfRule type="cellIs" dxfId="262" priority="555" operator="equal">
+      <formula>$M319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K320">
+    <cfRule type="cellIs" dxfId="261" priority="559" operator="equal">
+      <formula>$K319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I321">
+    <cfRule type="cellIs" dxfId="260" priority="553" operator="equal">
+      <formula>$I319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J321">
+    <cfRule type="cellIs" dxfId="259" priority="552" operator="equal">
+      <formula>$J319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L321">
+    <cfRule type="cellIs" dxfId="258" priority="551" operator="equal">
+      <formula>$L319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M321">
+    <cfRule type="cellIs" dxfId="257" priority="550" operator="equal">
+      <formula>$M319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K321">
+    <cfRule type="cellIs" dxfId="256" priority="554" operator="equal">
+      <formula>$K319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I322">
+    <cfRule type="cellIs" dxfId="255" priority="548" operator="equal">
+      <formula>$I321</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J322">
+    <cfRule type="cellIs" dxfId="254" priority="547" operator="equal">
+      <formula>$J321</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L322">
+    <cfRule type="cellIs" dxfId="253" priority="546" operator="equal">
+      <formula>$L321</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M322">
+    <cfRule type="cellIs" dxfId="252" priority="545" operator="equal">
+      <formula>$M321</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K322">
+    <cfRule type="cellIs" dxfId="251" priority="549" operator="equal">
+      <formula>$K321</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I323">
+    <cfRule type="cellIs" dxfId="250" priority="543" operator="equal">
+      <formula>$I321</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J323">
+    <cfRule type="cellIs" dxfId="249" priority="542" operator="equal">
+      <formula>$J321</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L323">
+    <cfRule type="cellIs" dxfId="248" priority="541" operator="equal">
+      <formula>$L321</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M323">
+    <cfRule type="cellIs" dxfId="247" priority="540" operator="equal">
+      <formula>$M321</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K323">
+    <cfRule type="cellIs" dxfId="246" priority="544" operator="equal">
+      <formula>$K321</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I328">
+    <cfRule type="cellIs" dxfId="245" priority="538" operator="equal">
+      <formula>$I318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J328">
+    <cfRule type="cellIs" dxfId="244" priority="537" operator="equal">
+      <formula>$J318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L328">
+    <cfRule type="cellIs" dxfId="243" priority="536" operator="equal">
+      <formula>$L318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M328">
+    <cfRule type="cellIs" dxfId="242" priority="535" operator="equal">
+      <formula>$M318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K328">
+    <cfRule type="cellIs" dxfId="241" priority="539" operator="equal">
+      <formula>$K318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I331">
-    <cfRule type="cellIs" dxfId="309" priority="966" operator="equal">
-      <formula>$I313</formula>
+    <cfRule type="cellIs" dxfId="240" priority="533" operator="equal">
+      <formula>$I319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J331">
-    <cfRule type="cellIs" dxfId="308" priority="967" operator="equal">
-      <formula>$J313</formula>
+    <cfRule type="cellIs" dxfId="239" priority="532" operator="equal">
+      <formula>$J319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L331">
-    <cfRule type="cellIs" dxfId="307" priority="968" operator="equal">
-      <formula>$L313</formula>
+    <cfRule type="cellIs" dxfId="238" priority="531" operator="equal">
+      <formula>$L319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M331">
-    <cfRule type="cellIs" dxfId="306" priority="969" operator="equal">
-      <formula>$M313</formula>
+    <cfRule type="cellIs" dxfId="237" priority="530" operator="equal">
+      <formula>$M319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K331">
-    <cfRule type="cellIs" dxfId="305" priority="970" operator="equal">
-      <formula>$K313</formula>
+    <cfRule type="cellIs" dxfId="236" priority="534" operator="equal">
+      <formula>$K319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I332">
+    <cfRule type="cellIs" dxfId="235" priority="528" operator="equal">
+      <formula>$I320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J332">
+    <cfRule type="cellIs" dxfId="234" priority="527" operator="equal">
+      <formula>$J320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L332">
+    <cfRule type="cellIs" dxfId="233" priority="526" operator="equal">
+      <formula>$L320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M332">
+    <cfRule type="cellIs" dxfId="232" priority="525" operator="equal">
+      <formula>$M320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K332">
+    <cfRule type="cellIs" dxfId="231" priority="529" operator="equal">
+      <formula>$K320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I329">
+    <cfRule type="cellIs" dxfId="230" priority="523" operator="equal">
+      <formula>$I317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J329">
+    <cfRule type="cellIs" dxfId="229" priority="522" operator="equal">
+      <formula>$J317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L329">
+    <cfRule type="cellIs" dxfId="228" priority="521" operator="equal">
+      <formula>$L317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M329">
+    <cfRule type="cellIs" dxfId="227" priority="520" operator="equal">
+      <formula>$M317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K329">
+    <cfRule type="cellIs" dxfId="226" priority="524" operator="equal">
+      <formula>$K317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I330">
+    <cfRule type="cellIs" dxfId="225" priority="518" operator="equal">
+      <formula>$I318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J330">
+    <cfRule type="cellIs" dxfId="224" priority="517" operator="equal">
+      <formula>$J318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L330">
+    <cfRule type="cellIs" dxfId="223" priority="516" operator="equal">
+      <formula>$L318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M330">
+    <cfRule type="cellIs" dxfId="222" priority="515" operator="equal">
+      <formula>$M318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K330">
+    <cfRule type="cellIs" dxfId="221" priority="519" operator="equal">
+      <formula>$K318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I306:I307">
+    <cfRule type="cellIs" dxfId="220" priority="510" operator="equal">
+      <formula>$I295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J306:J307">
+    <cfRule type="cellIs" dxfId="219" priority="511" operator="equal">
+      <formula>$J295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L306:L307">
+    <cfRule type="cellIs" dxfId="218" priority="512" operator="equal">
+      <formula>$L295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M306:M307">
+    <cfRule type="cellIs" dxfId="217" priority="513" operator="equal">
+      <formula>$M295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K306:K307">
+    <cfRule type="cellIs" dxfId="216" priority="514" operator="equal">
+      <formula>$K295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I305">
+    <cfRule type="cellIs" dxfId="215" priority="508" operator="equal">
+      <formula>$I294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J305">
+    <cfRule type="cellIs" dxfId="214" priority="507" operator="equal">
+      <formula>$J294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L305">
+    <cfRule type="cellIs" dxfId="213" priority="506" operator="equal">
+      <formula>$L294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M305">
+    <cfRule type="cellIs" dxfId="212" priority="505" operator="equal">
+      <formula>$M294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K305">
+    <cfRule type="cellIs" dxfId="211" priority="509" operator="equal">
+      <formula>$K294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I304">
+    <cfRule type="cellIs" dxfId="210" priority="500" operator="equal">
+      <formula>$I293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J304">
+    <cfRule type="cellIs" dxfId="209" priority="501" operator="equal">
+      <formula>$J293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L304">
+    <cfRule type="cellIs" dxfId="208" priority="502" operator="equal">
+      <formula>$L293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M304">
+    <cfRule type="cellIs" dxfId="207" priority="503" operator="equal">
+      <formula>$M293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K304">
+    <cfRule type="cellIs" dxfId="206" priority="504" operator="equal">
+      <formula>$K293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I298">
+    <cfRule type="cellIs" dxfId="205" priority="498" operator="equal">
+      <formula>$I292</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J298">
+    <cfRule type="cellIs" dxfId="204" priority="497" operator="equal">
+      <formula>$J292</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L298">
+    <cfRule type="cellIs" dxfId="203" priority="496" operator="equal">
+      <formula>$L292</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M298">
+    <cfRule type="cellIs" dxfId="202" priority="495" operator="equal">
+      <formula>$M292</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K298">
+    <cfRule type="cellIs" dxfId="201" priority="499" operator="equal">
+      <formula>$K292</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K299">
+    <cfRule type="cellIs" dxfId="200" priority="489" operator="equal">
+      <formula>$K293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I299">
+    <cfRule type="cellIs" dxfId="199" priority="488" operator="equal">
+      <formula>$I293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J299">
+    <cfRule type="cellIs" dxfId="198" priority="487" operator="equal">
+      <formula>$J293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L299">
+    <cfRule type="cellIs" dxfId="197" priority="486" operator="equal">
+      <formula>$L293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M299">
+    <cfRule type="cellIs" dxfId="196" priority="485" operator="equal">
+      <formula>$M293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I300">
+    <cfRule type="cellIs" dxfId="195" priority="483" operator="equal">
+      <formula>$I294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J300">
+    <cfRule type="cellIs" dxfId="194" priority="482" operator="equal">
+      <formula>$J294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L300">
+    <cfRule type="cellIs" dxfId="193" priority="481" operator="equal">
+      <formula>$L294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M300">
+    <cfRule type="cellIs" dxfId="192" priority="480" operator="equal">
+      <formula>$M294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K300">
+    <cfRule type="cellIs" dxfId="191" priority="484" operator="equal">
+      <formula>$K294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I301">
+    <cfRule type="cellIs" dxfId="190" priority="478" operator="equal">
+      <formula>$I295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J301">
+    <cfRule type="cellIs" dxfId="189" priority="477" operator="equal">
+      <formula>$J295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L301">
+    <cfRule type="cellIs" dxfId="188" priority="476" operator="equal">
+      <formula>$L295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M301">
+    <cfRule type="cellIs" dxfId="187" priority="475" operator="equal">
+      <formula>$M295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K301">
+    <cfRule type="cellIs" dxfId="186" priority="479" operator="equal">
+      <formula>$K295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I303">
+    <cfRule type="cellIs" dxfId="185" priority="473" operator="equal">
+      <formula>$I296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J303">
+    <cfRule type="cellIs" dxfId="184" priority="472" operator="equal">
+      <formula>$J296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L303">
+    <cfRule type="cellIs" dxfId="183" priority="471" operator="equal">
+      <formula>$L296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M303">
+    <cfRule type="cellIs" dxfId="182" priority="470" operator="equal">
+      <formula>$M296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K303">
+    <cfRule type="cellIs" dxfId="181" priority="474" operator="equal">
+      <formula>$K296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I302">
+    <cfRule type="cellIs" dxfId="180" priority="468" operator="equal">
+      <formula>$I295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J302">
+    <cfRule type="cellIs" dxfId="179" priority="467" operator="equal">
+      <formula>$J295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L302">
+    <cfRule type="cellIs" dxfId="178" priority="466" operator="equal">
+      <formula>$L295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M302">
+    <cfRule type="cellIs" dxfId="177" priority="465" operator="equal">
+      <formula>$M295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K302">
+    <cfRule type="cellIs" dxfId="176" priority="469" operator="equal">
+      <formula>$K295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K297">
+    <cfRule type="cellIs" dxfId="175" priority="464" operator="equal">
+      <formula>$K296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L297">
+    <cfRule type="cellIs" dxfId="174" priority="463" operator="equal">
+      <formula>$L296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M297">
+    <cfRule type="cellIs" dxfId="173" priority="462" operator="equal">
+      <formula>$M296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J297">
+    <cfRule type="cellIs" dxfId="172" priority="461" operator="equal">
+      <formula>$J296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I297">
+    <cfRule type="cellIs" dxfId="171" priority="460" operator="equal">
+      <formula>$I296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S15 S171">
+    <cfRule type="cellIs" dxfId="170" priority="1047" operator="equal">
+      <formula>$S10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 I15 I171 B171">
+    <cfRule type="cellIs" dxfId="169" priority="1050" operator="equal">
+      <formula>$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15 J171">
+    <cfRule type="cellIs" dxfId="168" priority="1052" operator="equal">
+      <formula>$J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15 L171">
+    <cfRule type="cellIs" dxfId="167" priority="1053" operator="equal">
+      <formula>$L10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15 M171">
+    <cfRule type="cellIs" dxfId="166" priority="1054" operator="equal">
+      <formula>$M10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15 K171">
+    <cfRule type="cellIs" dxfId="165" priority="1055" operator="equal">
+      <formula>$K10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="164" priority="452" operator="equal">
+      <formula>$K9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="cellIs" dxfId="163" priority="427" operator="equal">
+      <formula>$M10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="cellIs" dxfId="162" priority="423" operator="equal">
+      <formula>$M11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="cellIs" dxfId="161" priority="422" operator="equal">
+      <formula>$M12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="cellIs" dxfId="160" priority="421" operator="equal">
+      <formula>$M13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S11">
+    <cfRule type="cellIs" dxfId="159" priority="420" operator="equal">
+      <formula>$S10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12">
+    <cfRule type="cellIs" dxfId="158" priority="419" operator="equal">
+      <formula>$S11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S13">
+    <cfRule type="cellIs" dxfId="157" priority="418" operator="equal">
+      <formula>$S12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14">
+    <cfRule type="cellIs" dxfId="156" priority="417" operator="equal">
+      <formula>$S13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="155" priority="416" operator="equal">
+      <formula>$K11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="cellIs" dxfId="154" priority="415" operator="equal">
+      <formula>$K12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="cellIs" dxfId="153" priority="414" operator="equal">
+      <formula>$K13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="cellIs" dxfId="152" priority="413" operator="equal">
+      <formula>$L10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="cellIs" dxfId="151" priority="412" operator="equal">
+      <formula>$L11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="cellIs" dxfId="150" priority="411" operator="equal">
+      <formula>$L12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="cellIs" dxfId="149" priority="410" operator="equal">
+      <formula>$L13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="148" priority="409" operator="equal">
+      <formula>$J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="147" priority="408" operator="equal">
+      <formula>$J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="146" priority="407" operator="equal">
+      <formula>$J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="145" priority="406" operator="equal">
+      <formula>$J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="144" priority="403" operator="equal">
+      <formula>$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="143" priority="402" operator="equal">
+      <formula>$I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="142" priority="401" operator="equal">
+      <formula>$I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="cellIs" dxfId="141" priority="400" operator="equal">
+      <formula>$I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="cellIs" dxfId="140" priority="399" operator="equal">
+      <formula>$I6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="139" priority="398" operator="equal">
+      <formula>$I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="cellIs" dxfId="138" priority="397" operator="equal">
+      <formula>$I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J265">
+    <cfRule type="cellIs" dxfId="137" priority="1060" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L265">
+    <cfRule type="cellIs" dxfId="136" priority="1063" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M265">
+    <cfRule type="cellIs" dxfId="135" priority="1065" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K265">
+    <cfRule type="cellIs" dxfId="134" priority="1067" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K156">
+    <cfRule type="cellIs" dxfId="133" priority="1077" operator="equal">
+      <formula>$K143</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S189">
+    <cfRule type="cellIs" dxfId="132" priority="1079" operator="equal">
+      <formula>$S143</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S104 S184 S151 S218 S237">
+    <cfRule type="cellIs" dxfId="131" priority="1091" operator="equal">
+      <formula>$S102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B146">
+    <cfRule type="cellIs" dxfId="130" priority="350" operator="equal">
+      <formula>$I144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I144">
+    <cfRule type="cellIs" dxfId="129" priority="348" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J144">
+    <cfRule type="cellIs" dxfId="128" priority="347" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K144">
+    <cfRule type="cellIs" dxfId="127" priority="349" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S144">
+    <cfRule type="cellIs" dxfId="126" priority="357" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S146">
+    <cfRule type="cellIs" dxfId="125" priority="358" operator="equal">
+      <formula>$S144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S145">
+    <cfRule type="cellIs" dxfId="124" priority="345" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L144:L147">
+    <cfRule type="cellIs" dxfId="123" priority="343" operator="equal">
+      <formula>$L143</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M144:M147">
+    <cfRule type="cellIs" dxfId="122" priority="342" operator="equal">
+      <formula>$M143</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K144:K147">
+    <cfRule type="cellIs" dxfId="121" priority="344" operator="equal">
+      <formula>$K143</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J146">
+    <cfRule type="cellIs" dxfId="120" priority="333" operator="equal">
+      <formula>$J145</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I145:I146">
+    <cfRule type="cellIs" dxfId="119" priority="341" operator="equal">
+      <formula>$I144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J145:J146">
+    <cfRule type="cellIs" dxfId="118" priority="340" operator="equal">
+      <formula>$J144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L144:L147">
+    <cfRule type="cellIs" dxfId="117" priority="339" operator="equal">
+      <formula>$L143</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M144:M147">
+    <cfRule type="cellIs" dxfId="116" priority="338" operator="equal">
+      <formula>$M143</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L144:L145">
+    <cfRule type="cellIs" dxfId="115" priority="337" operator="equal">
+      <formula>$L143</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M144:M145">
+    <cfRule type="cellIs" dxfId="114" priority="336" operator="equal">
+      <formula>$M143</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L144:L145">
+    <cfRule type="cellIs" dxfId="113" priority="335" operator="equal">
+      <formula>$L143</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M144:M145">
+    <cfRule type="cellIs" dxfId="112" priority="334" operator="equal">
+      <formula>$M143</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J144">
+    <cfRule type="cellIs" dxfId="111" priority="332" operator="equal">
+      <formula>$J143</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J144">
+    <cfRule type="cellIs" dxfId="110" priority="331" operator="equal">
+      <formula>$J143</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S155">
+    <cfRule type="cellIs" dxfId="109" priority="1095" operator="equal">
+      <formula>$S264</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B145">
+    <cfRule type="cellIs" dxfId="108" priority="1102" operator="equal">
+      <formula>$I3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I149">
+    <cfRule type="cellIs" dxfId="107" priority="261" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J149">
+    <cfRule type="cellIs" dxfId="106" priority="260" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K149">
+    <cfRule type="cellIs" dxfId="105" priority="262" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B149:B150">
+    <cfRule type="cellIs" dxfId="104" priority="259" operator="equal">
+      <formula>$I62</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S149">
+    <cfRule type="cellIs" dxfId="103" priority="270" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S150">
+    <cfRule type="cellIs" dxfId="102" priority="258" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J149">
+    <cfRule type="cellIs" dxfId="101" priority="254" operator="equal">
+      <formula>$J258</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J149">
+    <cfRule type="cellIs" dxfId="100" priority="253" operator="equal">
+      <formula>$J258</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L149">
+    <cfRule type="cellIs" dxfId="99" priority="272" operator="equal">
+      <formula>$L258</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M149">
+    <cfRule type="cellIs" dxfId="98" priority="273" operator="equal">
+      <formula>$M258</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K149">
+    <cfRule type="cellIs" dxfId="97" priority="274" operator="equal">
+      <formula>$K258</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S74">
+    <cfRule type="cellIs" dxfId="96" priority="1108" operator="equal">
+      <formula>$S73</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S83">
+    <cfRule type="cellIs" dxfId="95" priority="1130" operator="equal">
+      <formula>$S81</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I82">
+    <cfRule type="cellIs" dxfId="94" priority="192" operator="equal">
+      <formula>$I81</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J82">
+    <cfRule type="cellIs" dxfId="93" priority="191" operator="equal">
+      <formula>$J81</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L82">
+    <cfRule type="cellIs" dxfId="92" priority="190" operator="equal">
+      <formula>$L81</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M82">
+    <cfRule type="cellIs" dxfId="91" priority="189" operator="equal">
+      <formula>$M81</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K82">
+    <cfRule type="cellIs" dxfId="90" priority="193" operator="equal">
+      <formula>$K81</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="cellIs" dxfId="89" priority="1131" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B144">
+    <cfRule type="cellIs" dxfId="88" priority="1133" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2 B2">
+    <cfRule type="cellIs" dxfId="87" priority="166" operator="equal">
+      <formula>$I276</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="cellIs" dxfId="86" priority="1144" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S148">
+    <cfRule type="cellIs" dxfId="85" priority="1162" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103">
+    <cfRule type="cellIs" dxfId="84" priority="164" operator="equal">
+      <formula>$I101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J103">
+    <cfRule type="cellIs" dxfId="83" priority="163" operator="equal">
+      <formula>$J101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L103">
+    <cfRule type="cellIs" dxfId="82" priority="162" operator="equal">
+      <formula>$L101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M103">
+    <cfRule type="cellIs" dxfId="81" priority="161" operator="equal">
+      <formula>$M101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K103">
+    <cfRule type="cellIs" dxfId="80" priority="165" operator="equal">
+      <formula>$K101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L148">
+    <cfRule type="cellIs" dxfId="79" priority="149" operator="equal">
+      <formula>$L147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L148">
+    <cfRule type="cellIs" dxfId="78" priority="148" operator="equal">
+      <formula>$L147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L148">
+    <cfRule type="cellIs" dxfId="77" priority="147" operator="equal">
+      <formula>$L147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K148">
+    <cfRule type="cellIs" dxfId="76" priority="144" operator="equal">
+      <formula>$K147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K148">
+    <cfRule type="cellIs" dxfId="75" priority="143" operator="equal">
+      <formula>$K147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J148">
+    <cfRule type="cellIs" dxfId="74" priority="141" operator="equal">
+      <formula>$J147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I148">
+    <cfRule type="cellIs" dxfId="73" priority="140" operator="equal">
+      <formula>$I147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I217">
+    <cfRule type="cellIs" dxfId="72" priority="135" operator="equal">
+      <formula>$I215</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J217">
+    <cfRule type="cellIs" dxfId="71" priority="134" operator="equal">
+      <formula>$J215</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L217">
+    <cfRule type="cellIs" dxfId="70" priority="133" operator="equal">
+      <formula>$L215</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M217">
+    <cfRule type="cellIs" dxfId="69" priority="132" operator="equal">
+      <formula>$M215</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K217">
+    <cfRule type="cellIs" dxfId="68" priority="136" operator="equal">
+      <formula>$K215</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S217">
+    <cfRule type="cellIs" dxfId="67" priority="137" operator="equal">
+      <formula>$S215</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="cellIs" dxfId="66" priority="131" operator="equal">
+      <formula>$I156</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75">
+    <cfRule type="cellIs" dxfId="65" priority="1222" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75">
+    <cfRule type="cellIs" dxfId="64" priority="1224" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L75">
+    <cfRule type="cellIs" dxfId="63" priority="1226" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M75">
+    <cfRule type="cellIs" dxfId="62" priority="1228" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K75">
+    <cfRule type="cellIs" dxfId="61" priority="1235" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S75">
+    <cfRule type="cellIs" dxfId="60" priority="1237" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M146">
+    <cfRule type="cellIs" dxfId="59" priority="130" operator="equal">
+      <formula>$M145</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M146">
+    <cfRule type="cellIs" dxfId="58" priority="129" operator="equal">
+      <formula>$M145</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M147">
+    <cfRule type="cellIs" dxfId="57" priority="128" operator="equal">
+      <formula>$M146</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M147">
+    <cfRule type="cellIs" dxfId="56" priority="127" operator="equal">
+      <formula>$M146</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M148">
+    <cfRule type="cellIs" dxfId="55" priority="126" operator="equal">
+      <formula>$M147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M148">
+    <cfRule type="cellIs" dxfId="54" priority="125" operator="equal">
+      <formula>$M147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M148">
+    <cfRule type="cellIs" dxfId="53" priority="124" operator="equal">
+      <formula>$M147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M148">
+    <cfRule type="cellIs" dxfId="52" priority="123" operator="equal">
+      <formula>$M147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I236 B236">
+    <cfRule type="cellIs" dxfId="51" priority="117" operator="equal">
+      <formula>$I235</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J236">
+    <cfRule type="cellIs" dxfId="50" priority="116" operator="equal">
+      <formula>$J235</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L236">
+    <cfRule type="cellIs" dxfId="49" priority="115" operator="equal">
+      <formula>$L235</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M236">
+    <cfRule type="cellIs" dxfId="48" priority="114" operator="equal">
+      <formula>$M235</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K236">
+    <cfRule type="cellIs" dxfId="47" priority="118" operator="equal">
+      <formula>$K235</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S236">
+    <cfRule type="cellIs" dxfId="46" priority="113" operator="equal">
+      <formula>$S235</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M341:M360">
+    <cfRule type="cellIs" dxfId="45" priority="78" operator="equal">
+      <formula>$M340</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I338">
+    <cfRule type="cellIs" dxfId="44" priority="101" operator="equal">
+      <formula>$I337</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J338">
+    <cfRule type="cellIs" dxfId="43" priority="100" operator="equal">
+      <formula>$J337</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L338">
+    <cfRule type="cellIs" dxfId="42" priority="99" operator="equal">
+      <formula>$L337</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M338">
+    <cfRule type="cellIs" dxfId="41" priority="98" operator="equal">
+      <formula>$M337</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K338">
+    <cfRule type="cellIs" dxfId="40" priority="102" operator="equal">
+      <formula>$K337</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L339">
+    <cfRule type="cellIs" dxfId="39" priority="92" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M339">
+    <cfRule type="cellIs" dxfId="38" priority="91" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L341:L360">
+    <cfRule type="cellIs" dxfId="37" priority="79" operator="equal">
+      <formula>$L340</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K341:K360">
+    <cfRule type="cellIs" dxfId="36" priority="81" operator="equal">
+      <formula>$K340</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I339">
+    <cfRule type="cellIs" dxfId="35" priority="94" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K339">
+    <cfRule type="cellIs" dxfId="34" priority="93" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I340">
+    <cfRule type="cellIs" dxfId="33" priority="89" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J340">
+    <cfRule type="cellIs" dxfId="32" priority="88" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L340">
+    <cfRule type="cellIs" dxfId="31" priority="87" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M340">
+    <cfRule type="cellIs" dxfId="30" priority="86" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K340">
+    <cfRule type="cellIs" dxfId="29" priority="90" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J341:J360">
+    <cfRule type="cellIs" dxfId="28" priority="80" operator="equal">
+      <formula>$J340</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M361">
+    <cfRule type="cellIs" dxfId="27" priority="74" operator="equal">
+      <formula>$M360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L361">
+    <cfRule type="cellIs" dxfId="26" priority="75" operator="equal">
+      <formula>$L360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K361">
+    <cfRule type="cellIs" dxfId="25" priority="77" operator="equal">
+      <formula>$K360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J361">
+    <cfRule type="cellIs" dxfId="24" priority="76" operator="equal">
+      <formula>$J360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I365">
+    <cfRule type="cellIs" dxfId="23" priority="108" operator="equal">
+      <formula>$I360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J365">
+    <cfRule type="cellIs" dxfId="22" priority="109" operator="equal">
+      <formula>$J360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L365">
+    <cfRule type="cellIs" dxfId="21" priority="110" operator="equal">
+      <formula>$L360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M365">
+    <cfRule type="cellIs" dxfId="20" priority="111" operator="equal">
+      <formula>$M360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K365">
+    <cfRule type="cellIs" dxfId="19" priority="112" operator="equal">
+      <formula>$K360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M362">
+    <cfRule type="cellIs" dxfId="18" priority="70" operator="equal">
+      <formula>$M361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L362">
+    <cfRule type="cellIs" dxfId="17" priority="71" operator="equal">
+      <formula>$L361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K362">
+    <cfRule type="cellIs" dxfId="16" priority="73" operator="equal">
+      <formula>$K361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J362">
+    <cfRule type="cellIs" dxfId="15" priority="72" operator="equal">
+      <formula>$J361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M364">
+    <cfRule type="cellIs" dxfId="14" priority="66" operator="equal">
+      <formula>$M362</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L364">
+    <cfRule type="cellIs" dxfId="13" priority="67" operator="equal">
+      <formula>$L362</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K364">
+    <cfRule type="cellIs" dxfId="12" priority="69" operator="equal">
+      <formula>$K362</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J364">
+    <cfRule type="cellIs" dxfId="11" priority="68" operator="equal">
+      <formula>$J362</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M363">
+    <cfRule type="cellIs" dxfId="10" priority="62" operator="equal">
+      <formula>$M361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L363">
+    <cfRule type="cellIs" dxfId="9" priority="63" operator="equal">
+      <formula>$L361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K363">
+    <cfRule type="cellIs" dxfId="8" priority="65" operator="equal">
+      <formula>$K361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J363">
+    <cfRule type="cellIs" dxfId="7" priority="64" operator="equal">
+      <formula>$J361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I341:I364">
+    <cfRule type="cellIs" dxfId="6" priority="61" operator="equal">
+      <formula>$I340</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J339">
+    <cfRule type="cellIs" dxfId="5" priority="1238" operator="equal">
+      <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I315">
-    <cfRule type="cellIs" dxfId="304" priority="538" operator="equal">
-      <formula>$I314</formula>
+    <cfRule type="cellIs" dxfId="4" priority="1240" operator="equal">
+      <formula>$I312</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J315">
-    <cfRule type="cellIs" dxfId="303" priority="537" operator="equal">
-      <formula>$J314</formula>
+    <cfRule type="cellIs" dxfId="3" priority="1242" operator="equal">
+      <formula>$J312</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L315">
-    <cfRule type="cellIs" dxfId="302" priority="536" operator="equal">
-      <formula>$L314</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1244" operator="equal">
+      <formula>$L312</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M315">
-    <cfRule type="cellIs" dxfId="301" priority="535" operator="equal">
-      <formula>$M314</formula>
+    <cfRule type="cellIs" dxfId="1" priority="1246" operator="equal">
+      <formula>$M312</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K315">
-    <cfRule type="cellIs" dxfId="300" priority="539" operator="equal">
-      <formula>$K314</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I325">
-    <cfRule type="cellIs" dxfId="299" priority="533" operator="equal">
-      <formula>$I315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J325">
-    <cfRule type="cellIs" dxfId="298" priority="532" operator="equal">
-      <formula>$J315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L325">
-    <cfRule type="cellIs" dxfId="297" priority="531" operator="equal">
-      <formula>$L315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M325">
-    <cfRule type="cellIs" dxfId="296" priority="530" operator="equal">
-      <formula>$M315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K325">
-    <cfRule type="cellIs" dxfId="295" priority="534" operator="equal">
-      <formula>$K315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I316 I104 I184 B184 B151 I218 B103:B104 B217:B218 I237 B237">
-    <cfRule type="cellIs" dxfId="294" priority="528" operator="equal">
-      <formula>$I101</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J316 J104 J184 J218 J237">
-    <cfRule type="cellIs" dxfId="293" priority="527" operator="equal">
-      <formula>$J102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L316 L104 L184 L218 L237">
-    <cfRule type="cellIs" dxfId="292" priority="526" operator="equal">
-      <formula>$L102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M316 M104 M184 M218 M237">
-    <cfRule type="cellIs" dxfId="291" priority="525" operator="equal">
-      <formula>$M102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K316 K104 K184 K218 K237">
-    <cfRule type="cellIs" dxfId="290" priority="529" operator="equal">
-      <formula>$K102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I322">
-    <cfRule type="cellIs" dxfId="289" priority="523" operator="equal">
-      <formula>$I316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J322">
-    <cfRule type="cellIs" dxfId="288" priority="522" operator="equal">
-      <formula>$J316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L322">
-    <cfRule type="cellIs" dxfId="287" priority="521" operator="equal">
-      <formula>$L316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M322">
-    <cfRule type="cellIs" dxfId="286" priority="520" operator="equal">
-      <formula>$M316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K322">
-    <cfRule type="cellIs" dxfId="285" priority="524" operator="equal">
-      <formula>$K316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I323">
-    <cfRule type="cellIs" dxfId="284" priority="518" operator="equal">
-      <formula>$I322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J323">
-    <cfRule type="cellIs" dxfId="283" priority="517" operator="equal">
-      <formula>$J322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L323">
-    <cfRule type="cellIs" dxfId="282" priority="516" operator="equal">
-      <formula>$L322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M323">
-    <cfRule type="cellIs" dxfId="281" priority="515" operator="equal">
-      <formula>$M322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K323">
-    <cfRule type="cellIs" dxfId="280" priority="519" operator="equal">
-      <formula>$K322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I324">
-    <cfRule type="cellIs" dxfId="279" priority="513" operator="equal">
-      <formula>$I322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J324">
-    <cfRule type="cellIs" dxfId="278" priority="512" operator="equal">
-      <formula>$J322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L324">
-    <cfRule type="cellIs" dxfId="277" priority="511" operator="equal">
-      <formula>$L322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M324">
-    <cfRule type="cellIs" dxfId="276" priority="510" operator="equal">
-      <formula>$M322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K324">
-    <cfRule type="cellIs" dxfId="275" priority="514" operator="equal">
-      <formula>$K322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I317 B14">
-    <cfRule type="cellIs" dxfId="274" priority="508" operator="equal">
-      <formula>$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J317">
-    <cfRule type="cellIs" dxfId="273" priority="507" operator="equal">
-      <formula>$J313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L317">
-    <cfRule type="cellIs" dxfId="272" priority="506" operator="equal">
-      <formula>$L313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M317">
-    <cfRule type="cellIs" dxfId="271" priority="505" operator="equal">
-      <formula>$M313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K317">
-    <cfRule type="cellIs" dxfId="270" priority="509" operator="equal">
-      <formula>$K313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I318">
-    <cfRule type="cellIs" dxfId="269" priority="503" operator="equal">
-      <formula>$I317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J318">
-    <cfRule type="cellIs" dxfId="268" priority="502" operator="equal">
-      <formula>$J317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L318">
-    <cfRule type="cellIs" dxfId="267" priority="501" operator="equal">
-      <formula>$L317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M318">
-    <cfRule type="cellIs" dxfId="266" priority="500" operator="equal">
-      <formula>$M317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K318">
-    <cfRule type="cellIs" dxfId="265" priority="504" operator="equal">
-      <formula>$K317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I319">
-    <cfRule type="cellIs" dxfId="264" priority="498" operator="equal">
-      <formula>$I317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J319">
-    <cfRule type="cellIs" dxfId="263" priority="497" operator="equal">
-      <formula>$J317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L319">
-    <cfRule type="cellIs" dxfId="262" priority="496" operator="equal">
-      <formula>$L317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M319">
-    <cfRule type="cellIs" dxfId="261" priority="495" operator="equal">
-      <formula>$M317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K319">
-    <cfRule type="cellIs" dxfId="260" priority="499" operator="equal">
-      <formula>$K317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I320">
-    <cfRule type="cellIs" dxfId="259" priority="493" operator="equal">
-      <formula>$I319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J320">
-    <cfRule type="cellIs" dxfId="258" priority="492" operator="equal">
-      <formula>$J319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L320">
-    <cfRule type="cellIs" dxfId="257" priority="491" operator="equal">
-      <formula>$L319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M320">
-    <cfRule type="cellIs" dxfId="256" priority="490" operator="equal">
-      <formula>$M319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K320">
-    <cfRule type="cellIs" dxfId="255" priority="494" operator="equal">
-      <formula>$K319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I321">
-    <cfRule type="cellIs" dxfId="254" priority="488" operator="equal">
-      <formula>$I319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J321">
-    <cfRule type="cellIs" dxfId="253" priority="487" operator="equal">
-      <formula>$J319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L321">
-    <cfRule type="cellIs" dxfId="252" priority="486" operator="equal">
-      <formula>$L319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M321">
-    <cfRule type="cellIs" dxfId="251" priority="485" operator="equal">
-      <formula>$M319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K321">
-    <cfRule type="cellIs" dxfId="250" priority="489" operator="equal">
-      <formula>$K319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I326">
-    <cfRule type="cellIs" dxfId="249" priority="483" operator="equal">
-      <formula>$I316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J326">
-    <cfRule type="cellIs" dxfId="248" priority="482" operator="equal">
-      <formula>$J316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L326">
-    <cfRule type="cellIs" dxfId="247" priority="481" operator="equal">
-      <formula>$L316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M326">
-    <cfRule type="cellIs" dxfId="246" priority="480" operator="equal">
-      <formula>$M316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K326">
-    <cfRule type="cellIs" dxfId="245" priority="484" operator="equal">
-      <formula>$K316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I329">
-    <cfRule type="cellIs" dxfId="244" priority="478" operator="equal">
-      <formula>$I317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J329">
-    <cfRule type="cellIs" dxfId="243" priority="477" operator="equal">
-      <formula>$J317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L329">
-    <cfRule type="cellIs" dxfId="242" priority="476" operator="equal">
-      <formula>$L317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M329">
-    <cfRule type="cellIs" dxfId="241" priority="475" operator="equal">
-      <formula>$M317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K329">
-    <cfRule type="cellIs" dxfId="240" priority="479" operator="equal">
-      <formula>$K317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I330">
-    <cfRule type="cellIs" dxfId="239" priority="473" operator="equal">
-      <formula>$I318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J330">
-    <cfRule type="cellIs" dxfId="238" priority="472" operator="equal">
-      <formula>$J318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L330">
-    <cfRule type="cellIs" dxfId="237" priority="471" operator="equal">
-      <formula>$L318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M330">
-    <cfRule type="cellIs" dxfId="236" priority="470" operator="equal">
-      <formula>$M318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K330">
-    <cfRule type="cellIs" dxfId="235" priority="474" operator="equal">
-      <formula>$K318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I327">
-    <cfRule type="cellIs" dxfId="234" priority="468" operator="equal">
-      <formula>$I315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J327">
-    <cfRule type="cellIs" dxfId="233" priority="467" operator="equal">
-      <formula>$J315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L327">
-    <cfRule type="cellIs" dxfId="232" priority="466" operator="equal">
-      <formula>$L315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M327">
-    <cfRule type="cellIs" dxfId="231" priority="465" operator="equal">
-      <formula>$M315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K327">
-    <cfRule type="cellIs" dxfId="230" priority="469" operator="equal">
-      <formula>$K315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I328">
-    <cfRule type="cellIs" dxfId="229" priority="463" operator="equal">
-      <formula>$I316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J328">
-    <cfRule type="cellIs" dxfId="228" priority="462" operator="equal">
-      <formula>$J316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L328">
-    <cfRule type="cellIs" dxfId="227" priority="461" operator="equal">
-      <formula>$L316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M328">
-    <cfRule type="cellIs" dxfId="226" priority="460" operator="equal">
-      <formula>$M316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K328">
-    <cfRule type="cellIs" dxfId="225" priority="464" operator="equal">
-      <formula>$K316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I306:I307">
-    <cfRule type="cellIs" dxfId="224" priority="455" operator="equal">
-      <formula>$I295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J306:J307">
-    <cfRule type="cellIs" dxfId="223" priority="456" operator="equal">
-      <formula>$J295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L306:L307">
-    <cfRule type="cellIs" dxfId="222" priority="457" operator="equal">
-      <formula>$L295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M306:M307">
-    <cfRule type="cellIs" dxfId="221" priority="458" operator="equal">
-      <formula>$M295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K306:K307">
-    <cfRule type="cellIs" dxfId="220" priority="459" operator="equal">
-      <formula>$K295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I305">
-    <cfRule type="cellIs" dxfId="219" priority="453" operator="equal">
-      <formula>$I294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J305">
-    <cfRule type="cellIs" dxfId="218" priority="452" operator="equal">
-      <formula>$J294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L305">
-    <cfRule type="cellIs" dxfId="217" priority="451" operator="equal">
-      <formula>$L294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M305">
-    <cfRule type="cellIs" dxfId="216" priority="450" operator="equal">
-      <formula>$M294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K305">
-    <cfRule type="cellIs" dxfId="215" priority="454" operator="equal">
-      <formula>$K294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I304">
-    <cfRule type="cellIs" dxfId="214" priority="445" operator="equal">
-      <formula>$I293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J304">
-    <cfRule type="cellIs" dxfId="213" priority="446" operator="equal">
-      <formula>$J293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L304">
-    <cfRule type="cellIs" dxfId="212" priority="447" operator="equal">
-      <formula>$L293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M304">
-    <cfRule type="cellIs" dxfId="211" priority="448" operator="equal">
-      <formula>$M293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K304">
-    <cfRule type="cellIs" dxfId="210" priority="449" operator="equal">
-      <formula>$K293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I298">
-    <cfRule type="cellIs" dxfId="209" priority="443" operator="equal">
-      <formula>$I292</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J298">
-    <cfRule type="cellIs" dxfId="208" priority="442" operator="equal">
-      <formula>$J292</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L298">
-    <cfRule type="cellIs" dxfId="207" priority="441" operator="equal">
-      <formula>$L292</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M298">
-    <cfRule type="cellIs" dxfId="206" priority="440" operator="equal">
-      <formula>$M292</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K298">
-    <cfRule type="cellIs" dxfId="205" priority="444" operator="equal">
-      <formula>$K292</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K299">
-    <cfRule type="cellIs" dxfId="204" priority="434" operator="equal">
-      <formula>$K293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I299">
-    <cfRule type="cellIs" dxfId="203" priority="433" operator="equal">
-      <formula>$I293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J299">
-    <cfRule type="cellIs" dxfId="202" priority="432" operator="equal">
-      <formula>$J293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L299">
-    <cfRule type="cellIs" dxfId="201" priority="431" operator="equal">
-      <formula>$L293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M299">
-    <cfRule type="cellIs" dxfId="200" priority="430" operator="equal">
-      <formula>$M293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I300">
-    <cfRule type="cellIs" dxfId="199" priority="428" operator="equal">
-      <formula>$I294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J300">
-    <cfRule type="cellIs" dxfId="198" priority="427" operator="equal">
-      <formula>$J294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L300">
-    <cfRule type="cellIs" dxfId="197" priority="426" operator="equal">
-      <formula>$L294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M300">
-    <cfRule type="cellIs" dxfId="196" priority="425" operator="equal">
-      <formula>$M294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K300">
-    <cfRule type="cellIs" dxfId="195" priority="429" operator="equal">
-      <formula>$K294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I301">
-    <cfRule type="cellIs" dxfId="194" priority="423" operator="equal">
-      <formula>$I295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J301">
-    <cfRule type="cellIs" dxfId="193" priority="422" operator="equal">
-      <formula>$J295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L301">
-    <cfRule type="cellIs" dxfId="192" priority="421" operator="equal">
-      <formula>$L295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M301">
-    <cfRule type="cellIs" dxfId="191" priority="420" operator="equal">
-      <formula>$M295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K301">
-    <cfRule type="cellIs" dxfId="190" priority="424" operator="equal">
-      <formula>$K295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I303">
-    <cfRule type="cellIs" dxfId="189" priority="418" operator="equal">
-      <formula>$I296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J303">
-    <cfRule type="cellIs" dxfId="188" priority="417" operator="equal">
-      <formula>$J296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L303">
-    <cfRule type="cellIs" dxfId="187" priority="416" operator="equal">
-      <formula>$L296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M303">
-    <cfRule type="cellIs" dxfId="186" priority="415" operator="equal">
-      <formula>$M296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K303">
-    <cfRule type="cellIs" dxfId="185" priority="419" operator="equal">
-      <formula>$K296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I302">
-    <cfRule type="cellIs" dxfId="184" priority="413" operator="equal">
-      <formula>$I295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J302">
-    <cfRule type="cellIs" dxfId="183" priority="412" operator="equal">
-      <formula>$J295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L302">
-    <cfRule type="cellIs" dxfId="182" priority="411" operator="equal">
-      <formula>$L295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M302">
-    <cfRule type="cellIs" dxfId="181" priority="410" operator="equal">
-      <formula>$M295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K302">
-    <cfRule type="cellIs" dxfId="180" priority="414" operator="equal">
-      <formula>$K295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K297">
-    <cfRule type="cellIs" dxfId="179" priority="409" operator="equal">
-      <formula>$K296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L297">
-    <cfRule type="cellIs" dxfId="178" priority="408" operator="equal">
-      <formula>$L296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M297">
-    <cfRule type="cellIs" dxfId="177" priority="407" operator="equal">
-      <formula>$M296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J297">
-    <cfRule type="cellIs" dxfId="176" priority="406" operator="equal">
-      <formula>$J296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I297">
-    <cfRule type="cellIs" dxfId="175" priority="405" operator="equal">
-      <formula>$I296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S15 S171">
-    <cfRule type="cellIs" dxfId="174" priority="992" operator="equal">
-      <formula>$S10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15 I15 I171 B171">
-    <cfRule type="cellIs" dxfId="173" priority="995" operator="equal">
-      <formula>$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15 J171">
-    <cfRule type="cellIs" dxfId="172" priority="997" operator="equal">
-      <formula>$J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15 L171">
-    <cfRule type="cellIs" dxfId="171" priority="998" operator="equal">
-      <formula>$L10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15 M171">
-    <cfRule type="cellIs" dxfId="170" priority="999" operator="equal">
-      <formula>$M10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15 K171">
-    <cfRule type="cellIs" dxfId="169" priority="1000" operator="equal">
-      <formula>$K10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="168" priority="397" operator="equal">
-      <formula>$K9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="167" priority="372" operator="equal">
-      <formula>$M10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="166" priority="368" operator="equal">
-      <formula>$M11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="165" priority="367" operator="equal">
-      <formula>$M12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="164" priority="366" operator="equal">
-      <formula>$M13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S11">
-    <cfRule type="cellIs" dxfId="163" priority="365" operator="equal">
-      <formula>$S10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12">
-    <cfRule type="cellIs" dxfId="162" priority="364" operator="equal">
-      <formula>$S11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S13">
-    <cfRule type="cellIs" dxfId="161" priority="363" operator="equal">
-      <formula>$S12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="160" priority="362" operator="equal">
-      <formula>$S13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="159" priority="361" operator="equal">
-      <formula>$K11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="158" priority="360" operator="equal">
-      <formula>$K12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="157" priority="359" operator="equal">
-      <formula>$K13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="156" priority="358" operator="equal">
-      <formula>$L10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="155" priority="357" operator="equal">
-      <formula>$L11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="154" priority="356" operator="equal">
-      <formula>$L12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="153" priority="355" operator="equal">
-      <formula>$L13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="152" priority="354" operator="equal">
-      <formula>$J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="151" priority="353" operator="equal">
-      <formula>$J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="150" priority="352" operator="equal">
-      <formula>$J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="149" priority="351" operator="equal">
-      <formula>$J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="148" priority="348" operator="equal">
-      <formula>$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="147" priority="347" operator="equal">
-      <formula>$I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="146" priority="346" operator="equal">
-      <formula>$I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="145" priority="345" operator="equal">
-      <formula>$I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="144" priority="344" operator="equal">
-      <formula>$I6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="143" priority="343" operator="equal">
-      <formula>$I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="142" priority="342" operator="equal">
-      <formula>$I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J265">
-    <cfRule type="cellIs" dxfId="141" priority="1005" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L265">
-    <cfRule type="cellIs" dxfId="140" priority="1008" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M265">
-    <cfRule type="cellIs" dxfId="139" priority="1010" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K265">
-    <cfRule type="cellIs" dxfId="138" priority="1012" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K156">
-    <cfRule type="cellIs" dxfId="137" priority="1022" operator="equal">
-      <formula>$K143</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S189">
-    <cfRule type="cellIs" dxfId="136" priority="1024" operator="equal">
-      <formula>$S143</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S104 S184 S151 S218 S237">
-    <cfRule type="cellIs" dxfId="135" priority="1036" operator="equal">
-      <formula>$S102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B146">
-    <cfRule type="cellIs" dxfId="134" priority="295" operator="equal">
-      <formula>$I144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I144">
-    <cfRule type="cellIs" dxfId="133" priority="293" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="132" priority="292" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K144">
-    <cfRule type="cellIs" dxfId="131" priority="294" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S144">
-    <cfRule type="cellIs" dxfId="130" priority="302" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S146">
-    <cfRule type="cellIs" dxfId="129" priority="303" operator="equal">
-      <formula>$S144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S145">
-    <cfRule type="cellIs" dxfId="128" priority="290" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L144:L147">
-    <cfRule type="cellIs" dxfId="127" priority="288" operator="equal">
-      <formula>$L143</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M144:M147">
-    <cfRule type="cellIs" dxfId="126" priority="287" operator="equal">
-      <formula>$M143</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K144:K147">
-    <cfRule type="cellIs" dxfId="125" priority="289" operator="equal">
-      <formula>$K143</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J146">
-    <cfRule type="cellIs" dxfId="124" priority="278" operator="equal">
-      <formula>$J145</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I145:I146">
-    <cfRule type="cellIs" dxfId="123" priority="286" operator="equal">
-      <formula>$I144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J145:J146">
-    <cfRule type="cellIs" dxfId="122" priority="285" operator="equal">
-      <formula>$J144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L144:L147">
-    <cfRule type="cellIs" dxfId="121" priority="284" operator="equal">
-      <formula>$L143</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M144:M147">
-    <cfRule type="cellIs" dxfId="120" priority="283" operator="equal">
-      <formula>$M143</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L144:L145">
-    <cfRule type="cellIs" dxfId="119" priority="282" operator="equal">
-      <formula>$L143</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M144:M145">
-    <cfRule type="cellIs" dxfId="118" priority="281" operator="equal">
-      <formula>$M143</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L144:L145">
-    <cfRule type="cellIs" dxfId="117" priority="280" operator="equal">
-      <formula>$L143</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M144:M145">
-    <cfRule type="cellIs" dxfId="116" priority="279" operator="equal">
-      <formula>$M143</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="115" priority="277" operator="equal">
-      <formula>$J143</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="114" priority="276" operator="equal">
-      <formula>$J143</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S155">
-    <cfRule type="cellIs" dxfId="113" priority="1040" operator="equal">
-      <formula>$S264</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B145">
-    <cfRule type="cellIs" dxfId="112" priority="1047" operator="equal">
-      <formula>$I3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I149">
-    <cfRule type="cellIs" dxfId="111" priority="206" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="110" priority="205" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="109" priority="207" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B149:B150">
-    <cfRule type="cellIs" dxfId="108" priority="204" operator="equal">
-      <formula>$I62</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S149">
-    <cfRule type="cellIs" dxfId="107" priority="215" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S150">
-    <cfRule type="cellIs" dxfId="106" priority="203" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="105" priority="199" operator="equal">
-      <formula>$J258</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="104" priority="198" operator="equal">
-      <formula>$J258</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="103" priority="217" operator="equal">
-      <formula>$L258</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="102" priority="218" operator="equal">
-      <formula>$M258</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="101" priority="219" operator="equal">
-      <formula>$K258</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S74">
-    <cfRule type="cellIs" dxfId="100" priority="1053" operator="equal">
-      <formula>$S73</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S83">
-    <cfRule type="cellIs" dxfId="99" priority="1075" operator="equal">
-      <formula>$S81</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="98" priority="137" operator="equal">
-      <formula>$I81</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J82">
-    <cfRule type="cellIs" dxfId="97" priority="136" operator="equal">
-      <formula>$J81</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L82">
-    <cfRule type="cellIs" dxfId="96" priority="135" operator="equal">
-      <formula>$L81</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M82">
-    <cfRule type="cellIs" dxfId="95" priority="134" operator="equal">
-      <formula>$M81</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K82">
-    <cfRule type="cellIs" dxfId="94" priority="138" operator="equal">
-      <formula>$K81</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="93" priority="1076" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B144">
-    <cfRule type="cellIs" dxfId="92" priority="1078" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2 B2">
-    <cfRule type="cellIs" dxfId="91" priority="111" operator="equal">
-      <formula>$I276</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
-    <cfRule type="cellIs" dxfId="90" priority="1089" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S148">
-    <cfRule type="cellIs" dxfId="89" priority="1107" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="88" priority="109" operator="equal">
-      <formula>$I101</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J103">
-    <cfRule type="cellIs" dxfId="87" priority="108" operator="equal">
-      <formula>$J101</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L103">
-    <cfRule type="cellIs" dxfId="86" priority="107" operator="equal">
-      <formula>$L101</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M103">
-    <cfRule type="cellIs" dxfId="85" priority="106" operator="equal">
-      <formula>$M101</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K103">
-    <cfRule type="cellIs" dxfId="84" priority="110" operator="equal">
-      <formula>$K101</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="83" priority="94" operator="equal">
-      <formula>$L147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="82" priority="93" operator="equal">
-      <formula>$L147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="81" priority="92" operator="equal">
-      <formula>$L147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K148">
-    <cfRule type="cellIs" dxfId="80" priority="89" operator="equal">
-      <formula>$K147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K148">
-    <cfRule type="cellIs" dxfId="79" priority="88" operator="equal">
-      <formula>$K147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J148">
-    <cfRule type="cellIs" dxfId="78" priority="86" operator="equal">
-      <formula>$J147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I148">
-    <cfRule type="cellIs" dxfId="77" priority="85" operator="equal">
-      <formula>$I147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I217">
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
-      <formula>$I215</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J217">
-    <cfRule type="cellIs" dxfId="75" priority="79" operator="equal">
-      <formula>$J215</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L217">
-    <cfRule type="cellIs" dxfId="74" priority="78" operator="equal">
-      <formula>$L215</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M217">
-    <cfRule type="cellIs" dxfId="73" priority="77" operator="equal">
-      <formula>$M215</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K217">
-    <cfRule type="cellIs" dxfId="72" priority="81" operator="equal">
-      <formula>$K215</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S217">
-    <cfRule type="cellIs" dxfId="71" priority="82" operator="equal">
-      <formula>$S215</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="70" priority="76" operator="equal">
-      <formula>$I156</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="69" priority="1167" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75">
-    <cfRule type="cellIs" dxfId="68" priority="1169" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L75">
-    <cfRule type="cellIs" dxfId="67" priority="1171" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M75">
-    <cfRule type="cellIs" dxfId="66" priority="1173" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K75">
-    <cfRule type="cellIs" dxfId="65" priority="1180" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S75">
-    <cfRule type="cellIs" dxfId="64" priority="1182" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M146">
-    <cfRule type="cellIs" dxfId="63" priority="75" operator="equal">
-      <formula>$M145</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M146">
-    <cfRule type="cellIs" dxfId="62" priority="74" operator="equal">
-      <formula>$M145</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="61" priority="73" operator="equal">
-      <formula>$M146</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
-      <formula>$M146</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
-      <formula>$M147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="58" priority="70" operator="equal">
-      <formula>$M147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
-      <formula>$M147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="56" priority="68" operator="equal">
-      <formula>$M147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I236 B236">
-    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
-      <formula>$I235</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J236">
-    <cfRule type="cellIs" dxfId="54" priority="61" operator="equal">
-      <formula>$J235</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L236">
-    <cfRule type="cellIs" dxfId="53" priority="60" operator="equal">
-      <formula>$L235</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M236">
-    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
-      <formula>$M235</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K236">
-    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
-      <formula>$K235</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S236">
-    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
-      <formula>$S235</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M339:M358">
-    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
-      <formula>$M338</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I336">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
-      <formula>$I335</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J336">
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
-      <formula>$J335</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L336">
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
-      <formula>$L335</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M336">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
-      <formula>$M335</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K336">
-    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
-      <formula>$K335</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L337">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M337">
-    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L339:L358">
-    <cfRule type="cellIs" dxfId="37" priority="24" operator="equal">
-      <formula>$L338</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K339:K358">
-    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
-      <formula>$K338</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I337">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K337">
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I338">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J338">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L338">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M338">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K338">
-    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J339:J358">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
-      <formula>$J338</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M359">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
-      <formula>$M358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L359">
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
-      <formula>$L358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K359">
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
-      <formula>$K358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J359">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
-      <formula>$J358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I363">
-    <cfRule type="cellIs" dxfId="23" priority="53" operator="equal">
-      <formula>$I358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J363">
-    <cfRule type="cellIs" dxfId="22" priority="54" operator="equal">
-      <formula>$J358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L363">
-    <cfRule type="cellIs" dxfId="21" priority="55" operator="equal">
-      <formula>$L358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M363">
-    <cfRule type="cellIs" dxfId="20" priority="56" operator="equal">
-      <formula>$M358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K363">
-    <cfRule type="cellIs" dxfId="19" priority="57" operator="equal">
-      <formula>$K358</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M360">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
-      <formula>$M359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L360">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
-      <formula>$L359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K360">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>$K359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J360">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
-      <formula>$J359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M362">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
-      <formula>$M360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L362">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
-      <formula>$L360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K362">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>$K360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J362">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>$J360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M361">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
-      <formula>$M359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L361">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
-      <formula>$L359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K361">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>$K359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J361">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>$J359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I339:I362">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>$I338</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J337">
-    <cfRule type="cellIs" dxfId="0" priority="1183" operator="equal">
-      <formula>#REF!</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1248" operator="equal">
+      <formula>$K312</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E3D8AD-9490-449B-9A93-FE8DF78E12B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5020369F-130A-439D-9DF2-F4A9074A830E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当資料の使い方" sheetId="26" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5988" uniqueCount="1461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6021" uniqueCount="1473">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -5891,12 +5891,60 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TFW</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>RESTリクエスト単体テストを実施するための環境設定</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>restTestConfiguration</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>RESTリクエスト単体テスト設定</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>nablarch.test.core.http.RestTestConfiguration</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>nablarch\test\rest-request-test.xml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>webベースディレクトリ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>nablarch/test/http-request-test/http-request-test.config</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>webFrontControllerKey</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>webFrontControllerのリポジトリキー</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>nablarch.httpTestConfiguration.webFrontControllerKey</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>webFrontController</t>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5936,8 +5984,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5978,6 +6039,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -6177,7 +6244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6373,18 +6440,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6403,78 +6458,99 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="422">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
+  <dxfs count="421">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
         </top>
         <vertical/>
         <horizontal/>
@@ -11813,7 +11889,7 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -11981,9 +12057,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S372"/>
+  <dimension ref="A1:S374"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
@@ -12017,14 +12093,14 @@
       <c r="B1" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="71" t="s">
         <v>795</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
       <c r="I1" s="4" t="s">
         <v>790</v>
       </c>
@@ -30930,7 +31006,7 @@
     </row>
     <row r="338" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="2">
-        <f t="shared" ref="A338:A372" si="6">ROW()-2</f>
+        <f t="shared" ref="A338:A374" si="6">ROW()-2</f>
         <v>336</v>
       </c>
       <c r="B338" s="27"/>
@@ -32381,7 +32457,7 @@
         <f t="shared" si="6"/>
         <v>362</v>
       </c>
-      <c r="B364" s="72" t="s">
+      <c r="B364" s="68" t="s">
         <v>791</v>
       </c>
       <c r="C364" s="36" t="s">
@@ -32402,7 +32478,7 @@
       <c r="H364" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I364" s="70" t="s">
+      <c r="I364" s="66" t="s">
         <v>1426</v>
       </c>
       <c r="J364" s="2" t="s">
@@ -32414,7 +32490,7 @@
       <c r="L364" s="2" t="s">
         <v>1429</v>
       </c>
-      <c r="M364" s="70" t="s">
+      <c r="M364" s="66" t="s">
         <v>1431</v>
       </c>
       <c r="N364" s="36" t="s">
@@ -32439,7 +32515,7 @@
         <f t="shared" si="6"/>
         <v>363</v>
       </c>
-      <c r="B365" s="73"/>
+      <c r="B365" s="69"/>
       <c r="C365" s="36" t="s">
         <v>899</v>
       </c>
@@ -32458,7 +32534,7 @@
       <c r="H365" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I365" s="71"/>
+      <c r="I365" s="67"/>
       <c r="J365" s="2" t="s">
         <v>1436</v>
       </c>
@@ -32491,7 +32567,7 @@
         <f t="shared" si="6"/>
         <v>364</v>
       </c>
-      <c r="B366" s="73"/>
+      <c r="B366" s="69"/>
       <c r="C366" s="36" t="s">
         <v>899</v>
       </c>
@@ -32543,7 +32619,7 @@
         <f t="shared" si="6"/>
         <v>365</v>
       </c>
-      <c r="B367" s="73"/>
+      <c r="B367" s="69"/>
       <c r="C367" s="36" t="s">
         <v>899</v>
       </c>
@@ -32595,7 +32671,7 @@
         <f t="shared" si="6"/>
         <v>366</v>
       </c>
-      <c r="B368" s="73"/>
+      <c r="B368" s="69"/>
       <c r="C368" s="36" t="s">
         <v>899</v>
       </c>
@@ -32647,7 +32723,7 @@
         <f t="shared" si="6"/>
         <v>367</v>
       </c>
-      <c r="B369" s="73"/>
+      <c r="B369" s="69"/>
       <c r="C369" s="36" t="s">
         <v>899</v>
       </c>
@@ -32689,7 +32765,7 @@
       <c r="Q369" s="23" t="s">
         <v>1289</v>
       </c>
-      <c r="R369" s="69" t="s">
+      <c r="R369" s="65" t="s">
         <v>703</v>
       </c>
       <c r="S369" s="33"/>
@@ -32699,7 +32775,7 @@
         <f t="shared" si="6"/>
         <v>368</v>
       </c>
-      <c r="B370" s="73"/>
+      <c r="B370" s="69"/>
       <c r="C370" s="36" t="s">
         <v>899</v>
       </c>
@@ -32741,7 +32817,7 @@
       <c r="Q370" s="23" t="s">
         <v>1289</v>
       </c>
-      <c r="R370" s="69" t="s">
+      <c r="R370" s="65" t="s">
         <v>705</v>
       </c>
       <c r="S370" s="33"/>
@@ -32751,7 +32827,7 @@
         <f t="shared" si="6"/>
         <v>369</v>
       </c>
-      <c r="B371" s="73"/>
+      <c r="B371" s="69"/>
       <c r="C371" s="36" t="s">
         <v>899</v>
       </c>
@@ -32793,7 +32869,7 @@
       <c r="Q371" s="23" t="s">
         <v>1289</v>
       </c>
-      <c r="R371" s="69" t="s">
+      <c r="R371" s="65" t="s">
         <v>411</v>
       </c>
       <c r="S371" s="33"/>
@@ -32803,7 +32879,7 @@
         <f t="shared" si="6"/>
         <v>370</v>
       </c>
-      <c r="B372" s="74"/>
+      <c r="B372" s="70"/>
       <c r="C372" s="36" t="s">
         <v>899</v>
       </c>
@@ -32845,10 +32921,124 @@
       <c r="Q372" s="23" t="s">
         <v>1289</v>
       </c>
-      <c r="R372" s="69" t="s">
+      <c r="R372" s="65" t="s">
         <v>679</v>
       </c>
       <c r="S372" s="33"/>
+    </row>
+    <row r="373" spans="1:19" s="80" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="75">
+        <f t="shared" si="6"/>
+        <v>371</v>
+      </c>
+      <c r="B373" s="76" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C373" s="77" t="s">
+        <v>899</v>
+      </c>
+      <c r="D373" s="77" t="s">
+        <v>899</v>
+      </c>
+      <c r="E373" s="77" t="s">
+        <v>899</v>
+      </c>
+      <c r="F373" s="77" t="s">
+        <v>899</v>
+      </c>
+      <c r="G373" s="77" t="s">
+        <v>899</v>
+      </c>
+      <c r="H373" s="77" t="s">
+        <v>899</v>
+      </c>
+      <c r="I373" s="75" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J373" s="75" t="s">
+        <v>1463</v>
+      </c>
+      <c r="K373" s="75" t="s">
+        <v>1464</v>
+      </c>
+      <c r="L373" s="75" t="s">
+        <v>1465</v>
+      </c>
+      <c r="M373" s="75" t="s">
+        <v>1466</v>
+      </c>
+      <c r="N373" s="77" t="s">
+        <v>1015</v>
+      </c>
+      <c r="O373" s="77" t="s">
+        <v>1467</v>
+      </c>
+      <c r="P373" s="77" t="s">
+        <v>1016</v>
+      </c>
+      <c r="Q373" s="77" t="s">
+        <v>1468</v>
+      </c>
+      <c r="R373" s="78" t="s">
+        <v>1204</v>
+      </c>
+      <c r="S373" s="79"/>
+    </row>
+    <row r="374" spans="1:19" s="80" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="75">
+        <f t="shared" si="6"/>
+        <v>372</v>
+      </c>
+      <c r="B374" s="81"/>
+      <c r="C374" s="77" t="s">
+        <v>899</v>
+      </c>
+      <c r="D374" s="77" t="s">
+        <v>899</v>
+      </c>
+      <c r="E374" s="77" t="s">
+        <v>899</v>
+      </c>
+      <c r="F374" s="77" t="s">
+        <v>899</v>
+      </c>
+      <c r="G374" s="77" t="s">
+        <v>899</v>
+      </c>
+      <c r="H374" s="77" t="s">
+        <v>899</v>
+      </c>
+      <c r="I374" s="75" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J374" s="75" t="s">
+        <v>1463</v>
+      </c>
+      <c r="K374" s="75" t="s">
+        <v>1464</v>
+      </c>
+      <c r="L374" s="75" t="s">
+        <v>1465</v>
+      </c>
+      <c r="M374" s="75" t="s">
+        <v>1466</v>
+      </c>
+      <c r="N374" s="77" t="s">
+        <v>1469</v>
+      </c>
+      <c r="O374" s="77" t="s">
+        <v>1470</v>
+      </c>
+      <c r="P374" s="77" t="s">
+        <v>1471</v>
+      </c>
+      <c r="Q374" s="77" t="s">
+        <v>1468</v>
+      </c>
+      <c r="R374" s="78" t="s">
+        <v>1472</v>
+      </c>
+      <c r="S374" s="79"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:T335" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -32857,2083 +33047,2108 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I190:I194 B190:B194 I243:I247 B243:B247 I122:I139 B122:B139 I249:I258 I84:I87 B249:B258 I141:I143 B141:B143 I260:I263 B260:B263 I332:I335 I308:I313 I267:I296 I16:I30 B4:B10 B16:B30 I4:I10 B32:B73 I32:I73 B147 I147 I89:I102 I105:I120 B105:B120 I185:I186 B185:B186 I172:I178 B172:B178 I157:I170 B157:B170 B152:B154 I150:I154 I180:I183 B180:B183 B84:B102 I196:I216 B196:B216 I76:I81 B76:B82 I219:I235 I238:I241 B219:B235 B238:B241">
-    <cfRule type="cellIs" dxfId="421" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="592" operator="equal">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J190:J194 J243:J247 J122:J139 J249:J258 J141:J143 J260:J263 J332:J335 J308:J313 J4:J10 J16:J30 J266:J296 J32:J73 J145:J147 J96:J102 J105:J120 J185:J186 J172:J178 J157:J170 J150:J154 J180:J183 J84:J94 J196:J216 J76:J81 J219:J235 J238:J241">
-    <cfRule type="cellIs" dxfId="420" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="591" operator="equal">
       <formula>$J3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J189">
-    <cfRule type="cellIs" dxfId="419" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="594" operator="equal">
       <formula>$J2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L190:L194 L243:L247 L122:L139 L249:L258 L141:L143 L260:L263 L332:L335 L308:L313 L16:L30 L4:L10 L266:L296 L32:L73 L146:L147 L96:L102 L105:L120 L185:L186 L172:L178 L157:L170 L150:L154 L180:L183 L84:L94 L196:L216 L76:L81 L219:L235 L238:L241">
-    <cfRule type="cellIs" dxfId="418" priority="584" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="589" operator="equal">
       <formula>$L3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M190:M194 M243:M247 M122:M139 M249:M258 M141:M143 M260:M263 M332:M335 M308:M313 M4:M10 M16:M30 M266:M296 M32:M73 M146:M147 M96:M102 M105:M120 M185:M186 M172:M178 M157:M170 M150:M154 M180:M183 M84:M94 M196:M216 M76:M81 M219:M235 M238:M241">
-    <cfRule type="cellIs" dxfId="417" priority="583" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="588" operator="equal">
       <formula>$M3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121 B121">
-    <cfRule type="cellIs" dxfId="416" priority="595" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="600" operator="equal">
       <formula>$I94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J121">
-    <cfRule type="cellIs" dxfId="415" priority="598" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="603" operator="equal">
       <formula>$J94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121">
-    <cfRule type="cellIs" dxfId="414" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="606" operator="equal">
       <formula>$L94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M121">
-    <cfRule type="cellIs" dxfId="413" priority="604" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="609" operator="equal">
       <formula>$M94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I140 B140">
-    <cfRule type="cellIs" dxfId="412" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="618" operator="equal">
       <formula>$I120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J95">
-    <cfRule type="cellIs" dxfId="411" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="621" operator="equal">
       <formula>$J139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J140">
-    <cfRule type="cellIs" dxfId="410" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="622" operator="equal">
       <formula>$J120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L95">
-    <cfRule type="cellIs" dxfId="409" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="625" operator="equal">
       <formula>$L139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L140">
-    <cfRule type="cellIs" dxfId="408" priority="621" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="626" operator="equal">
       <formula>$L120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M95">
-    <cfRule type="cellIs" dxfId="407" priority="624" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="629" operator="equal">
       <formula>$M139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M140">
-    <cfRule type="cellIs" dxfId="406" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="630" operator="equal">
       <formula>$M120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="cellIs" dxfId="405" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="582" operator="equal">
       <formula>$I132</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I259 B259">
-    <cfRule type="cellIs" dxfId="404" priority="631" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="636" operator="equal">
       <formula>$I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J259">
-    <cfRule type="cellIs" dxfId="403" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="642" operator="equal">
       <formula>$J30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L259">
-    <cfRule type="cellIs" dxfId="402" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="646" operator="equal">
       <formula>$L30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M259">
-    <cfRule type="cellIs" dxfId="401" priority="644" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="649" operator="equal">
       <formula>$M30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L189">
-    <cfRule type="cellIs" dxfId="400" priority="658" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="663" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M189">
-    <cfRule type="cellIs" dxfId="399" priority="662" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="667" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="398" priority="669" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="674" operator="equal">
       <formula>$I241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J195">
-    <cfRule type="cellIs" dxfId="397" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="680" operator="equal">
       <formula>$J73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L195">
-    <cfRule type="cellIs" dxfId="396" priority="679" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="684" operator="equal">
       <formula>$L73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M195">
-    <cfRule type="cellIs" dxfId="395" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="687" operator="equal">
       <formula>$M73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3 B3">
-    <cfRule type="cellIs" dxfId="394" priority="711" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="716" operator="equal">
       <formula>$I194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="393" priority="713" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="718" operator="equal">
       <formula>$J194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="392" priority="714" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="719" operator="equal">
       <formula>$L194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="391" priority="715" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="720" operator="equal">
       <formula>$M194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="cellIs" dxfId="390" priority="718" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="723" operator="equal">
       <formula>$I241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74">
-    <cfRule type="cellIs" dxfId="389" priority="724" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="729" operator="equal">
       <formula>$J241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L74">
-    <cfRule type="cellIs" dxfId="388" priority="728" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="733" operator="equal">
       <formula>$L241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74">
-    <cfRule type="cellIs" dxfId="387" priority="731" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="736" operator="equal">
       <formula>$M241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195 I195">
-    <cfRule type="cellIs" dxfId="386" priority="774" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="779" operator="equal">
       <formula>$I73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I242 B242">
-    <cfRule type="cellIs" dxfId="385" priority="777" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="782" operator="equal">
       <formula>$I81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J242">
-    <cfRule type="cellIs" dxfId="384" priority="783" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="788" operator="equal">
       <formula>$J81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L242">
-    <cfRule type="cellIs" dxfId="383" priority="786" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="791" operator="equal">
       <formula>$L81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M242">
-    <cfRule type="cellIs" dxfId="382" priority="789" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="794" operator="equal">
       <formula>$M81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I155 B155">
-    <cfRule type="cellIs" dxfId="381" priority="794" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="799" operator="equal">
       <formula>$I74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155">
-    <cfRule type="cellIs" dxfId="380" priority="796" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="801" operator="equal">
       <formula>$J74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L155">
-    <cfRule type="cellIs" dxfId="379" priority="797" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="802" operator="equal">
       <formula>$L74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M155">
-    <cfRule type="cellIs" dxfId="378" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="803" operator="equal">
       <formula>$M74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I264 B264">
-    <cfRule type="cellIs" dxfId="377" priority="801" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="806" operator="equal">
       <formula>$I247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J264">
-    <cfRule type="cellIs" dxfId="376" priority="807" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="812" operator="equal">
       <formula>$J247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L264">
-    <cfRule type="cellIs" dxfId="375" priority="810" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="815" operator="equal">
       <formula>$L247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M264">
-    <cfRule type="cellIs" dxfId="374" priority="813" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="818" operator="equal">
       <formula>$M247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83 B83">
-    <cfRule type="cellIs" dxfId="373" priority="846" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="851" operator="equal">
       <formula>$I258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83">
-    <cfRule type="cellIs" dxfId="372" priority="856" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="861" operator="equal">
       <formula>$J258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83">
-    <cfRule type="cellIs" dxfId="371" priority="862" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="867" operator="equal">
       <formula>$L258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83">
-    <cfRule type="cellIs" dxfId="370" priority="868" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="873" operator="equal">
       <formula>$M258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I156 B156">
-    <cfRule type="cellIs" dxfId="369" priority="894" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="899" operator="equal">
       <formula>$I143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J156">
-    <cfRule type="cellIs" dxfId="368" priority="896" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="901" operator="equal">
       <formula>$J143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L156">
-    <cfRule type="cellIs" dxfId="367" priority="897" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="902" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156">
-    <cfRule type="cellIs" dxfId="366" priority="898" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="903" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31 B31">
-    <cfRule type="cellIs" dxfId="365" priority="907" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="912" operator="equal">
       <formula>$I263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="364" priority="909" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="914" operator="equal">
       <formula>$J263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="363" priority="910" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="915" operator="equal">
       <formula>$L263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
-    <cfRule type="cellIs" dxfId="362" priority="911" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="916" operator="equal">
       <formula>$M263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I248 B248">
-    <cfRule type="cellIs" dxfId="361" priority="914" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="919" operator="equal">
       <formula>$I264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J248">
-    <cfRule type="cellIs" dxfId="360" priority="916" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="921" operator="equal">
       <formula>$J264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L248">
-    <cfRule type="cellIs" dxfId="359" priority="917" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="922" operator="equal">
       <formula>$L264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M248">
-    <cfRule type="cellIs" dxfId="358" priority="918" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="923" operator="equal">
       <formula>$M264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I187:I188 B187:B188">
-    <cfRule type="cellIs" dxfId="357" priority="939" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="944" operator="equal">
       <formula>$I178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I179 B179">
-    <cfRule type="cellIs" dxfId="356" priority="940" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="945" operator="equal">
       <formula>$I187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J187:J188">
-    <cfRule type="cellIs" dxfId="355" priority="945" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="950" operator="equal">
       <formula>$J178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J179">
-    <cfRule type="cellIs" dxfId="354" priority="946" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="951" operator="equal">
       <formula>$J187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L187:L188">
-    <cfRule type="cellIs" dxfId="353" priority="948" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="953" operator="equal">
       <formula>$L178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L179">
-    <cfRule type="cellIs" dxfId="352" priority="949" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="954" operator="equal">
       <formula>$L187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M187:M188">
-    <cfRule type="cellIs" dxfId="351" priority="951" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="956" operator="equal">
       <formula>$M178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M179">
-    <cfRule type="cellIs" dxfId="350" priority="952" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="957" operator="equal">
       <formula>$M187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K190:K194 K243:K247 K122:K139 K249:K258 K141:K143 K260:K263 K332:K335 K308:K313 K4:K10 K16:K30 K266:K296 K32:K73 K146:K147 K96:K102 K105:K120 K185:K186 K172:K178 K157:K170 K150:K154 K180:K183 K84:K94 K196:K216 K76:K81 K219:K235 K238:K241">
-    <cfRule type="cellIs" dxfId="349" priority="956" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="961" operator="equal">
       <formula>$K3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K121">
-    <cfRule type="cellIs" dxfId="348" priority="971" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="976" operator="equal">
       <formula>$K94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K95">
-    <cfRule type="cellIs" dxfId="347" priority="972" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="977" operator="equal">
       <formula>$K139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K140">
-    <cfRule type="cellIs" dxfId="346" priority="973" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="978" operator="equal">
       <formula>$K120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K259">
-    <cfRule type="cellIs" dxfId="345" priority="974" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="979" operator="equal">
       <formula>$K30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K189">
-    <cfRule type="cellIs" dxfId="344" priority="975" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="980" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195">
-    <cfRule type="cellIs" dxfId="343" priority="976" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="981" operator="equal">
       <formula>$K73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="342" priority="977" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="982" operator="equal">
       <formula>$K194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74">
-    <cfRule type="cellIs" dxfId="341" priority="978" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="983" operator="equal">
       <formula>$K241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K242">
-    <cfRule type="cellIs" dxfId="340" priority="979" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="984" operator="equal">
       <formula>$K81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K155">
-    <cfRule type="cellIs" dxfId="339" priority="980" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="985" operator="equal">
       <formula>$K74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K264">
-    <cfRule type="cellIs" dxfId="338" priority="981" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="986" operator="equal">
       <formula>$K247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83">
-    <cfRule type="cellIs" dxfId="337" priority="983" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="988" operator="equal">
       <formula>$K258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="cellIs" dxfId="336" priority="985" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="990" operator="equal">
       <formula>$K263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K248">
-    <cfRule type="cellIs" dxfId="335" priority="986" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="991" operator="equal">
       <formula>$K264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K187:K188">
-    <cfRule type="cellIs" dxfId="334" priority="988" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="993" operator="equal">
       <formula>$K178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K179">
-    <cfRule type="cellIs" dxfId="333" priority="989" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="994" operator="equal">
       <formula>$K187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S73 S4:S10 S147 S105:S143 S185:S188 S156:S170 S152:S154 S172:S183 S84:S103 S190:S216 S76:S82 S219:S235 S238:S264">
-    <cfRule type="cellIs" dxfId="332" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="581" operator="equal">
       <formula>$S3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265">
-    <cfRule type="cellIs" dxfId="331" priority="575" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="580" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I266">
-    <cfRule type="cellIs" dxfId="330" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="579" operator="equal">
       <formula>$I265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I314">
-    <cfRule type="cellIs" dxfId="329" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="572" operator="equal">
       <formula>$I313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J314">
-    <cfRule type="cellIs" dxfId="328" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="571" operator="equal">
       <formula>$J313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L314">
-    <cfRule type="cellIs" dxfId="327" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="570" operator="equal">
       <formula>$L313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M314">
-    <cfRule type="cellIs" dxfId="326" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="569" operator="equal">
       <formula>$M313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K314">
-    <cfRule type="cellIs" dxfId="325" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="573" operator="equal">
       <formula>$K313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I331">
-    <cfRule type="cellIs" dxfId="324" priority="990" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="995" operator="equal">
       <formula>$I313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J331">
-    <cfRule type="cellIs" dxfId="323" priority="991" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="996" operator="equal">
       <formula>$J313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L331">
-    <cfRule type="cellIs" dxfId="322" priority="992" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="997" operator="equal">
       <formula>$L313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M331">
-    <cfRule type="cellIs" dxfId="321" priority="993" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="998" operator="equal">
       <formula>$M313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K331">
-    <cfRule type="cellIs" dxfId="320" priority="994" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="999" operator="equal">
       <formula>$K313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I315">
-    <cfRule type="cellIs" dxfId="319" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="567" operator="equal">
       <formula>$I314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J315">
-    <cfRule type="cellIs" dxfId="318" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="566" operator="equal">
       <formula>$J314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L315">
-    <cfRule type="cellIs" dxfId="317" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="565" operator="equal">
       <formula>$L314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M315">
-    <cfRule type="cellIs" dxfId="316" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="564" operator="equal">
       <formula>$M314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K315">
-    <cfRule type="cellIs" dxfId="315" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="568" operator="equal">
       <formula>$K314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I325">
-    <cfRule type="cellIs" dxfId="314" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="562" operator="equal">
       <formula>$I315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J325">
-    <cfRule type="cellIs" dxfId="313" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="561" operator="equal">
       <formula>$J315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L325">
-    <cfRule type="cellIs" dxfId="312" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="560" operator="equal">
       <formula>$L315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M325">
-    <cfRule type="cellIs" dxfId="311" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="559" operator="equal">
       <formula>$M315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K325">
-    <cfRule type="cellIs" dxfId="310" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="563" operator="equal">
       <formula>$K315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I316 I104 I184 B184 B151 I218 B103:B104 B217:B218 I237 B237">
-    <cfRule type="cellIs" dxfId="309" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="557" operator="equal">
       <formula>$I101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J316 J104 J184 J218 J237">
-    <cfRule type="cellIs" dxfId="308" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="556" operator="equal">
       <formula>$J102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L316 L104 L184 L218 L237">
-    <cfRule type="cellIs" dxfId="307" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="555" operator="equal">
       <formula>$L102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M316 M104 M184 M218 M237">
-    <cfRule type="cellIs" dxfId="306" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="554" operator="equal">
       <formula>$M102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K316 K104 K184 K218 K237">
-    <cfRule type="cellIs" dxfId="305" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="558" operator="equal">
       <formula>$K102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I322">
-    <cfRule type="cellIs" dxfId="304" priority="547" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="552" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J322">
-    <cfRule type="cellIs" dxfId="303" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="551" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L322">
-    <cfRule type="cellIs" dxfId="302" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="550" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M322">
-    <cfRule type="cellIs" dxfId="301" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="549" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K322">
-    <cfRule type="cellIs" dxfId="300" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="553" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I323">
-    <cfRule type="cellIs" dxfId="299" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="547" operator="equal">
       <formula>$I322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J323">
-    <cfRule type="cellIs" dxfId="298" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="546" operator="equal">
       <formula>$J322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L323">
-    <cfRule type="cellIs" dxfId="297" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="545" operator="equal">
       <formula>$L322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M323">
-    <cfRule type="cellIs" dxfId="296" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="544" operator="equal">
       <formula>$M322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K323">
-    <cfRule type="cellIs" dxfId="295" priority="543" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="548" operator="equal">
       <formula>$K322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I324">
-    <cfRule type="cellIs" dxfId="294" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="542" operator="equal">
       <formula>$I322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J324">
-    <cfRule type="cellIs" dxfId="293" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="541" operator="equal">
       <formula>$J322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L324">
-    <cfRule type="cellIs" dxfId="292" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="540" operator="equal">
       <formula>$L322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M324">
-    <cfRule type="cellIs" dxfId="291" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="539" operator="equal">
       <formula>$M322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K324">
-    <cfRule type="cellIs" dxfId="290" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="543" operator="equal">
       <formula>$K322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I317 B14">
-    <cfRule type="cellIs" dxfId="289" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="537" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J317">
-    <cfRule type="cellIs" dxfId="288" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="536" operator="equal">
       <formula>$J313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L317">
-    <cfRule type="cellIs" dxfId="287" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="535" operator="equal">
       <formula>$L313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M317">
-    <cfRule type="cellIs" dxfId="286" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="534" operator="equal">
       <formula>$M313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K317">
-    <cfRule type="cellIs" dxfId="285" priority="533" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="538" operator="equal">
       <formula>$K313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I318">
-    <cfRule type="cellIs" dxfId="284" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="532" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J318">
-    <cfRule type="cellIs" dxfId="283" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="531" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L318">
-    <cfRule type="cellIs" dxfId="282" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="530" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M318">
-    <cfRule type="cellIs" dxfId="281" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="529" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K318">
-    <cfRule type="cellIs" dxfId="280" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="533" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I319">
-    <cfRule type="cellIs" dxfId="279" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="527" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J319">
-    <cfRule type="cellIs" dxfId="278" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="526" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L319">
-    <cfRule type="cellIs" dxfId="277" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="525" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M319">
-    <cfRule type="cellIs" dxfId="276" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="524" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K319">
-    <cfRule type="cellIs" dxfId="275" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="528" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I320">
-    <cfRule type="cellIs" dxfId="274" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="522" operator="equal">
       <formula>$I319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J320">
-    <cfRule type="cellIs" dxfId="273" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="521" operator="equal">
       <formula>$J319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L320">
-    <cfRule type="cellIs" dxfId="272" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="520" operator="equal">
       <formula>$L319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M320">
-    <cfRule type="cellIs" dxfId="271" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="519" operator="equal">
       <formula>$M319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K320">
-    <cfRule type="cellIs" dxfId="270" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="523" operator="equal">
       <formula>$K319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I321">
-    <cfRule type="cellIs" dxfId="269" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="517" operator="equal">
       <formula>$I319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J321">
-    <cfRule type="cellIs" dxfId="268" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="516" operator="equal">
       <formula>$J319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L321">
-    <cfRule type="cellIs" dxfId="267" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="515" operator="equal">
       <formula>$L319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M321">
-    <cfRule type="cellIs" dxfId="266" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="514" operator="equal">
       <formula>$M319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K321">
-    <cfRule type="cellIs" dxfId="265" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="518" operator="equal">
       <formula>$K319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I326">
-    <cfRule type="cellIs" dxfId="264" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="512" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J326">
-    <cfRule type="cellIs" dxfId="263" priority="506" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="511" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L326">
-    <cfRule type="cellIs" dxfId="262" priority="505" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="510" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M326">
-    <cfRule type="cellIs" dxfId="261" priority="504" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="509" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K326">
-    <cfRule type="cellIs" dxfId="260" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="513" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I329">
-    <cfRule type="cellIs" dxfId="259" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="507" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J329">
-    <cfRule type="cellIs" dxfId="258" priority="501" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="506" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L329">
-    <cfRule type="cellIs" dxfId="257" priority="500" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="505" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M329">
-    <cfRule type="cellIs" dxfId="256" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="504" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K329">
-    <cfRule type="cellIs" dxfId="255" priority="503" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="508" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I330">
-    <cfRule type="cellIs" dxfId="254" priority="497" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="502" operator="equal">
       <formula>$I318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J330">
-    <cfRule type="cellIs" dxfId="253" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="501" operator="equal">
       <formula>$J318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L330">
-    <cfRule type="cellIs" dxfId="252" priority="495" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="500" operator="equal">
       <formula>$L318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M330">
-    <cfRule type="cellIs" dxfId="251" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="499" operator="equal">
       <formula>$M318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K330">
-    <cfRule type="cellIs" dxfId="250" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="503" operator="equal">
       <formula>$K318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I327">
-    <cfRule type="cellIs" dxfId="249" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="497" operator="equal">
       <formula>$I315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J327">
-    <cfRule type="cellIs" dxfId="248" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="496" operator="equal">
       <formula>$J315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L327">
-    <cfRule type="cellIs" dxfId="247" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="495" operator="equal">
       <formula>$L315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M327">
-    <cfRule type="cellIs" dxfId="246" priority="489" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="494" operator="equal">
       <formula>$M315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K327">
-    <cfRule type="cellIs" dxfId="245" priority="493" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="498" operator="equal">
       <formula>$K315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I328">
-    <cfRule type="cellIs" dxfId="244" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="492" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J328">
-    <cfRule type="cellIs" dxfId="243" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="491" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L328">
-    <cfRule type="cellIs" dxfId="242" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="490" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M328">
-    <cfRule type="cellIs" dxfId="241" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="489" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K328">
-    <cfRule type="cellIs" dxfId="240" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="493" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I306:I307">
-    <cfRule type="cellIs" dxfId="239" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="484" operator="equal">
       <formula>$I295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J306:J307">
-    <cfRule type="cellIs" dxfId="238" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="485" operator="equal">
       <formula>$J295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L306:L307">
-    <cfRule type="cellIs" dxfId="237" priority="481" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="486" operator="equal">
       <formula>$L295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M306:M307">
-    <cfRule type="cellIs" dxfId="236" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="487" operator="equal">
       <formula>$M295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K306:K307">
-    <cfRule type="cellIs" dxfId="235" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="488" operator="equal">
       <formula>$K295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I305">
-    <cfRule type="cellIs" dxfId="234" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="482" operator="equal">
       <formula>$I294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J305">
-    <cfRule type="cellIs" dxfId="233" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="481" operator="equal">
       <formula>$J294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L305">
-    <cfRule type="cellIs" dxfId="232" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="480" operator="equal">
       <formula>$L294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M305">
-    <cfRule type="cellIs" dxfId="231" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="479" operator="equal">
       <formula>$M294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K305">
-    <cfRule type="cellIs" dxfId="230" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="483" operator="equal">
       <formula>$K294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I304">
-    <cfRule type="cellIs" dxfId="229" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="474" operator="equal">
       <formula>$I293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J304">
-    <cfRule type="cellIs" dxfId="228" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="475" operator="equal">
       <formula>$J293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L304">
-    <cfRule type="cellIs" dxfId="227" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="476" operator="equal">
       <formula>$L293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M304">
-    <cfRule type="cellIs" dxfId="226" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="477" operator="equal">
       <formula>$M293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K304">
-    <cfRule type="cellIs" dxfId="225" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="478" operator="equal">
       <formula>$K293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I298">
-    <cfRule type="cellIs" dxfId="224" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="472" operator="equal">
       <formula>$I292</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J298">
-    <cfRule type="cellIs" dxfId="223" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="471" operator="equal">
       <formula>$J292</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L298">
-    <cfRule type="cellIs" dxfId="222" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="470" operator="equal">
       <formula>$L292</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M298">
-    <cfRule type="cellIs" dxfId="221" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="469" operator="equal">
       <formula>$M292</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K298">
-    <cfRule type="cellIs" dxfId="220" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="473" operator="equal">
       <formula>$K292</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K299">
-    <cfRule type="cellIs" dxfId="219" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="463" operator="equal">
       <formula>$K293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I299">
-    <cfRule type="cellIs" dxfId="218" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="462" operator="equal">
       <formula>$I293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J299">
-    <cfRule type="cellIs" dxfId="217" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="461" operator="equal">
       <formula>$J293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L299">
-    <cfRule type="cellIs" dxfId="216" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="460" operator="equal">
       <formula>$L293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M299">
-    <cfRule type="cellIs" dxfId="215" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="459" operator="equal">
       <formula>$M293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I300">
-    <cfRule type="cellIs" dxfId="214" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="457" operator="equal">
       <formula>$I294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J300">
-    <cfRule type="cellIs" dxfId="213" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="456" operator="equal">
       <formula>$J294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L300">
-    <cfRule type="cellIs" dxfId="212" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="455" operator="equal">
       <formula>$L294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M300">
-    <cfRule type="cellIs" dxfId="211" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="454" operator="equal">
       <formula>$M294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K300">
-    <cfRule type="cellIs" dxfId="210" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="458" operator="equal">
       <formula>$K294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I301">
-    <cfRule type="cellIs" dxfId="209" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="452" operator="equal">
       <formula>$I295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J301">
-    <cfRule type="cellIs" dxfId="208" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="451" operator="equal">
       <formula>$J295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L301">
-    <cfRule type="cellIs" dxfId="207" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="450" operator="equal">
       <formula>$L295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M301">
-    <cfRule type="cellIs" dxfId="206" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="449" operator="equal">
       <formula>$M295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K301">
-    <cfRule type="cellIs" dxfId="205" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="453" operator="equal">
       <formula>$K295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I303">
-    <cfRule type="cellIs" dxfId="204" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="447" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J303">
-    <cfRule type="cellIs" dxfId="203" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="446" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L303">
-    <cfRule type="cellIs" dxfId="202" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="445" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M303">
-    <cfRule type="cellIs" dxfId="201" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="444" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K303">
-    <cfRule type="cellIs" dxfId="200" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="448" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I302">
-    <cfRule type="cellIs" dxfId="199" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="442" operator="equal">
       <formula>$I295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J302">
-    <cfRule type="cellIs" dxfId="198" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="441" operator="equal">
       <formula>$J295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L302">
-    <cfRule type="cellIs" dxfId="197" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="440" operator="equal">
       <formula>$L295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M302">
-    <cfRule type="cellIs" dxfId="196" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="439" operator="equal">
       <formula>$M295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K302">
-    <cfRule type="cellIs" dxfId="195" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="443" operator="equal">
       <formula>$K295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K297">
-    <cfRule type="cellIs" dxfId="194" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="438" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L297">
-    <cfRule type="cellIs" dxfId="193" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="437" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M297">
-    <cfRule type="cellIs" dxfId="192" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="436" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J297">
-    <cfRule type="cellIs" dxfId="191" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="435" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I297">
-    <cfRule type="cellIs" dxfId="190" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="434" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15 S171">
-    <cfRule type="cellIs" dxfId="189" priority="1016" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="1021" operator="equal">
       <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 I15 I171 B171">
-    <cfRule type="cellIs" dxfId="188" priority="1019" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="1024" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15 J171">
-    <cfRule type="cellIs" dxfId="187" priority="1021" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="1026" operator="equal">
       <formula>$J10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15 L171">
-    <cfRule type="cellIs" dxfId="186" priority="1022" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="1027" operator="equal">
       <formula>$L10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15 M171">
-    <cfRule type="cellIs" dxfId="185" priority="1023" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="1028" operator="equal">
       <formula>$M10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15 K171">
-    <cfRule type="cellIs" dxfId="184" priority="1024" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="1029" operator="equal">
       <formula>$K10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="183" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="426" operator="equal">
       <formula>$K9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="182" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="401" operator="equal">
       <formula>$M10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="181" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="397" operator="equal">
       <formula>$M11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="180" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="396" operator="equal">
       <formula>$M12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="179" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="395" operator="equal">
       <formula>$M13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="cellIs" dxfId="178" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="394" operator="equal">
       <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12">
-    <cfRule type="cellIs" dxfId="177" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="393" operator="equal">
       <formula>$S11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13">
-    <cfRule type="cellIs" dxfId="176" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="392" operator="equal">
       <formula>$S12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="175" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="391" operator="equal">
       <formula>$S13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="174" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="390" operator="equal">
       <formula>$K11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="173" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="389" operator="equal">
       <formula>$K12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="172" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="388" operator="equal">
       <formula>$K13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="171" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="387" operator="equal">
       <formula>$L10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="170" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="386" operator="equal">
       <formula>$L11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="169" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="385" operator="equal">
       <formula>$L12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="168" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="384" operator="equal">
       <formula>$L13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="167" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="383" operator="equal">
       <formula>$J10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="166" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="382" operator="equal">
       <formula>$J11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="165" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="381" operator="equal">
       <formula>$J12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="164" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="380" operator="equal">
       <formula>$J13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="163" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="377" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="162" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="376" operator="equal">
       <formula>$I11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="161" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="375" operator="equal">
       <formula>$I12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="160" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="374" operator="equal">
       <formula>$I13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="159" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="373" operator="equal">
       <formula>$I6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="158" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="372" operator="equal">
       <formula>$I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="157" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="371" operator="equal">
       <formula>$I8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J265">
-    <cfRule type="cellIs" dxfId="156" priority="1029" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="1034" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L265">
-    <cfRule type="cellIs" dxfId="155" priority="1032" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="1037" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M265">
-    <cfRule type="cellIs" dxfId="154" priority="1034" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="1039" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K265">
-    <cfRule type="cellIs" dxfId="153" priority="1036" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="1041" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K156">
-    <cfRule type="cellIs" dxfId="152" priority="1046" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="1051" operator="equal">
       <formula>$K143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189">
-    <cfRule type="cellIs" dxfId="151" priority="1048" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="1053" operator="equal">
       <formula>$S143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S104 S184 S151 S218 S237">
-    <cfRule type="cellIs" dxfId="150" priority="1060" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="1065" operator="equal">
       <formula>$S102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146">
-    <cfRule type="cellIs" dxfId="149" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="324" operator="equal">
       <formula>$I144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I144">
-    <cfRule type="cellIs" dxfId="148" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="322" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="147" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="321" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144">
-    <cfRule type="cellIs" dxfId="146" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="323" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S144">
-    <cfRule type="cellIs" dxfId="145" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="331" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S146">
-    <cfRule type="cellIs" dxfId="144" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="332" operator="equal">
       <formula>$S144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S145">
-    <cfRule type="cellIs" dxfId="143" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="319" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L147">
-    <cfRule type="cellIs" dxfId="142" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="317" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M147">
-    <cfRule type="cellIs" dxfId="141" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="316" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144:K147">
-    <cfRule type="cellIs" dxfId="140" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="318" operator="equal">
       <formula>$K143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J146">
-    <cfRule type="cellIs" dxfId="139" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="307" operator="equal">
       <formula>$J145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145:I146">
-    <cfRule type="cellIs" dxfId="138" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="315" operator="equal">
       <formula>$I144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145:J146">
-    <cfRule type="cellIs" dxfId="137" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="314" operator="equal">
       <formula>$J144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L147">
-    <cfRule type="cellIs" dxfId="136" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="313" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M147">
-    <cfRule type="cellIs" dxfId="135" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="312" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L145">
-    <cfRule type="cellIs" dxfId="134" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="311" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M145">
-    <cfRule type="cellIs" dxfId="133" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="310" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L145">
-    <cfRule type="cellIs" dxfId="132" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="309" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M145">
-    <cfRule type="cellIs" dxfId="131" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="308" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="130" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="306" operator="equal">
       <formula>$J143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="129" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="305" operator="equal">
       <formula>$J143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S155">
-    <cfRule type="cellIs" dxfId="128" priority="1064" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="1069" operator="equal">
       <formula>$S264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="cellIs" dxfId="127" priority="1071" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="1076" operator="equal">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I149">
-    <cfRule type="cellIs" dxfId="126" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="235" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="125" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="234" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="124" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="236" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B149:B150">
-    <cfRule type="cellIs" dxfId="123" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="233" operator="equal">
       <formula>$I62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S149">
-    <cfRule type="cellIs" dxfId="122" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="244" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S150">
-    <cfRule type="cellIs" dxfId="121" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="232" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="120" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="228" operator="equal">
       <formula>$J258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="119" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="227" operator="equal">
       <formula>$J258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="118" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="246" operator="equal">
       <formula>$L258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="117" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="247" operator="equal">
       <formula>$M258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="116" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="248" operator="equal">
       <formula>$K258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S74">
-    <cfRule type="cellIs" dxfId="115" priority="1077" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="1082" operator="equal">
       <formula>$S73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S83">
-    <cfRule type="cellIs" dxfId="114" priority="1099" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="1104" operator="equal">
       <formula>$S81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="113" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="166" operator="equal">
       <formula>$I81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="cellIs" dxfId="112" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="165" operator="equal">
       <formula>$J81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L82">
-    <cfRule type="cellIs" dxfId="111" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="164" operator="equal">
       <formula>$L81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82">
-    <cfRule type="cellIs" dxfId="110" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="163" operator="equal">
       <formula>$M81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K82">
-    <cfRule type="cellIs" dxfId="109" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="167" operator="equal">
       <formula>$K81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="108" priority="1100" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="1105" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="cellIs" dxfId="107" priority="1102" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="1107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2 B2">
-    <cfRule type="cellIs" dxfId="106" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="140" operator="equal">
       <formula>$I276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="cellIs" dxfId="105" priority="1113" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="1118" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S148">
-    <cfRule type="cellIs" dxfId="104" priority="1131" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="1136" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="103" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="138" operator="equal">
       <formula>$I101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J103">
-    <cfRule type="cellIs" dxfId="102" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="137" operator="equal">
       <formula>$J101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L103">
-    <cfRule type="cellIs" dxfId="101" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="136" operator="equal">
       <formula>$L101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M103">
-    <cfRule type="cellIs" dxfId="100" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="135" operator="equal">
       <formula>$M101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K103">
-    <cfRule type="cellIs" dxfId="99" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="139" operator="equal">
       <formula>$K101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="98" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="123" operator="equal">
       <formula>$L147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="97" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="122" operator="equal">
       <formula>$L147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="96" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="121" operator="equal">
       <formula>$L147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K148">
-    <cfRule type="cellIs" dxfId="95" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="118" operator="equal">
       <formula>$K147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K148">
-    <cfRule type="cellIs" dxfId="94" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="117" operator="equal">
       <formula>$K147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J148">
-    <cfRule type="cellIs" dxfId="93" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="115" operator="equal">
       <formula>$J147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I148">
-    <cfRule type="cellIs" dxfId="92" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="114" operator="equal">
       <formula>$I147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I217">
-    <cfRule type="cellIs" dxfId="91" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="109" operator="equal">
       <formula>$I215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J217">
-    <cfRule type="cellIs" dxfId="90" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="108" operator="equal">
       <formula>$J215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L217">
-    <cfRule type="cellIs" dxfId="89" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="107" operator="equal">
       <formula>$L215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M217">
-    <cfRule type="cellIs" dxfId="88" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="106" operator="equal">
       <formula>$M215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K217">
-    <cfRule type="cellIs" dxfId="87" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="110" operator="equal">
       <formula>$K215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S217">
-    <cfRule type="cellIs" dxfId="86" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="111" operator="equal">
       <formula>$S215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="85" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="105" operator="equal">
       <formula>$I156</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="84" priority="1191" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="1196" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75">
-    <cfRule type="cellIs" dxfId="83" priority="1193" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="1198" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75">
-    <cfRule type="cellIs" dxfId="82" priority="1195" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="1200" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75">
-    <cfRule type="cellIs" dxfId="81" priority="1197" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1202" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75">
-    <cfRule type="cellIs" dxfId="80" priority="1204" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1209" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S75">
-    <cfRule type="cellIs" dxfId="79" priority="1206" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="1211" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M146">
-    <cfRule type="cellIs" dxfId="78" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="104" operator="equal">
       <formula>$M145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M146">
-    <cfRule type="cellIs" dxfId="77" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="103" operator="equal">
       <formula>$M145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="76" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="102" operator="equal">
       <formula>$M146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="75" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="101" operator="equal">
       <formula>$M146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="74" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="100" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="73" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="99" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="72" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="98" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="71" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="97" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I236 B236">
-    <cfRule type="cellIs" dxfId="70" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="91" operator="equal">
       <formula>$I235</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J236">
-    <cfRule type="cellIs" dxfId="69" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="90" operator="equal">
       <formula>$J235</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L236">
-    <cfRule type="cellIs" dxfId="68" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="89" operator="equal">
       <formula>$L235</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M236">
-    <cfRule type="cellIs" dxfId="67" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="88" operator="equal">
       <formula>$M235</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K236">
-    <cfRule type="cellIs" dxfId="66" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="92" operator="equal">
       <formula>$K235</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S236">
-    <cfRule type="cellIs" dxfId="65" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="87" operator="equal">
       <formula>$S235</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M339:M358">
-    <cfRule type="cellIs" dxfId="64" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="52" operator="equal">
       <formula>$M338</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I336">
-    <cfRule type="cellIs" dxfId="63" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="75" operator="equal">
       <formula>$I335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J336">
-    <cfRule type="cellIs" dxfId="62" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="74" operator="equal">
       <formula>$J335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L336">
-    <cfRule type="cellIs" dxfId="61" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="73" operator="equal">
       <formula>$L335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M336">
-    <cfRule type="cellIs" dxfId="60" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="72" operator="equal">
       <formula>$M335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K336">
-    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="76" operator="equal">
       <formula>$K335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L337">
-    <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M337">
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L339:L358">
-    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
       <formula>$L338</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K339:K358">
-    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>$K338</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I337">
-    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K337">
-    <cfRule type="cellIs" dxfId="53" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I338">
-    <cfRule type="cellIs" dxfId="52" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J338">
-    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L338">
-    <cfRule type="cellIs" dxfId="50" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M338">
-    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K338">
-    <cfRule type="cellIs" dxfId="48" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J339:J358">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
       <formula>$J338</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M359">
-    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>$M358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L359">
-    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>$L358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K359">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="51" operator="equal">
       <formula>$K358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J359">
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
       <formula>$J358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I363">
-    <cfRule type="cellIs" dxfId="42" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="82" operator="equal">
       <formula>$I358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J363">
-    <cfRule type="cellIs" dxfId="41" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="83" operator="equal">
       <formula>$J358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L363">
-    <cfRule type="cellIs" dxfId="40" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="84" operator="equal">
       <formula>$L358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M363">
-    <cfRule type="cellIs" dxfId="39" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="85" operator="equal">
       <formula>$M358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K363">
-    <cfRule type="cellIs" dxfId="38" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="86" operator="equal">
       <formula>$K358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M360">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
       <formula>$M359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L360">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
       <formula>$L359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K360">
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
       <formula>$K359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J360">
-    <cfRule type="cellIs" dxfId="34" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
       <formula>$J359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M362">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
       <formula>$M360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L362">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
       <formula>$L360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K362">
-    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
       <formula>$K360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J362">
-    <cfRule type="cellIs" dxfId="30" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
       <formula>$J360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M361">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
       <formula>$M359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L361">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
       <formula>$L359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K361">
-    <cfRule type="cellIs" dxfId="27" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>$K359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J361">
-    <cfRule type="cellIs" dxfId="26" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>$J359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I339:I362">
-    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="35" operator="equal">
       <formula>$I338</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J337">
-    <cfRule type="cellIs" dxfId="24" priority="1207" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1212" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J369">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>$J376</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L369">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
       <formula>$L376</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M369">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
       <formula>$M376</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K369">
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
       <formula>$K376</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S369">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>$S368</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J371:J372">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>$J370</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L371:L372">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>$L370</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M371:M372">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>$M370</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K371:K372">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>$K370</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J370">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>$J368</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L370">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>$L368</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M370">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>$M368</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K370">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>$K368</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M365:M366">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>$M364</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M367:M368">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>$M366</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I366:I372">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>$M365</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I364">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>$M364</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M367:M368">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I365">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>$M366</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I366:I372">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>$M365</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I364">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I365">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$I364</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I373:I374">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>$I372</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J373:J374">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>$J372</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L373:L374">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>$L372</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M373:M374">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$M372</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K373:K374">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>$K372</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5020369F-130A-439D-9DF2-F4A9074A830E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B062B32-80AF-45D5-82D7-CF89F64A2F0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当資料の使い方" sheetId="26" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6021" uniqueCount="1473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6022" uniqueCount="1474">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -5938,6 +5938,10 @@
   <si>
     <t>webFrontController</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>nablarch-default-configuration\nablarch-main-default-configuration\src\main\resources\nablarch\webui\redisstore-lettuce-client.xml</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -6458,18 +6462,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6491,11 +6483,95 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="421">
+  <dxfs count="427">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -12063,7 +12139,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -12093,14 +12169,14 @@
       <c r="B1" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="78" t="s">
         <v>795</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="4" t="s">
         <v>790</v>
       </c>
@@ -32491,7 +32567,7 @@
         <v>1429</v>
       </c>
       <c r="M364" s="66" t="s">
-        <v>1431</v>
+        <v>1473</v>
       </c>
       <c r="N364" s="36" t="s">
         <v>1432</v>
@@ -32666,7 +32742,7 @@
       </c>
       <c r="S367" s="33"/>
     </row>
-    <row r="368" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:19" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="2">
         <f t="shared" si="6"/>
         <v>366</v>
@@ -32700,7 +32776,9 @@
       <c r="L368" s="2" t="s">
         <v>1455</v>
       </c>
-      <c r="M368" s="2"/>
+      <c r="M368" s="66" t="s">
+        <v>1431</v>
+      </c>
       <c r="N368" s="36" t="s">
         <v>1457</v>
       </c>
@@ -32752,7 +32830,7 @@
       <c r="L369" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="M369" s="50"/>
+      <c r="M369" s="41"/>
       <c r="N369" s="24" t="s">
         <v>314</v>
       </c>
@@ -32804,7 +32882,7 @@
       <c r="L370" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="M370" s="50"/>
+      <c r="M370" s="2"/>
       <c r="N370" s="24" t="s">
         <v>322</v>
       </c>
@@ -32926,119 +33004,119 @@
       </c>
       <c r="S372" s="33"/>
     </row>
-    <row r="373" spans="1:19" s="80" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A373" s="75">
+    <row r="373" spans="1:19" s="76" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="71">
         <f t="shared" si="6"/>
         <v>371</v>
       </c>
-      <c r="B373" s="76" t="s">
+      <c r="B373" s="72" t="s">
         <v>1461</v>
       </c>
-      <c r="C373" s="77" t="s">
-        <v>899</v>
-      </c>
-      <c r="D373" s="77" t="s">
-        <v>899</v>
-      </c>
-      <c r="E373" s="77" t="s">
-        <v>899</v>
-      </c>
-      <c r="F373" s="77" t="s">
-        <v>899</v>
-      </c>
-      <c r="G373" s="77" t="s">
-        <v>899</v>
-      </c>
-      <c r="H373" s="77" t="s">
-        <v>899</v>
-      </c>
-      <c r="I373" s="75" t="s">
+      <c r="C373" s="73" t="s">
+        <v>899</v>
+      </c>
+      <c r="D373" s="73" t="s">
+        <v>899</v>
+      </c>
+      <c r="E373" s="73" t="s">
+        <v>899</v>
+      </c>
+      <c r="F373" s="73" t="s">
+        <v>899</v>
+      </c>
+      <c r="G373" s="73" t="s">
+        <v>899</v>
+      </c>
+      <c r="H373" s="73" t="s">
+        <v>899</v>
+      </c>
+      <c r="I373" s="71" t="s">
         <v>1462</v>
       </c>
-      <c r="J373" s="75" t="s">
+      <c r="J373" s="71" t="s">
         <v>1463</v>
       </c>
-      <c r="K373" s="75" t="s">
+      <c r="K373" s="71" t="s">
         <v>1464</v>
       </c>
-      <c r="L373" s="75" t="s">
+      <c r="L373" s="71" t="s">
         <v>1465</v>
       </c>
-      <c r="M373" s="75" t="s">
+      <c r="M373" s="71" t="s">
         <v>1466</v>
       </c>
-      <c r="N373" s="77" t="s">
+      <c r="N373" s="73" t="s">
         <v>1015</v>
       </c>
-      <c r="O373" s="77" t="s">
+      <c r="O373" s="73" t="s">
         <v>1467</v>
       </c>
-      <c r="P373" s="77" t="s">
+      <c r="P373" s="73" t="s">
         <v>1016</v>
       </c>
-      <c r="Q373" s="77" t="s">
+      <c r="Q373" s="73" t="s">
         <v>1468</v>
       </c>
-      <c r="R373" s="78" t="s">
+      <c r="R373" s="74" t="s">
         <v>1204</v>
       </c>
-      <c r="S373" s="79"/>
-    </row>
-    <row r="374" spans="1:19" s="80" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A374" s="75">
+      <c r="S373" s="75"/>
+    </row>
+    <row r="374" spans="1:19" s="76" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="71">
         <f t="shared" si="6"/>
         <v>372</v>
       </c>
-      <c r="B374" s="81"/>
-      <c r="C374" s="77" t="s">
-        <v>899</v>
-      </c>
-      <c r="D374" s="77" t="s">
-        <v>899</v>
-      </c>
-      <c r="E374" s="77" t="s">
-        <v>899</v>
-      </c>
-      <c r="F374" s="77" t="s">
-        <v>899</v>
-      </c>
-      <c r="G374" s="77" t="s">
-        <v>899</v>
-      </c>
-      <c r="H374" s="77" t="s">
-        <v>899</v>
-      </c>
-      <c r="I374" s="75" t="s">
+      <c r="B374" s="77"/>
+      <c r="C374" s="73" t="s">
+        <v>899</v>
+      </c>
+      <c r="D374" s="73" t="s">
+        <v>899</v>
+      </c>
+      <c r="E374" s="73" t="s">
+        <v>899</v>
+      </c>
+      <c r="F374" s="73" t="s">
+        <v>899</v>
+      </c>
+      <c r="G374" s="73" t="s">
+        <v>899</v>
+      </c>
+      <c r="H374" s="73" t="s">
+        <v>899</v>
+      </c>
+      <c r="I374" s="71" t="s">
         <v>1462</v>
       </c>
-      <c r="J374" s="75" t="s">
+      <c r="J374" s="71" t="s">
         <v>1463</v>
       </c>
-      <c r="K374" s="75" t="s">
+      <c r="K374" s="71" t="s">
         <v>1464</v>
       </c>
-      <c r="L374" s="75" t="s">
+      <c r="L374" s="71" t="s">
         <v>1465</v>
       </c>
-      <c r="M374" s="75" t="s">
+      <c r="M374" s="71" t="s">
         <v>1466</v>
       </c>
-      <c r="N374" s="77" t="s">
+      <c r="N374" s="73" t="s">
         <v>1469</v>
       </c>
-      <c r="O374" s="77" t="s">
+      <c r="O374" s="73" t="s">
         <v>1470</v>
       </c>
-      <c r="P374" s="77" t="s">
+      <c r="P374" s="73" t="s">
         <v>1471</v>
       </c>
-      <c r="Q374" s="77" t="s">
+      <c r="Q374" s="73" t="s">
         <v>1468</v>
       </c>
-      <c r="R374" s="78" t="s">
+      <c r="R374" s="74" t="s">
         <v>1472</v>
       </c>
-      <c r="S374" s="79"/>
+      <c r="S374" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:T335" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -33047,2108 +33125,2103 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I190:I194 B190:B194 I243:I247 B243:B247 I122:I139 B122:B139 I249:I258 I84:I87 B249:B258 I141:I143 B141:B143 I260:I263 B260:B263 I332:I335 I308:I313 I267:I296 I16:I30 B4:B10 B16:B30 I4:I10 B32:B73 I32:I73 B147 I147 I89:I102 I105:I120 B105:B120 I185:I186 B185:B186 I172:I178 B172:B178 I157:I170 B157:B170 B152:B154 I150:I154 I180:I183 B180:B183 B84:B102 I196:I216 B196:B216 I76:I81 B76:B82 I219:I235 I238:I241 B219:B235 B238:B241">
-    <cfRule type="cellIs" dxfId="420" priority="592" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="594" operator="equal">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J190:J194 J243:J247 J122:J139 J249:J258 J141:J143 J260:J263 J332:J335 J308:J313 J4:J10 J16:J30 J266:J296 J32:J73 J145:J147 J96:J102 J105:J120 J185:J186 J172:J178 J157:J170 J150:J154 J180:J183 J84:J94 J196:J216 J76:J81 J219:J235 J238:J241">
-    <cfRule type="cellIs" dxfId="419" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="593" operator="equal">
       <formula>$J3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J189">
-    <cfRule type="cellIs" dxfId="418" priority="594" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="596" operator="equal">
       <formula>$J2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L190:L194 L243:L247 L122:L139 L249:L258 L141:L143 L260:L263 L332:L335 L308:L313 L16:L30 L4:L10 L266:L296 L32:L73 L146:L147 L96:L102 L105:L120 L185:L186 L172:L178 L157:L170 L150:L154 L180:L183 L84:L94 L196:L216 L76:L81 L219:L235 L238:L241">
-    <cfRule type="cellIs" dxfId="417" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="591" operator="equal">
       <formula>$L3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M190:M194 M243:M247 M122:M139 M249:M258 M141:M143 M260:M263 M332:M335 M308:M313 M4:M10 M16:M30 M266:M296 M32:M73 M146:M147 M96:M102 M105:M120 M185:M186 M172:M178 M157:M170 M150:M154 M180:M183 M84:M94 M196:M216 M76:M81 M219:M235 M238:M241">
-    <cfRule type="cellIs" dxfId="416" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="590" operator="equal">
       <formula>$M3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121 B121">
-    <cfRule type="cellIs" dxfId="415" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="602" operator="equal">
       <formula>$I94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J121">
-    <cfRule type="cellIs" dxfId="414" priority="603" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="605" operator="equal">
       <formula>$J94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121">
-    <cfRule type="cellIs" dxfId="413" priority="606" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="608" operator="equal">
       <formula>$L94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M121">
-    <cfRule type="cellIs" dxfId="412" priority="609" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="611" operator="equal">
       <formula>$M94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I140 B140">
-    <cfRule type="cellIs" dxfId="411" priority="618" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="620" operator="equal">
       <formula>$I120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J95">
-    <cfRule type="cellIs" dxfId="410" priority="621" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="623" operator="equal">
       <formula>$J139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J140">
-    <cfRule type="cellIs" dxfId="409" priority="622" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="624" operator="equal">
       <formula>$J120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L95">
-    <cfRule type="cellIs" dxfId="408" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="627" operator="equal">
       <formula>$L139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L140">
-    <cfRule type="cellIs" dxfId="407" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="628" operator="equal">
       <formula>$L120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M95">
-    <cfRule type="cellIs" dxfId="406" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="631" operator="equal">
       <formula>$M139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M140">
-    <cfRule type="cellIs" dxfId="405" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="632" operator="equal">
       <formula>$M120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="cellIs" dxfId="404" priority="582" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="584" operator="equal">
       <formula>$I132</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I259 B259">
-    <cfRule type="cellIs" dxfId="403" priority="636" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="638" operator="equal">
       <formula>$I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J259">
-    <cfRule type="cellIs" dxfId="402" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="644" operator="equal">
       <formula>$J30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L259">
-    <cfRule type="cellIs" dxfId="401" priority="646" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="648" operator="equal">
       <formula>$L30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M259">
-    <cfRule type="cellIs" dxfId="400" priority="649" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="651" operator="equal">
       <formula>$M30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L189">
-    <cfRule type="cellIs" dxfId="399" priority="663" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="665" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M189">
-    <cfRule type="cellIs" dxfId="398" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="669" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="397" priority="674" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="676" operator="equal">
       <formula>$I241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J195">
-    <cfRule type="cellIs" dxfId="396" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="682" operator="equal">
       <formula>$J73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L195">
-    <cfRule type="cellIs" dxfId="395" priority="684" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="686" operator="equal">
       <formula>$L73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M195">
-    <cfRule type="cellIs" dxfId="394" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="689" operator="equal">
       <formula>$M73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3 B3">
-    <cfRule type="cellIs" dxfId="393" priority="716" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="718" operator="equal">
       <formula>$I194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="392" priority="718" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="720" operator="equal">
       <formula>$J194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="391" priority="719" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="721" operator="equal">
       <formula>$L194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="390" priority="720" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="722" operator="equal">
       <formula>$M194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="cellIs" dxfId="389" priority="723" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="725" operator="equal">
       <formula>$I241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74">
-    <cfRule type="cellIs" dxfId="388" priority="729" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="731" operator="equal">
       <formula>$J241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L74">
-    <cfRule type="cellIs" dxfId="387" priority="733" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="735" operator="equal">
       <formula>$L241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74">
-    <cfRule type="cellIs" dxfId="386" priority="736" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="738" operator="equal">
       <formula>$M241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195 I195">
-    <cfRule type="cellIs" dxfId="385" priority="779" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="781" operator="equal">
       <formula>$I73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I242 B242">
-    <cfRule type="cellIs" dxfId="384" priority="782" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="784" operator="equal">
       <formula>$I81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J242">
-    <cfRule type="cellIs" dxfId="383" priority="788" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="790" operator="equal">
       <formula>$J81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L242">
-    <cfRule type="cellIs" dxfId="382" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="793" operator="equal">
       <formula>$L81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M242">
-    <cfRule type="cellIs" dxfId="381" priority="794" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="796" operator="equal">
       <formula>$M81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I155 B155">
-    <cfRule type="cellIs" dxfId="380" priority="799" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="801" operator="equal">
       <formula>$I74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155">
-    <cfRule type="cellIs" dxfId="379" priority="801" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="803" operator="equal">
       <formula>$J74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L155">
-    <cfRule type="cellIs" dxfId="378" priority="802" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="804" operator="equal">
       <formula>$L74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M155">
-    <cfRule type="cellIs" dxfId="377" priority="803" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="805" operator="equal">
       <formula>$M74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I264 B264">
-    <cfRule type="cellIs" dxfId="376" priority="806" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="808" operator="equal">
       <formula>$I247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J264">
-    <cfRule type="cellIs" dxfId="375" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="814" operator="equal">
       <formula>$J247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L264">
-    <cfRule type="cellIs" dxfId="374" priority="815" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="817" operator="equal">
       <formula>$L247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M264">
-    <cfRule type="cellIs" dxfId="373" priority="818" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="820" operator="equal">
       <formula>$M247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83 B83">
-    <cfRule type="cellIs" dxfId="372" priority="851" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="853" operator="equal">
       <formula>$I258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83">
-    <cfRule type="cellIs" dxfId="371" priority="861" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="863" operator="equal">
       <formula>$J258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83">
-    <cfRule type="cellIs" dxfId="370" priority="867" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="869" operator="equal">
       <formula>$L258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83">
-    <cfRule type="cellIs" dxfId="369" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="875" operator="equal">
       <formula>$M258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I156 B156">
-    <cfRule type="cellIs" dxfId="368" priority="899" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="901" operator="equal">
       <formula>$I143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J156">
-    <cfRule type="cellIs" dxfId="367" priority="901" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="903" operator="equal">
       <formula>$J143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L156">
-    <cfRule type="cellIs" dxfId="366" priority="902" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="904" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156">
-    <cfRule type="cellIs" dxfId="365" priority="903" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="905" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31 B31">
-    <cfRule type="cellIs" dxfId="364" priority="912" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="914" operator="equal">
       <formula>$I263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="363" priority="914" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="916" operator="equal">
       <formula>$J263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="362" priority="915" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="917" operator="equal">
       <formula>$L263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
-    <cfRule type="cellIs" dxfId="361" priority="916" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="918" operator="equal">
       <formula>$M263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I248 B248">
-    <cfRule type="cellIs" dxfId="360" priority="919" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="921" operator="equal">
       <formula>$I264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J248">
-    <cfRule type="cellIs" dxfId="359" priority="921" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="923" operator="equal">
       <formula>$J264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L248">
-    <cfRule type="cellIs" dxfId="358" priority="922" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="924" operator="equal">
       <formula>$L264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M248">
-    <cfRule type="cellIs" dxfId="357" priority="923" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="925" operator="equal">
       <formula>$M264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I187:I188 B187:B188">
-    <cfRule type="cellIs" dxfId="356" priority="944" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="946" operator="equal">
       <formula>$I178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I179 B179">
-    <cfRule type="cellIs" dxfId="355" priority="945" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="947" operator="equal">
       <formula>$I187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J187:J188">
-    <cfRule type="cellIs" dxfId="354" priority="950" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="952" operator="equal">
       <formula>$J178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J179">
-    <cfRule type="cellIs" dxfId="353" priority="951" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="953" operator="equal">
       <formula>$J187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L187:L188">
-    <cfRule type="cellIs" dxfId="352" priority="953" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="955" operator="equal">
       <formula>$L178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L179">
-    <cfRule type="cellIs" dxfId="351" priority="954" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="956" operator="equal">
       <formula>$L187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M187:M188">
-    <cfRule type="cellIs" dxfId="350" priority="956" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="958" operator="equal">
       <formula>$M178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M179">
-    <cfRule type="cellIs" dxfId="349" priority="957" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="959" operator="equal">
       <formula>$M187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K190:K194 K243:K247 K122:K139 K249:K258 K141:K143 K260:K263 K332:K335 K308:K313 K4:K10 K16:K30 K266:K296 K32:K73 K146:K147 K96:K102 K105:K120 K185:K186 K172:K178 K157:K170 K150:K154 K180:K183 K84:K94 K196:K216 K76:K81 K219:K235 K238:K241">
-    <cfRule type="cellIs" dxfId="348" priority="961" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="963" operator="equal">
       <formula>$K3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K121">
-    <cfRule type="cellIs" dxfId="347" priority="976" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="978" operator="equal">
       <formula>$K94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K95">
-    <cfRule type="cellIs" dxfId="346" priority="977" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="979" operator="equal">
       <formula>$K139</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K140">
-    <cfRule type="cellIs" dxfId="345" priority="978" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="980" operator="equal">
       <formula>$K120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K259">
-    <cfRule type="cellIs" dxfId="344" priority="979" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="981" operator="equal">
       <formula>$K30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K189">
-    <cfRule type="cellIs" dxfId="343" priority="980" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="982" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195">
-    <cfRule type="cellIs" dxfId="342" priority="981" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="983" operator="equal">
       <formula>$K73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="341" priority="982" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="984" operator="equal">
       <formula>$K194</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74">
-    <cfRule type="cellIs" dxfId="340" priority="983" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="985" operator="equal">
       <formula>$K241</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K242">
-    <cfRule type="cellIs" dxfId="339" priority="984" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="986" operator="equal">
       <formula>$K81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K155">
-    <cfRule type="cellIs" dxfId="338" priority="985" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="987" operator="equal">
       <formula>$K74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K264">
-    <cfRule type="cellIs" dxfId="337" priority="986" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="988" operator="equal">
       <formula>$K247</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83">
-    <cfRule type="cellIs" dxfId="336" priority="988" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="990" operator="equal">
       <formula>$K258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="cellIs" dxfId="335" priority="990" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="992" operator="equal">
       <formula>$K263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K248">
-    <cfRule type="cellIs" dxfId="334" priority="991" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="993" operator="equal">
       <formula>$K264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K187:K188">
-    <cfRule type="cellIs" dxfId="333" priority="993" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="995" operator="equal">
       <formula>$K178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K179">
-    <cfRule type="cellIs" dxfId="332" priority="994" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="996" operator="equal">
       <formula>$K187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S73 S4:S10 S147 S105:S143 S185:S188 S156:S170 S152:S154 S172:S183 S84:S103 S190:S216 S76:S82 S219:S235 S238:S264">
-    <cfRule type="cellIs" dxfId="331" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="583" operator="equal">
       <formula>$S3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265">
-    <cfRule type="cellIs" dxfId="330" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="582" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I266">
-    <cfRule type="cellIs" dxfId="329" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="581" operator="equal">
       <formula>$I265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I314">
-    <cfRule type="cellIs" dxfId="328" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="574" operator="equal">
       <formula>$I313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J314">
-    <cfRule type="cellIs" dxfId="327" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="573" operator="equal">
       <formula>$J313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L314">
-    <cfRule type="cellIs" dxfId="326" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="572" operator="equal">
       <formula>$L313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M314">
-    <cfRule type="cellIs" dxfId="325" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="571" operator="equal">
       <formula>$M313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K314">
-    <cfRule type="cellIs" dxfId="324" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="575" operator="equal">
       <formula>$K313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I331">
-    <cfRule type="cellIs" dxfId="323" priority="995" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="997" operator="equal">
       <formula>$I313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J331">
-    <cfRule type="cellIs" dxfId="322" priority="996" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="998" operator="equal">
       <formula>$J313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L331">
-    <cfRule type="cellIs" dxfId="321" priority="997" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="999" operator="equal">
       <formula>$L313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M331">
-    <cfRule type="cellIs" dxfId="320" priority="998" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="1000" operator="equal">
       <formula>$M313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K331">
-    <cfRule type="cellIs" dxfId="319" priority="999" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="1001" operator="equal">
       <formula>$K313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I315">
-    <cfRule type="cellIs" dxfId="318" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="569" operator="equal">
       <formula>$I314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J315">
-    <cfRule type="cellIs" dxfId="317" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="568" operator="equal">
       <formula>$J314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L315">
-    <cfRule type="cellIs" dxfId="316" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="567" operator="equal">
       <formula>$L314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M315">
-    <cfRule type="cellIs" dxfId="315" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="566" operator="equal">
       <formula>$M314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K315">
-    <cfRule type="cellIs" dxfId="314" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="570" operator="equal">
       <formula>$K314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I325">
-    <cfRule type="cellIs" dxfId="313" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="564" operator="equal">
       <formula>$I315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J325">
-    <cfRule type="cellIs" dxfId="312" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="563" operator="equal">
       <formula>$J315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L325">
-    <cfRule type="cellIs" dxfId="311" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="562" operator="equal">
       <formula>$L315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M325">
-    <cfRule type="cellIs" dxfId="310" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="561" operator="equal">
       <formula>$M315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K325">
-    <cfRule type="cellIs" dxfId="309" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="565" operator="equal">
       <formula>$K315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I316 I104 I184 B184 B151 I218 B103:B104 B217:B218 I237 B237">
-    <cfRule type="cellIs" dxfId="308" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="559" operator="equal">
       <formula>$I101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J316 J104 J184 J218 J237">
-    <cfRule type="cellIs" dxfId="307" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="558" operator="equal">
       <formula>$J102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L316 L104 L184 L218 L237">
-    <cfRule type="cellIs" dxfId="306" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="557" operator="equal">
       <formula>$L102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M316 M104 M184 M218 M237">
-    <cfRule type="cellIs" dxfId="305" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="556" operator="equal">
       <formula>$M102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K316 K104 K184 K218 K237">
-    <cfRule type="cellIs" dxfId="304" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="560" operator="equal">
       <formula>$K102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I322">
-    <cfRule type="cellIs" dxfId="303" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="554" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J322">
-    <cfRule type="cellIs" dxfId="302" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="553" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L322">
-    <cfRule type="cellIs" dxfId="301" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="552" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M322">
-    <cfRule type="cellIs" dxfId="300" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="551" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K322">
-    <cfRule type="cellIs" dxfId="299" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="555" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I323">
-    <cfRule type="cellIs" dxfId="298" priority="547" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="549" operator="equal">
       <formula>$I322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J323">
-    <cfRule type="cellIs" dxfId="297" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="548" operator="equal">
       <formula>$J322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L323">
-    <cfRule type="cellIs" dxfId="296" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="547" operator="equal">
       <formula>$L322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M323">
-    <cfRule type="cellIs" dxfId="295" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="546" operator="equal">
       <formula>$M322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K323">
-    <cfRule type="cellIs" dxfId="294" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="550" operator="equal">
       <formula>$K322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I324">
-    <cfRule type="cellIs" dxfId="293" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="544" operator="equal">
       <formula>$I322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J324">
-    <cfRule type="cellIs" dxfId="292" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="543" operator="equal">
       <formula>$J322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L324">
-    <cfRule type="cellIs" dxfId="291" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="542" operator="equal">
       <formula>$L322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M324">
-    <cfRule type="cellIs" dxfId="290" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="541" operator="equal">
       <formula>$M322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K324">
-    <cfRule type="cellIs" dxfId="289" priority="543" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="545" operator="equal">
       <formula>$K322</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I317 B14">
-    <cfRule type="cellIs" dxfId="288" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="539" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J317">
-    <cfRule type="cellIs" dxfId="287" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="538" operator="equal">
       <formula>$J313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L317">
-    <cfRule type="cellIs" dxfId="286" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="537" operator="equal">
       <formula>$L313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M317">
-    <cfRule type="cellIs" dxfId="285" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="536" operator="equal">
       <formula>$M313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K317">
-    <cfRule type="cellIs" dxfId="284" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="540" operator="equal">
       <formula>$K313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I318">
-    <cfRule type="cellIs" dxfId="283" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="534" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J318">
-    <cfRule type="cellIs" dxfId="282" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="533" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L318">
-    <cfRule type="cellIs" dxfId="281" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="532" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M318">
-    <cfRule type="cellIs" dxfId="280" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="531" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K318">
-    <cfRule type="cellIs" dxfId="279" priority="533" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="535" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I319">
-    <cfRule type="cellIs" dxfId="278" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="529" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J319">
-    <cfRule type="cellIs" dxfId="277" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="528" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L319">
-    <cfRule type="cellIs" dxfId="276" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="527" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M319">
-    <cfRule type="cellIs" dxfId="275" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="526" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K319">
-    <cfRule type="cellIs" dxfId="274" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="530" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I320">
-    <cfRule type="cellIs" dxfId="273" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="524" operator="equal">
       <formula>$I319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J320">
-    <cfRule type="cellIs" dxfId="272" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="523" operator="equal">
       <formula>$J319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L320">
-    <cfRule type="cellIs" dxfId="271" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="522" operator="equal">
       <formula>$L319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M320">
-    <cfRule type="cellIs" dxfId="270" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="521" operator="equal">
       <formula>$M319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K320">
-    <cfRule type="cellIs" dxfId="269" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="525" operator="equal">
       <formula>$K319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I321">
-    <cfRule type="cellIs" dxfId="268" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="519" operator="equal">
       <formula>$I319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J321">
-    <cfRule type="cellIs" dxfId="267" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="518" operator="equal">
       <formula>$J319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L321">
-    <cfRule type="cellIs" dxfId="266" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="517" operator="equal">
       <formula>$L319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M321">
-    <cfRule type="cellIs" dxfId="265" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="516" operator="equal">
       <formula>$M319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K321">
-    <cfRule type="cellIs" dxfId="264" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="520" operator="equal">
       <formula>$K319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I326">
-    <cfRule type="cellIs" dxfId="263" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="514" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J326">
-    <cfRule type="cellIs" dxfId="262" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="513" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L326">
-    <cfRule type="cellIs" dxfId="261" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="512" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M326">
-    <cfRule type="cellIs" dxfId="260" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="511" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K326">
-    <cfRule type="cellIs" dxfId="259" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="515" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I329">
-    <cfRule type="cellIs" dxfId="258" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="509" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J329">
-    <cfRule type="cellIs" dxfId="257" priority="506" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="508" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L329">
-    <cfRule type="cellIs" dxfId="256" priority="505" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="507" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M329">
-    <cfRule type="cellIs" dxfId="255" priority="504" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="506" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K329">
-    <cfRule type="cellIs" dxfId="254" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="510" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I330">
-    <cfRule type="cellIs" dxfId="253" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="504" operator="equal">
       <formula>$I318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J330">
-    <cfRule type="cellIs" dxfId="252" priority="501" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="503" operator="equal">
       <formula>$J318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L330">
-    <cfRule type="cellIs" dxfId="251" priority="500" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="502" operator="equal">
       <formula>$L318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M330">
-    <cfRule type="cellIs" dxfId="250" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="501" operator="equal">
       <formula>$M318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K330">
-    <cfRule type="cellIs" dxfId="249" priority="503" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="505" operator="equal">
       <formula>$K318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I327">
-    <cfRule type="cellIs" dxfId="248" priority="497" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="499" operator="equal">
       <formula>$I315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J327">
-    <cfRule type="cellIs" dxfId="247" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="498" operator="equal">
       <formula>$J315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L327">
-    <cfRule type="cellIs" dxfId="246" priority="495" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="497" operator="equal">
       <formula>$L315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M327">
-    <cfRule type="cellIs" dxfId="245" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="496" operator="equal">
       <formula>$M315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K327">
-    <cfRule type="cellIs" dxfId="244" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="500" operator="equal">
       <formula>$K315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I328">
-    <cfRule type="cellIs" dxfId="243" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="494" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J328">
-    <cfRule type="cellIs" dxfId="242" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="493" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L328">
-    <cfRule type="cellIs" dxfId="241" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="492" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M328">
-    <cfRule type="cellIs" dxfId="240" priority="489" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="491" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K328">
-    <cfRule type="cellIs" dxfId="239" priority="493" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="495" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I306:I307">
-    <cfRule type="cellIs" dxfId="238" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="486" operator="equal">
       <formula>$I295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J306:J307">
-    <cfRule type="cellIs" dxfId="237" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="487" operator="equal">
       <formula>$J295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L306:L307">
-    <cfRule type="cellIs" dxfId="236" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="488" operator="equal">
       <formula>$L295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M306:M307">
-    <cfRule type="cellIs" dxfId="235" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="489" operator="equal">
       <formula>$M295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K306:K307">
-    <cfRule type="cellIs" dxfId="234" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="490" operator="equal">
       <formula>$K295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I305">
-    <cfRule type="cellIs" dxfId="233" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="484" operator="equal">
       <formula>$I294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J305">
-    <cfRule type="cellIs" dxfId="232" priority="481" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="483" operator="equal">
       <formula>$J294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L305">
-    <cfRule type="cellIs" dxfId="231" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="482" operator="equal">
       <formula>$L294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M305">
-    <cfRule type="cellIs" dxfId="230" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="481" operator="equal">
       <formula>$M294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K305">
-    <cfRule type="cellIs" dxfId="229" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="485" operator="equal">
       <formula>$K294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I304">
-    <cfRule type="cellIs" dxfId="228" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="476" operator="equal">
       <formula>$I293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J304">
-    <cfRule type="cellIs" dxfId="227" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="477" operator="equal">
       <formula>$J293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L304">
-    <cfRule type="cellIs" dxfId="226" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="478" operator="equal">
       <formula>$L293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M304">
-    <cfRule type="cellIs" dxfId="225" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="479" operator="equal">
       <formula>$M293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K304">
-    <cfRule type="cellIs" dxfId="224" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="480" operator="equal">
       <formula>$K293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I298">
-    <cfRule type="cellIs" dxfId="223" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="474" operator="equal">
       <formula>$I292</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J298">
-    <cfRule type="cellIs" dxfId="222" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="473" operator="equal">
       <formula>$J292</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L298">
-    <cfRule type="cellIs" dxfId="221" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="472" operator="equal">
       <formula>$L292</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M298">
-    <cfRule type="cellIs" dxfId="220" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="471" operator="equal">
       <formula>$M292</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K298">
-    <cfRule type="cellIs" dxfId="219" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="475" operator="equal">
       <formula>$K292</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K299">
-    <cfRule type="cellIs" dxfId="218" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="465" operator="equal">
       <formula>$K293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I299">
-    <cfRule type="cellIs" dxfId="217" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="464" operator="equal">
       <formula>$I293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J299">
-    <cfRule type="cellIs" dxfId="216" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="463" operator="equal">
       <formula>$J293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L299">
+    <cfRule type="cellIs" dxfId="221" priority="462" operator="equal">
+      <formula>$L293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M299">
+    <cfRule type="cellIs" dxfId="220" priority="461" operator="equal">
+      <formula>$M293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I300">
+    <cfRule type="cellIs" dxfId="219" priority="459" operator="equal">
+      <formula>$I294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J300">
+    <cfRule type="cellIs" dxfId="218" priority="458" operator="equal">
+      <formula>$J294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L300">
+    <cfRule type="cellIs" dxfId="217" priority="457" operator="equal">
+      <formula>$L294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M300">
+    <cfRule type="cellIs" dxfId="216" priority="456" operator="equal">
+      <formula>$M294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K300">
     <cfRule type="cellIs" dxfId="215" priority="460" operator="equal">
-      <formula>$L293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M299">
-    <cfRule type="cellIs" dxfId="214" priority="459" operator="equal">
-      <formula>$M293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I300">
-    <cfRule type="cellIs" dxfId="213" priority="457" operator="equal">
-      <formula>$I294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J300">
-    <cfRule type="cellIs" dxfId="212" priority="456" operator="equal">
-      <formula>$J294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L300">
-    <cfRule type="cellIs" dxfId="211" priority="455" operator="equal">
-      <formula>$L294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M300">
-    <cfRule type="cellIs" dxfId="210" priority="454" operator="equal">
-      <formula>$M294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K300">
-    <cfRule type="cellIs" dxfId="209" priority="458" operator="equal">
       <formula>$K294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I301">
-    <cfRule type="cellIs" dxfId="208" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="454" operator="equal">
       <formula>$I295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J301">
-    <cfRule type="cellIs" dxfId="207" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="453" operator="equal">
       <formula>$J295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L301">
-    <cfRule type="cellIs" dxfId="206" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="452" operator="equal">
       <formula>$L295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M301">
-    <cfRule type="cellIs" dxfId="205" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="451" operator="equal">
       <formula>$M295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K301">
-    <cfRule type="cellIs" dxfId="204" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="455" operator="equal">
       <formula>$K295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I303">
-    <cfRule type="cellIs" dxfId="203" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="449" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J303">
-    <cfRule type="cellIs" dxfId="202" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="448" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L303">
-    <cfRule type="cellIs" dxfId="201" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="447" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M303">
-    <cfRule type="cellIs" dxfId="200" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="446" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K303">
-    <cfRule type="cellIs" dxfId="199" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="450" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I302">
-    <cfRule type="cellIs" dxfId="198" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="444" operator="equal">
       <formula>$I295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J302">
-    <cfRule type="cellIs" dxfId="197" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="443" operator="equal">
       <formula>$J295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L302">
-    <cfRule type="cellIs" dxfId="196" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="442" operator="equal">
       <formula>$L295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M302">
-    <cfRule type="cellIs" dxfId="195" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="441" operator="equal">
       <formula>$M295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K302">
-    <cfRule type="cellIs" dxfId="194" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="445" operator="equal">
       <formula>$K295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K297">
-    <cfRule type="cellIs" dxfId="193" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="440" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L297">
-    <cfRule type="cellIs" dxfId="192" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="439" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M297">
-    <cfRule type="cellIs" dxfId="191" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="438" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J297">
-    <cfRule type="cellIs" dxfId="190" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="437" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I297">
-    <cfRule type="cellIs" dxfId="189" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="436" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15 S171">
-    <cfRule type="cellIs" dxfId="188" priority="1021" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="1023" operator="equal">
       <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 I15 I171 B171">
-    <cfRule type="cellIs" dxfId="187" priority="1024" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="1026" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15 J171">
-    <cfRule type="cellIs" dxfId="186" priority="1026" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="1028" operator="equal">
       <formula>$J10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15 L171">
-    <cfRule type="cellIs" dxfId="185" priority="1027" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="1029" operator="equal">
       <formula>$L10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15 M171">
-    <cfRule type="cellIs" dxfId="184" priority="1028" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="1030" operator="equal">
       <formula>$M10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15 K171">
-    <cfRule type="cellIs" dxfId="183" priority="1029" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="1031" operator="equal">
       <formula>$K10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="182" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="428" operator="equal">
       <formula>$K9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="181" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="403" operator="equal">
       <formula>$M10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="180" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="399" operator="equal">
       <formula>$M11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="179" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="398" operator="equal">
       <formula>$M12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="178" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="397" operator="equal">
       <formula>$M13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="cellIs" dxfId="177" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="396" operator="equal">
       <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12">
-    <cfRule type="cellIs" dxfId="176" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="395" operator="equal">
       <formula>$S11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13">
-    <cfRule type="cellIs" dxfId="175" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="394" operator="equal">
       <formula>$S12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="174" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="393" operator="equal">
       <formula>$S13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="173" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="392" operator="equal">
       <formula>$K11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="172" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="391" operator="equal">
       <formula>$K12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="171" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="390" operator="equal">
       <formula>$K13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="170" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="389" operator="equal">
       <formula>$L10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="169" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="388" operator="equal">
       <formula>$L11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="168" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="387" operator="equal">
       <formula>$L12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="167" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="386" operator="equal">
       <formula>$L13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="166" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="385" operator="equal">
       <formula>$J10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="165" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="384" operator="equal">
       <formula>$J11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="164" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="383" operator="equal">
       <formula>$J12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="163" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="382" operator="equal">
       <formula>$J13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="162" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="379" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="161" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="378" operator="equal">
       <formula>$I11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="160" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="377" operator="equal">
       <formula>$I12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="159" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="376" operator="equal">
       <formula>$I13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="158" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="375" operator="equal">
       <formula>$I6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="157" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="374" operator="equal">
       <formula>$I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="156" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="373" operator="equal">
       <formula>$I8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J265">
-    <cfRule type="cellIs" dxfId="155" priority="1034" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="1036" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L265">
-    <cfRule type="cellIs" dxfId="154" priority="1037" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="1039" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M265">
-    <cfRule type="cellIs" dxfId="153" priority="1039" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="1041" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K265">
-    <cfRule type="cellIs" dxfId="152" priority="1041" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="1043" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K156">
-    <cfRule type="cellIs" dxfId="151" priority="1051" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="1053" operator="equal">
       <formula>$K143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189">
-    <cfRule type="cellIs" dxfId="150" priority="1053" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="1055" operator="equal">
       <formula>$S143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S104 S184 S151 S218 S237">
-    <cfRule type="cellIs" dxfId="149" priority="1065" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="1067" operator="equal">
       <formula>$S102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146">
-    <cfRule type="cellIs" dxfId="148" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="326" operator="equal">
       <formula>$I144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I144">
-    <cfRule type="cellIs" dxfId="147" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="324" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="146" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="323" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144">
-    <cfRule type="cellIs" dxfId="145" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="325" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S144">
-    <cfRule type="cellIs" dxfId="144" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="333" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S146">
-    <cfRule type="cellIs" dxfId="143" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="334" operator="equal">
       <formula>$S144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S145">
-    <cfRule type="cellIs" dxfId="142" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="321" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L147">
-    <cfRule type="cellIs" dxfId="141" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="319" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M147">
-    <cfRule type="cellIs" dxfId="140" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="318" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144:K147">
-    <cfRule type="cellIs" dxfId="139" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="320" operator="equal">
       <formula>$K143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J146">
-    <cfRule type="cellIs" dxfId="138" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="309" operator="equal">
       <formula>$J145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145:I146">
-    <cfRule type="cellIs" dxfId="137" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="317" operator="equal">
       <formula>$I144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145:J146">
-    <cfRule type="cellIs" dxfId="136" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="316" operator="equal">
       <formula>$J144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L147">
-    <cfRule type="cellIs" dxfId="135" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="315" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M147">
-    <cfRule type="cellIs" dxfId="134" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="314" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L145">
-    <cfRule type="cellIs" dxfId="133" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="313" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M145">
-    <cfRule type="cellIs" dxfId="132" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="312" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144:L145">
-    <cfRule type="cellIs" dxfId="131" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="311" operator="equal">
       <formula>$L143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144:M145">
-    <cfRule type="cellIs" dxfId="130" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="310" operator="equal">
       <formula>$M143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="129" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="308" operator="equal">
       <formula>$J143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="128" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="307" operator="equal">
       <formula>$J143</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S155">
-    <cfRule type="cellIs" dxfId="127" priority="1069" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="1071" operator="equal">
       <formula>$S264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="cellIs" dxfId="126" priority="1076" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="1078" operator="equal">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I149">
-    <cfRule type="cellIs" dxfId="125" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="237" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="124" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="236" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="123" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="238" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B149:B150">
-    <cfRule type="cellIs" dxfId="122" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="235" operator="equal">
       <formula>$I62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S149">
-    <cfRule type="cellIs" dxfId="121" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="246" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S150">
-    <cfRule type="cellIs" dxfId="120" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="234" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="119" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="230" operator="equal">
       <formula>$J258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="118" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="229" operator="equal">
       <formula>$J258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="117" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="248" operator="equal">
       <formula>$L258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="116" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="249" operator="equal">
       <formula>$M258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="115" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="250" operator="equal">
       <formula>$K258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S74">
-    <cfRule type="cellIs" dxfId="114" priority="1082" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="1084" operator="equal">
       <formula>$S73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S83">
-    <cfRule type="cellIs" dxfId="113" priority="1104" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="1106" operator="equal">
       <formula>$S81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="112" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="168" operator="equal">
       <formula>$I81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="cellIs" dxfId="111" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="167" operator="equal">
       <formula>$J81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L82">
-    <cfRule type="cellIs" dxfId="110" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="166" operator="equal">
       <formula>$L81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82">
-    <cfRule type="cellIs" dxfId="109" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="165" operator="equal">
       <formula>$M81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K82">
-    <cfRule type="cellIs" dxfId="108" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="169" operator="equal">
       <formula>$K81</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="107" priority="1105" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="1107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="cellIs" dxfId="106" priority="1107" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="1109" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2 B2">
-    <cfRule type="cellIs" dxfId="105" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="142" operator="equal">
       <formula>$I276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="cellIs" dxfId="104" priority="1118" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="1120" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S148">
-    <cfRule type="cellIs" dxfId="103" priority="1136" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="1138" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="102" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="140" operator="equal">
       <formula>$I101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J103">
-    <cfRule type="cellIs" dxfId="101" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="139" operator="equal">
       <formula>$J101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L103">
-    <cfRule type="cellIs" dxfId="100" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="138" operator="equal">
       <formula>$L101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M103">
-    <cfRule type="cellIs" dxfId="99" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="137" operator="equal">
       <formula>$M101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K103">
-    <cfRule type="cellIs" dxfId="98" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="141" operator="equal">
       <formula>$K101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="97" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="125" operator="equal">
       <formula>$L147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="96" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="124" operator="equal">
       <formula>$L147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="cellIs" dxfId="95" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="123" operator="equal">
       <formula>$L147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K148">
-    <cfRule type="cellIs" dxfId="94" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="120" operator="equal">
       <formula>$K147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K148">
-    <cfRule type="cellIs" dxfId="93" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="119" operator="equal">
       <formula>$K147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J148">
-    <cfRule type="cellIs" dxfId="92" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="117" operator="equal">
       <formula>$J147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I148">
-    <cfRule type="cellIs" dxfId="91" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="116" operator="equal">
       <formula>$I147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I217">
-    <cfRule type="cellIs" dxfId="90" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="111" operator="equal">
       <formula>$I215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J217">
-    <cfRule type="cellIs" dxfId="89" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="110" operator="equal">
       <formula>$J215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L217">
-    <cfRule type="cellIs" dxfId="88" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="109" operator="equal">
       <formula>$L215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M217">
-    <cfRule type="cellIs" dxfId="87" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="108" operator="equal">
       <formula>$M215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K217">
-    <cfRule type="cellIs" dxfId="86" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="112" operator="equal">
       <formula>$K215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S217">
-    <cfRule type="cellIs" dxfId="85" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="113" operator="equal">
       <formula>$S215</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="84" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="107" operator="equal">
       <formula>$I156</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="83" priority="1196" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="1198" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75">
-    <cfRule type="cellIs" dxfId="82" priority="1198" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="1200" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75">
-    <cfRule type="cellIs" dxfId="81" priority="1200" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="1202" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75">
-    <cfRule type="cellIs" dxfId="80" priority="1202" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="1204" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75">
-    <cfRule type="cellIs" dxfId="79" priority="1209" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="1211" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S75">
-    <cfRule type="cellIs" dxfId="78" priority="1211" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="1213" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M146">
-    <cfRule type="cellIs" dxfId="77" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="106" operator="equal">
       <formula>$M145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M146">
-    <cfRule type="cellIs" dxfId="76" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="105" operator="equal">
       <formula>$M145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="75" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="104" operator="equal">
       <formula>$M146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="74" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="103" operator="equal">
       <formula>$M146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="73" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="102" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="72" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="101" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="71" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="100" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="70" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="99" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I236 B236">
-    <cfRule type="cellIs" dxfId="69" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="93" operator="equal">
       <formula>$I235</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J236">
-    <cfRule type="cellIs" dxfId="68" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="92" operator="equal">
       <formula>$J235</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L236">
-    <cfRule type="cellIs" dxfId="67" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="91" operator="equal">
       <formula>$L235</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M236">
-    <cfRule type="cellIs" dxfId="66" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="90" operator="equal">
       <formula>$M235</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K236">
-    <cfRule type="cellIs" dxfId="65" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="94" operator="equal">
       <formula>$K235</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S236">
-    <cfRule type="cellIs" dxfId="64" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="89" operator="equal">
       <formula>$S235</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M339:M358">
-    <cfRule type="cellIs" dxfId="63" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="54" operator="equal">
       <formula>$M338</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I336">
-    <cfRule type="cellIs" dxfId="62" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="77" operator="equal">
       <formula>$I335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J336">
-    <cfRule type="cellIs" dxfId="61" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
       <formula>$J335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L336">
-    <cfRule type="cellIs" dxfId="60" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="75" operator="equal">
       <formula>$L335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M336">
-    <cfRule type="cellIs" dxfId="59" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="74" operator="equal">
       <formula>$M335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K336">
-    <cfRule type="cellIs" dxfId="58" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="78" operator="equal">
       <formula>$K335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L337">
-    <cfRule type="cellIs" dxfId="57" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M337">
-    <cfRule type="cellIs" dxfId="56" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L339:L358">
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="55" operator="equal">
       <formula>$L338</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K339:K358">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
       <formula>$K338</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I337">
-    <cfRule type="cellIs" dxfId="53" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K337">
-    <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I338">
-    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J338">
-    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L338">
-    <cfRule type="cellIs" dxfId="49" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M338">
-    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K338">
-    <cfRule type="cellIs" dxfId="47" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J339:J358">
-    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
       <formula>$J338</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M359">
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="50" operator="equal">
       <formula>$M358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L359">
-    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
       <formula>$L358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K359">
-    <cfRule type="cellIs" dxfId="43" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>$K358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J359">
-    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
       <formula>$J358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I363">
-    <cfRule type="cellIs" dxfId="41" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="84" operator="equal">
       <formula>$I358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J363">
-    <cfRule type="cellIs" dxfId="40" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="85" operator="equal">
       <formula>$J358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L363">
-    <cfRule type="cellIs" dxfId="39" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="86" operator="equal">
       <formula>$L358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M363">
-    <cfRule type="cellIs" dxfId="38" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="87" operator="equal">
       <formula>$M358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K363">
-    <cfRule type="cellIs" dxfId="37" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="88" operator="equal">
       <formula>$K358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M360">
-    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>$M359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L360">
-    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
       <formula>$L359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K360">
-    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
       <formula>$K359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J360">
-    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
       <formula>$J359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M362">
-    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>$M360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L362">
-    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
       <formula>$L360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K362">
-    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
       <formula>$K360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J362">
-    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="44" operator="equal">
       <formula>$J360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M361">
-    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>$M359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L361">
-    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
       <formula>$L359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K361">
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="41" operator="equal">
       <formula>$K359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J361">
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="40" operator="equal">
       <formula>$J359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I339:I362">
-    <cfRule type="cellIs" dxfId="24" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="37" operator="equal">
       <formula>$I338</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J337">
-    <cfRule type="cellIs" dxfId="23" priority="1212" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1214" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J369">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
       <formula>$J376</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L369">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>$L376</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M369">
-    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
-      <formula>$M376</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K369">
-    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>$K376</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S369">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>$S368</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J371:J372">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>$J370</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L371:L372">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+      <formula>$L370</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M371:M372">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+      <formula>$M370</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K371:K372">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>$K370</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J370">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>$J368</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L370">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+      <formula>$L368</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K370">
     <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>$L370</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M371:M372">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
-      <formula>$M370</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K371:K372">
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
-      <formula>$K370</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J370">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>$J368</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L370">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>$L368</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M370">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>$K368</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M365:M366">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+      <formula>$M364</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M367">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>$M366</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I366:I372">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>$M365</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I364">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I365">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+      <formula>$I364</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I373:I374">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>$I372</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J373:J374">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>$J372</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L373:L374">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>$L372</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M373:M374">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>$M372</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K373:K374">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>$K372</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M369:M370">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$M368</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K370">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
-      <formula>$K368</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M365:M366">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>$M364</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M367:M368">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
-      <formula>$M366</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I366:I372">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
-      <formula>$M365</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I364">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I365">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>$I364</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I373:I374">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>$I372</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J373:J374">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>$J372</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L373:L374">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>$L372</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M373:M374">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>$M372</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K373:K374">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>$K372</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
